--- a/Logs/Log.xlsx
+++ b/Logs/Log.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F82"/>
+  <dimension ref="A1:F102"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,20 +456,20 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>9650.97</t>
+          <t>0287.10</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1572</v>
+        <v>1580</v>
       </c>
       <c r="C2" t="n">
-        <v>1522</v>
+        <v>1380</v>
       </c>
       <c r="D2" t="n">
-        <v>-456</v>
+        <v>-448</v>
       </c>
       <c r="E2" t="n">
-        <v>2</v>
+        <v>-140</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
@@ -480,20 +480,20 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>9652.61</t>
+          <t>0288.85</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1570</v>
+        <v>1582</v>
       </c>
       <c r="C3" t="n">
-        <v>1526</v>
+        <v>1382</v>
       </c>
       <c r="D3" t="n">
-        <v>-457</v>
+        <v>-447</v>
       </c>
       <c r="E3" t="n">
-        <v>4</v>
+        <v>-139</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
@@ -504,20 +504,20 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>9653.95</t>
+          <t>0290.13</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1570</v>
+        <v>1582</v>
       </c>
       <c r="C4" t="n">
-        <v>1526</v>
+        <v>1380</v>
       </c>
       <c r="D4" t="n">
-        <v>-458</v>
+        <v>-447</v>
       </c>
       <c r="E4" t="n">
-        <v>4</v>
+        <v>-140</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
@@ -528,20 +528,20 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>9655.21</t>
+          <t>0291.38</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1570</v>
+        <v>1582</v>
       </c>
       <c r="C5" t="n">
-        <v>1524</v>
+        <v>1380</v>
       </c>
       <c r="D5" t="n">
-        <v>-458</v>
+        <v>-447</v>
       </c>
       <c r="E5" t="n">
-        <v>4</v>
+        <v>-140</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
@@ -552,20 +552,20 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>9656.39</t>
+          <t>0292.61</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1570</v>
+        <v>1580</v>
       </c>
       <c r="C6" t="n">
-        <v>1526</v>
+        <v>1382</v>
       </c>
       <c r="D6" t="n">
-        <v>-458</v>
+        <v>-447</v>
       </c>
       <c r="E6" t="n">
-        <v>5</v>
+        <v>-139</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
@@ -576,20 +576,20 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>9657.71</t>
+          <t>0293.76</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1572</v>
+        <v>1582</v>
       </c>
       <c r="C7" t="n">
-        <v>1524</v>
+        <v>1380</v>
       </c>
       <c r="D7" t="n">
-        <v>-458</v>
+        <v>-447</v>
       </c>
       <c r="E7" t="n">
-        <v>5</v>
+        <v>-140</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
@@ -600,20 +600,20 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>9658.90</t>
+          <t>0294.93</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1572</v>
+        <v>1580</v>
       </c>
       <c r="C8" t="n">
-        <v>1524</v>
+        <v>1382</v>
       </c>
       <c r="D8" t="n">
-        <v>-457</v>
+        <v>-447</v>
       </c>
       <c r="E8" t="n">
-        <v>4</v>
+        <v>-139</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
@@ -624,20 +624,20 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>9660.02</t>
+          <t>0296.27</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>1572</v>
+        <v>1580</v>
       </c>
       <c r="C9" t="n">
-        <v>1522</v>
+        <v>1382</v>
       </c>
       <c r="D9" t="n">
-        <v>-457</v>
+        <v>-448</v>
       </c>
       <c r="E9" t="n">
-        <v>4</v>
+        <v>-139</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
@@ -648,20 +648,20 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>9661.21</t>
+          <t>0297.44</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1570</v>
+        <v>1582</v>
       </c>
       <c r="C10" t="n">
-        <v>1526</v>
+        <v>1380</v>
       </c>
       <c r="D10" t="n">
-        <v>-457</v>
+        <v>-447</v>
       </c>
       <c r="E10" t="n">
-        <v>4</v>
+        <v>-139</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
@@ -672,20 +672,20 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>9662.40</t>
+          <t>0298.76</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1572</v>
+        <v>1580</v>
       </c>
       <c r="C11" t="n">
-        <v>1524</v>
+        <v>1382</v>
       </c>
       <c r="D11" t="n">
-        <v>-457</v>
+        <v>-448</v>
       </c>
       <c r="E11" t="n">
-        <v>4</v>
+        <v>-139</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
@@ -696,20 +696,20 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>9663.58</t>
+          <t>0299.94</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1572</v>
+        <v>1580</v>
       </c>
       <c r="C12" t="n">
-        <v>1522</v>
+        <v>1380</v>
       </c>
       <c r="D12" t="n">
-        <v>-457</v>
+        <v>-448</v>
       </c>
       <c r="E12" t="n">
-        <v>3</v>
+        <v>-139</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
@@ -720,20 +720,20 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>9664.90</t>
+          <t>0301.26</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1570</v>
+        <v>1582</v>
       </c>
       <c r="C13" t="n">
-        <v>1526</v>
+        <v>1380</v>
       </c>
       <c r="D13" t="n">
-        <v>-457</v>
+        <v>-447</v>
       </c>
       <c r="E13" t="n">
-        <v>4</v>
+        <v>-140</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
@@ -744,20 +744,20 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>9666.17</t>
+          <t>0302.45</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1570</v>
+        <v>1582</v>
       </c>
       <c r="C14" t="n">
-        <v>1526</v>
+        <v>1382</v>
       </c>
       <c r="D14" t="n">
-        <v>-457</v>
+        <v>-447</v>
       </c>
       <c r="E14" t="n">
-        <v>4</v>
+        <v>-139</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
@@ -768,20 +768,20 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>9667.40</t>
+          <t>0303.69</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>1572</v>
+        <v>1580</v>
       </c>
       <c r="C15" t="n">
-        <v>1524</v>
+        <v>1380</v>
       </c>
       <c r="D15" t="n">
-        <v>-457</v>
+        <v>-447</v>
       </c>
       <c r="E15" t="n">
-        <v>4</v>
+        <v>-140</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
@@ -792,20 +792,20 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>9668.57</t>
+          <t>0304.95</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1568</v>
+        <v>1580</v>
       </c>
       <c r="C16" t="n">
-        <v>1526</v>
+        <v>1382</v>
       </c>
       <c r="D16" t="n">
-        <v>-458</v>
+        <v>-447</v>
       </c>
       <c r="E16" t="n">
-        <v>5</v>
+        <v>-139</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
@@ -816,20 +816,20 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>9669.80</t>
+          <t>0306.15</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1570</v>
+        <v>1582</v>
       </c>
       <c r="C17" t="n">
-        <v>1524</v>
+        <v>1382</v>
       </c>
       <c r="D17" t="n">
-        <v>-458</v>
+        <v>-447</v>
       </c>
       <c r="E17" t="n">
-        <v>5</v>
+        <v>-139</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
@@ -840,20 +840,20 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>9670.99</t>
+          <t>0307.34</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>1572</v>
+        <v>1582</v>
       </c>
       <c r="C18" t="n">
-        <v>1524</v>
+        <v>1380</v>
       </c>
       <c r="D18" t="n">
-        <v>-458</v>
+        <v>-447</v>
       </c>
       <c r="E18" t="n">
-        <v>4</v>
+        <v>-139</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
@@ -864,20 +864,20 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>9672.32</t>
+          <t>0308.65</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1572</v>
+        <v>1580</v>
       </c>
       <c r="C19" t="n">
-        <v>1526</v>
+        <v>1382</v>
       </c>
       <c r="D19" t="n">
-        <v>-458</v>
+        <v>-447</v>
       </c>
       <c r="E19" t="n">
-        <v>5</v>
+        <v>-139</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
@@ -888,20 +888,20 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>9673.50</t>
+          <t>0309.83</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1572</v>
+        <v>1582</v>
       </c>
       <c r="C20" t="n">
-        <v>1524</v>
+        <v>1380</v>
       </c>
       <c r="D20" t="n">
-        <v>-457</v>
+        <v>-447</v>
       </c>
       <c r="E20" t="n">
-        <v>4</v>
+        <v>-139</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
@@ -912,20 +912,20 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>9674.71</t>
+          <t>0311.09</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>1568</v>
+        <v>1580</v>
       </c>
       <c r="C21" t="n">
-        <v>1526</v>
+        <v>1382</v>
       </c>
       <c r="D21" t="n">
-        <v>-457</v>
+        <v>-447</v>
       </c>
       <c r="E21" t="n">
-        <v>5</v>
+        <v>-139</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
@@ -936,20 +936,20 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>9675.89</t>
+          <t>0312.32</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1570</v>
+        <v>1580</v>
       </c>
       <c r="C22" t="n">
-        <v>1526</v>
+        <v>1382</v>
       </c>
       <c r="D22" t="n">
-        <v>-458</v>
+        <v>-448</v>
       </c>
       <c r="E22" t="n">
-        <v>5</v>
+        <v>-139</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
@@ -960,20 +960,20 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>9677.22</t>
+          <t>0313.59</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1572</v>
+        <v>1582</v>
       </c>
       <c r="C23" t="n">
-        <v>1524</v>
+        <v>1380</v>
       </c>
       <c r="D23" t="n">
-        <v>-458</v>
+        <v>-447</v>
       </c>
       <c r="E23" t="n">
-        <v>5</v>
+        <v>-139</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
@@ -984,20 +984,20 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>9678.41</t>
+          <t>0314.83</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>1570</v>
+        <v>1582</v>
       </c>
       <c r="C24" t="n">
-        <v>1526</v>
+        <v>1382</v>
       </c>
       <c r="D24" t="n">
-        <v>-458</v>
+        <v>-447</v>
       </c>
       <c r="E24" t="n">
-        <v>5</v>
+        <v>-139</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
@@ -1008,20 +1008,20 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>9679.63</t>
+          <t>0316.16</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1570</v>
+        <v>1582</v>
       </c>
       <c r="C25" t="n">
-        <v>1526</v>
+        <v>1380</v>
       </c>
       <c r="D25" t="n">
-        <v>-458</v>
+        <v>-447</v>
       </c>
       <c r="E25" t="n">
-        <v>5</v>
+        <v>-139</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
@@ -1032,20 +1032,20 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>9680.89</t>
+          <t>0317.33</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1572</v>
+        <v>1582</v>
       </c>
       <c r="C26" t="n">
-        <v>1524</v>
+        <v>1380</v>
       </c>
       <c r="D26" t="n">
-        <v>-457</v>
+        <v>-446</v>
       </c>
       <c r="E26" t="n">
-        <v>5</v>
+        <v>-140</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
@@ -1056,20 +1056,20 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>9682.24</t>
+          <t>0318.68</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>1572</v>
+        <v>1580</v>
       </c>
       <c r="C27" t="n">
-        <v>1524</v>
+        <v>1382</v>
       </c>
       <c r="D27" t="n">
-        <v>-457</v>
+        <v>-447</v>
       </c>
       <c r="E27" t="n">
-        <v>5</v>
+        <v>-139</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
@@ -1080,20 +1080,20 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>9683.59</t>
+          <t>0319.85</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1572</v>
+        <v>1580</v>
       </c>
       <c r="C28" t="n">
-        <v>1524</v>
+        <v>1380</v>
       </c>
       <c r="D28" t="n">
-        <v>-457</v>
+        <v>-447</v>
       </c>
       <c r="E28" t="n">
-        <v>4</v>
+        <v>-140</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
@@ -1104,20 +1104,20 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>9684.73</t>
+          <t>0321.08</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1570</v>
+        <v>1580</v>
       </c>
       <c r="C29" t="n">
-        <v>1522</v>
+        <v>1380</v>
       </c>
       <c r="D29" t="n">
-        <v>-457</v>
+        <v>-448</v>
       </c>
       <c r="E29" t="n">
-        <v>3</v>
+        <v>-140</v>
       </c>
       <c r="F29" t="inlineStr">
         <is>
@@ -1128,20 +1128,20 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>9685.98</t>
+          <t>0322.35</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>1570</v>
+        <v>1578</v>
       </c>
       <c r="C30" t="n">
-        <v>1524</v>
+        <v>1380</v>
       </c>
       <c r="D30" t="n">
-        <v>-457</v>
+        <v>-449</v>
       </c>
       <c r="E30" t="n">
-        <v>3</v>
+        <v>-140</v>
       </c>
       <c r="F30" t="inlineStr">
         <is>
@@ -1152,20 +1152,20 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>9687.12</t>
+          <t>0323.60</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1568</v>
+        <v>1578</v>
       </c>
       <c r="C31" t="n">
-        <v>1520</v>
+        <v>1380</v>
       </c>
       <c r="D31" t="n">
-        <v>-458</v>
+        <v>-449</v>
       </c>
       <c r="E31" t="n">
-        <v>2</v>
+        <v>-140</v>
       </c>
       <c r="F31" t="inlineStr">
         <is>
@@ -1176,20 +1176,20 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>9688.30</t>
+          <t>0324.94</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1564</v>
+        <v>1578</v>
       </c>
       <c r="C32" t="n">
-        <v>1526</v>
+        <v>1380</v>
       </c>
       <c r="D32" t="n">
-        <v>-460</v>
+        <v>-450</v>
       </c>
       <c r="E32" t="n">
-        <v>3</v>
+        <v>-140</v>
       </c>
       <c r="F32" t="inlineStr">
         <is>
@@ -1200,20 +1200,20 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>9689.53</t>
+          <t>0326.19</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>1562</v>
+        <v>1574</v>
       </c>
       <c r="C33" t="n">
-        <v>1524</v>
+        <v>1380</v>
       </c>
       <c r="D33" t="n">
-        <v>-462</v>
+        <v>-451</v>
       </c>
       <c r="E33" t="n">
-        <v>3</v>
+        <v>-140</v>
       </c>
       <c r="F33" t="inlineStr">
         <is>
@@ -1224,20 +1224,20 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>9690.77</t>
+          <t>0327.41</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1560</v>
+        <v>1574</v>
       </c>
       <c r="C34" t="n">
-        <v>1526</v>
+        <v>1380</v>
       </c>
       <c r="D34" t="n">
-        <v>-465</v>
+        <v>-452</v>
       </c>
       <c r="E34" t="n">
-        <v>4</v>
+        <v>-140</v>
       </c>
       <c r="F34" t="inlineStr">
         <is>
@@ -1248,20 +1248,20 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>9691.92</t>
+          <t>0328.65</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1560</v>
+        <v>1570</v>
       </c>
       <c r="C35" t="n">
-        <v>1526</v>
+        <v>1382</v>
       </c>
       <c r="D35" t="n">
-        <v>-467</v>
+        <v>-454</v>
       </c>
       <c r="E35" t="n">
-        <v>5</v>
+        <v>-140</v>
       </c>
       <c r="F35" t="inlineStr">
         <is>
@@ -1272,20 +1272,20 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>9693.10</t>
+          <t>0329.84</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>1562</v>
+        <v>1568</v>
       </c>
       <c r="C36" t="n">
-        <v>1522</v>
+        <v>1382</v>
       </c>
       <c r="D36" t="n">
-        <v>-467</v>
+        <v>-457</v>
       </c>
       <c r="E36" t="n">
-        <v>4</v>
+        <v>-139</v>
       </c>
       <c r="F36" t="inlineStr">
         <is>
@@ -1296,20 +1296,20 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>9694.43</t>
+          <t>0331.15</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1556</v>
+        <v>1566</v>
       </c>
       <c r="C37" t="n">
-        <v>1524</v>
+        <v>1382</v>
       </c>
       <c r="D37" t="n">
-        <v>-469</v>
+        <v>-459</v>
       </c>
       <c r="E37" t="n">
-        <v>4</v>
+        <v>-139</v>
       </c>
       <c r="F37" t="inlineStr">
         <is>
@@ -1320,20 +1320,20 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>9695.68</t>
+          <t>0332.33</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1556</v>
+        <v>1568</v>
       </c>
       <c r="C38" t="n">
-        <v>1524</v>
+        <v>1380</v>
       </c>
       <c r="D38" t="n">
-        <v>-470</v>
+        <v>-460</v>
       </c>
       <c r="E38" t="n">
-        <v>4</v>
+        <v>-139</v>
       </c>
       <c r="F38" t="inlineStr">
         <is>
@@ -1344,20 +1344,20 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>9696.80</t>
+          <t>0333.68</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>1552</v>
+        <v>1562</v>
       </c>
       <c r="C39" t="n">
-        <v>1524</v>
+        <v>1384</v>
       </c>
       <c r="D39" t="n">
-        <v>-472</v>
+        <v>-462</v>
       </c>
       <c r="E39" t="n">
-        <v>3</v>
+        <v>-138</v>
       </c>
       <c r="F39" t="inlineStr">
         <is>
@@ -1368,20 +1368,20 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>9698.07</t>
+          <t>0334.94</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1554</v>
+        <v>1562</v>
       </c>
       <c r="C40" t="n">
-        <v>1524</v>
+        <v>1378</v>
       </c>
       <c r="D40" t="n">
-        <v>-474</v>
+        <v>-464</v>
       </c>
       <c r="E40" t="n">
-        <v>4</v>
+        <v>-139</v>
       </c>
       <c r="F40" t="inlineStr">
         <is>
@@ -1392,20 +1392,20 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>9699.43</t>
+          <t>0336.25</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1550</v>
+        <v>1560</v>
       </c>
       <c r="C41" t="n">
-        <v>1526</v>
+        <v>1382</v>
       </c>
       <c r="D41" t="n">
-        <v>-475</v>
+        <v>-465</v>
       </c>
       <c r="E41" t="n">
-        <v>4</v>
+        <v>-139</v>
       </c>
       <c r="F41" t="inlineStr">
         <is>
@@ -1416,20 +1416,20 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>9700.69</t>
+          <t>0337.43</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>1550</v>
+        <v>1558</v>
       </c>
       <c r="C42" t="n">
-        <v>1520</v>
+        <v>1382</v>
       </c>
       <c r="D42" t="n">
-        <v>-477</v>
+        <v>-468</v>
       </c>
       <c r="E42" t="n">
-        <v>3</v>
+        <v>-139</v>
       </c>
       <c r="F42" t="inlineStr">
         <is>
@@ -1440,20 +1440,20 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>9702.02</t>
+          <t>0338.65</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1548</v>
+        <v>1560</v>
       </c>
       <c r="C43" t="n">
-        <v>1524</v>
+        <v>1378</v>
       </c>
       <c r="D43" t="n">
-        <v>-478</v>
+        <v>-468</v>
       </c>
       <c r="E43" t="n">
-        <v>3</v>
+        <v>-140</v>
       </c>
       <c r="F43" t="inlineStr">
         <is>
@@ -1464,20 +1464,20 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>9703.27</t>
+          <t>0339.94</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1544</v>
+        <v>1558</v>
       </c>
       <c r="C44" t="n">
-        <v>1526</v>
+        <v>1380</v>
       </c>
       <c r="D44" t="n">
-        <v>-480</v>
+        <v>-469</v>
       </c>
       <c r="E44" t="n">
-        <v>4</v>
+        <v>-140</v>
       </c>
       <c r="F44" t="inlineStr">
         <is>
@@ -1488,20 +1488,20 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>9704.40</t>
+          <t>0341.26</t>
         </is>
       </c>
       <c r="B45" t="n">
-        <v>1544</v>
+        <v>1554</v>
       </c>
       <c r="C45" t="n">
-        <v>1526</v>
+        <v>1382</v>
       </c>
       <c r="D45" t="n">
-        <v>-482</v>
+        <v>-471</v>
       </c>
       <c r="E45" t="n">
-        <v>4</v>
+        <v>-140</v>
       </c>
       <c r="F45" t="inlineStr">
         <is>
@@ -1512,20 +1512,20 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>9705.57</t>
+          <t>0342.44</t>
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1544</v>
+        <v>1558</v>
       </c>
       <c r="C46" t="n">
-        <v>1526</v>
+        <v>1380</v>
       </c>
       <c r="D46" t="n">
-        <v>-483</v>
+        <v>-471</v>
       </c>
       <c r="E46" t="n">
-        <v>5</v>
+        <v>-140</v>
       </c>
       <c r="F46" t="inlineStr">
         <is>
@@ -1536,20 +1536,20 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>9706.93</t>
+          <t>0343.79</t>
         </is>
       </c>
       <c r="B47" t="n">
-        <v>1546</v>
+        <v>1556</v>
       </c>
       <c r="C47" t="n">
-        <v>1522</v>
+        <v>1382</v>
       </c>
       <c r="D47" t="n">
-        <v>-484</v>
+        <v>-472</v>
       </c>
       <c r="E47" t="n">
-        <v>5</v>
+        <v>-139</v>
       </c>
       <c r="F47" t="inlineStr">
         <is>
@@ -1560,20 +1560,20 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>9708.19</t>
+          <t>0345.05</t>
         </is>
       </c>
       <c r="B48" t="n">
-        <v>1546</v>
+        <v>1556</v>
       </c>
       <c r="C48" t="n">
-        <v>1524</v>
+        <v>1380</v>
       </c>
       <c r="D48" t="n">
-        <v>-483</v>
+        <v>-472</v>
       </c>
       <c r="E48" t="n">
-        <v>4</v>
+        <v>-139</v>
       </c>
       <c r="F48" t="inlineStr">
         <is>
@@ -1584,20 +1584,20 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>9709.40</t>
+          <t>0346.26</t>
         </is>
       </c>
       <c r="B49" t="n">
-        <v>1546</v>
+        <v>1556</v>
       </c>
       <c r="C49" t="n">
-        <v>1522</v>
+        <v>1382</v>
       </c>
       <c r="D49" t="n">
-        <v>-483</v>
+        <v>-472</v>
       </c>
       <c r="E49" t="n">
-        <v>3</v>
+        <v>-139</v>
       </c>
       <c r="F49" t="inlineStr">
         <is>
@@ -1608,20 +1608,20 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>9710.59</t>
+          <t>0347.44</t>
         </is>
       </c>
       <c r="B50" t="n">
-        <v>1548</v>
+        <v>1562</v>
       </c>
       <c r="C50" t="n">
-        <v>1526</v>
+        <v>1378</v>
       </c>
       <c r="D50" t="n">
-        <v>-482</v>
+        <v>-471</v>
       </c>
       <c r="E50" t="n">
-        <v>3</v>
+        <v>-140</v>
       </c>
       <c r="F50" t="inlineStr">
         <is>
@@ -1632,20 +1632,20 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>9711.92</t>
+          <t>0348.67</t>
         </is>
       </c>
       <c r="B51" t="n">
-        <v>1550</v>
+        <v>1560</v>
       </c>
       <c r="C51" t="n">
-        <v>1522</v>
+        <v>1382</v>
       </c>
       <c r="D51" t="n">
-        <v>-481</v>
+        <v>-470</v>
       </c>
       <c r="E51" t="n">
-        <v>3</v>
+        <v>-140</v>
       </c>
       <c r="F51" t="inlineStr">
         <is>
@@ -1656,20 +1656,20 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>9713.09</t>
+          <t>0349.85</t>
         </is>
       </c>
       <c r="B52" t="n">
-        <v>1550</v>
+        <v>1560</v>
       </c>
       <c r="C52" t="n">
-        <v>1524</v>
+        <v>1382</v>
       </c>
       <c r="D52" t="n">
-        <v>-480</v>
+        <v>-469</v>
       </c>
       <c r="E52" t="n">
-        <v>3</v>
+        <v>-139</v>
       </c>
       <c r="F52" t="inlineStr">
         <is>
@@ -1680,20 +1680,20 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>9714.43</t>
+          <t>0351.17</t>
         </is>
       </c>
       <c r="B53" t="n">
-        <v>1552</v>
+        <v>1564</v>
       </c>
       <c r="C53" t="n">
-        <v>1526</v>
+        <v>1378</v>
       </c>
       <c r="D53" t="n">
-        <v>-478</v>
+        <v>-467</v>
       </c>
       <c r="E53" t="n">
-        <v>4</v>
+        <v>-140</v>
       </c>
       <c r="F53" t="inlineStr">
         <is>
@@ -1704,20 +1704,20 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>9715.66</t>
+          <t>0352.34</t>
         </is>
       </c>
       <c r="B54" t="n">
-        <v>1554</v>
+        <v>1566</v>
       </c>
       <c r="C54" t="n">
-        <v>1526</v>
+        <v>1380</v>
       </c>
       <c r="D54" t="n">
-        <v>-477</v>
+        <v>-466</v>
       </c>
       <c r="E54" t="n">
-        <v>4</v>
+        <v>-140</v>
       </c>
       <c r="F54" t="inlineStr">
         <is>
@@ -1728,20 +1728,20 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>9716.92</t>
+          <t>0353.57</t>
         </is>
       </c>
       <c r="B55" t="n">
-        <v>1554</v>
+        <v>1566</v>
       </c>
       <c r="C55" t="n">
-        <v>1526</v>
+        <v>1382</v>
       </c>
       <c r="D55" t="n">
-        <v>-476</v>
+        <v>-464</v>
       </c>
       <c r="E55" t="n">
-        <v>5</v>
+        <v>-140</v>
       </c>
       <c r="F55" t="inlineStr">
         <is>
@@ -1752,20 +1752,20 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>9718.09</t>
+          <t>0354.74</t>
         </is>
       </c>
       <c r="B56" t="n">
-        <v>1558</v>
+        <v>1570</v>
       </c>
       <c r="C56" t="n">
-        <v>1524</v>
+        <v>1380</v>
       </c>
       <c r="D56" t="n">
-        <v>-474</v>
+        <v>-462</v>
       </c>
       <c r="E56" t="n">
-        <v>5</v>
+        <v>-140</v>
       </c>
       <c r="F56" t="inlineStr">
         <is>
@@ -1776,20 +1776,20 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>9719.41</t>
+          <t>0356.06</t>
         </is>
       </c>
       <c r="B57" t="n">
-        <v>1556</v>
+        <v>1570</v>
       </c>
       <c r="C57" t="n">
-        <v>1526</v>
+        <v>1380</v>
       </c>
       <c r="D57" t="n">
-        <v>-473</v>
+        <v>-460</v>
       </c>
       <c r="E57" t="n">
-        <v>5</v>
+        <v>-140</v>
       </c>
       <c r="F57" t="inlineStr">
         <is>
@@ -1800,20 +1800,20 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>9720.60</t>
+          <t>0357.24</t>
         </is>
       </c>
       <c r="B58" t="n">
-        <v>1560</v>
+        <v>1572</v>
       </c>
       <c r="C58" t="n">
-        <v>1524</v>
+        <v>1380</v>
       </c>
       <c r="D58" t="n">
-        <v>-471</v>
+        <v>-459</v>
       </c>
       <c r="E58" t="n">
-        <v>5</v>
+        <v>-140</v>
       </c>
       <c r="F58" t="inlineStr">
         <is>
@@ -1824,20 +1824,20 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>9721.80</t>
+          <t>0358.44</t>
         </is>
       </c>
       <c r="B59" t="n">
-        <v>1560</v>
+        <v>1576</v>
       </c>
       <c r="C59" t="n">
-        <v>1526</v>
+        <v>1378</v>
       </c>
       <c r="D59" t="n">
-        <v>-470</v>
+        <v>-456</v>
       </c>
       <c r="E59" t="n">
-        <v>5</v>
+        <v>-141</v>
       </c>
       <c r="F59" t="inlineStr">
         <is>
@@ -1848,20 +1848,20 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>9723.08</t>
+          <t>0359.64</t>
         </is>
       </c>
       <c r="B60" t="n">
-        <v>1562</v>
+        <v>1574</v>
       </c>
       <c r="C60" t="n">
-        <v>1524</v>
+        <v>1382</v>
       </c>
       <c r="D60" t="n">
-        <v>-469</v>
+        <v>-455</v>
       </c>
       <c r="E60" t="n">
-        <v>5</v>
+        <v>-140</v>
       </c>
       <c r="F60" t="inlineStr">
         <is>
@@ -1872,20 +1872,20 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>9724.32</t>
+          <t>0360.96</t>
         </is>
       </c>
       <c r="B61" t="n">
-        <v>1566</v>
+        <v>1574</v>
       </c>
       <c r="C61" t="n">
-        <v>1524</v>
+        <v>1382</v>
       </c>
       <c r="D61" t="n">
-        <v>-466</v>
+        <v>-454</v>
       </c>
       <c r="E61" t="n">
-        <v>4</v>
+        <v>-140</v>
       </c>
       <c r="F61" t="inlineStr">
         <is>
@@ -1896,20 +1896,20 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>9725.50</t>
+          <t>0362.14</t>
         </is>
       </c>
       <c r="B62" t="n">
-        <v>1566</v>
+        <v>1576</v>
       </c>
       <c r="C62" t="n">
-        <v>1524</v>
+        <v>1382</v>
       </c>
       <c r="D62" t="n">
-        <v>-465</v>
+        <v>-453</v>
       </c>
       <c r="E62" t="n">
-        <v>4</v>
+        <v>-139</v>
       </c>
       <c r="F62" t="inlineStr">
         <is>
@@ -1920,20 +1920,20 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>9726.71</t>
+          <t>0363.46</t>
         </is>
       </c>
       <c r="B63" t="n">
-        <v>1568</v>
+        <v>1580</v>
       </c>
       <c r="C63" t="n">
-        <v>1524</v>
+        <v>1380</v>
       </c>
       <c r="D63" t="n">
-        <v>-463</v>
+        <v>-452</v>
       </c>
       <c r="E63" t="n">
-        <v>4</v>
+        <v>-139</v>
       </c>
       <c r="F63" t="inlineStr">
         <is>
@@ -1944,20 +1944,20 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>9727.89</t>
+          <t>0364.72</t>
         </is>
       </c>
       <c r="B64" t="n">
-        <v>1568</v>
+        <v>1580</v>
       </c>
       <c r="C64" t="n">
-        <v>1526</v>
+        <v>1382</v>
       </c>
       <c r="D64" t="n">
-        <v>-461</v>
+        <v>-451</v>
       </c>
       <c r="E64" t="n">
-        <v>4</v>
+        <v>-139</v>
       </c>
       <c r="F64" t="inlineStr">
         <is>
@@ -1968,20 +1968,20 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>9729.04</t>
+          <t>0365.96</t>
         </is>
       </c>
       <c r="B65" t="n">
-        <v>1568</v>
+        <v>1580</v>
       </c>
       <c r="C65" t="n">
-        <v>1524</v>
+        <v>1380</v>
       </c>
       <c r="D65" t="n">
-        <v>-461</v>
+        <v>-449</v>
       </c>
       <c r="E65" t="n">
-        <v>4</v>
+        <v>-139</v>
       </c>
       <c r="F65" t="inlineStr">
         <is>
@@ -1992,20 +1992,20 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>9730.29</t>
+          <t>0367.14</t>
         </is>
       </c>
       <c r="B66" t="n">
-        <v>1568</v>
+        <v>1580</v>
       </c>
       <c r="C66" t="n">
-        <v>1522</v>
+        <v>1378</v>
       </c>
       <c r="D66" t="n">
-        <v>-460</v>
+        <v>-448</v>
       </c>
       <c r="E66" t="n">
-        <v>4</v>
+        <v>-140</v>
       </c>
       <c r="F66" t="inlineStr">
         <is>
@@ -2016,20 +2016,20 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>9731.52</t>
+          <t>0368.47</t>
         </is>
       </c>
       <c r="B67" t="n">
-        <v>1572</v>
+        <v>1582</v>
       </c>
       <c r="C67" t="n">
-        <v>1518</v>
+        <v>1372</v>
       </c>
       <c r="D67" t="n">
-        <v>-459</v>
+        <v>-448</v>
       </c>
       <c r="E67" t="n">
-        <v>2</v>
+        <v>-142</v>
       </c>
       <c r="F67" t="inlineStr">
         <is>
@@ -2040,20 +2040,20 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>9732.69</t>
+          <t>0369.64</t>
         </is>
       </c>
       <c r="B68" t="n">
-        <v>1570</v>
+        <v>1582</v>
       </c>
       <c r="C68" t="n">
-        <v>1518</v>
+        <v>1370</v>
       </c>
       <c r="D68" t="n">
-        <v>-459</v>
+        <v>-447</v>
       </c>
       <c r="E68" t="n">
-        <v>0</v>
+        <v>-145</v>
       </c>
       <c r="F68" t="inlineStr">
         <is>
@@ -2064,20 +2064,20 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>9733.90</t>
+          <t>0370.98</t>
         </is>
       </c>
       <c r="B69" t="n">
-        <v>1570</v>
+        <v>1582</v>
       </c>
       <c r="C69" t="n">
-        <v>1512</v>
+        <v>1370</v>
       </c>
       <c r="D69" t="n">
-        <v>-458</v>
+        <v>-447</v>
       </c>
       <c r="E69" t="n">
-        <v>-3</v>
+        <v>-148</v>
       </c>
       <c r="F69" t="inlineStr">
         <is>
@@ -2088,20 +2088,20 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>9735.08</t>
+          <t>0372.24</t>
         </is>
       </c>
       <c r="B70" t="n">
-        <v>1570</v>
+        <v>1584</v>
       </c>
       <c r="C70" t="n">
-        <v>1512</v>
+        <v>1366</v>
       </c>
       <c r="D70" t="n">
-        <v>-458</v>
+        <v>-446</v>
       </c>
       <c r="E70" t="n">
-        <v>-5</v>
+        <v>-151</v>
       </c>
       <c r="F70" t="inlineStr">
         <is>
@@ -2112,20 +2112,20 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>9736.32</t>
+          <t>0373.58</t>
         </is>
       </c>
       <c r="B71" t="n">
-        <v>1570</v>
+        <v>1586</v>
       </c>
       <c r="C71" t="n">
-        <v>1510</v>
+        <v>1362</v>
       </c>
       <c r="D71" t="n">
-        <v>-458</v>
+        <v>-445</v>
       </c>
       <c r="E71" t="n">
-        <v>-7</v>
+        <v>-153</v>
       </c>
       <c r="F71" t="inlineStr">
         <is>
@@ -2136,20 +2136,20 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>9737.52</t>
+          <t>0374.80</t>
         </is>
       </c>
       <c r="B72" t="n">
-        <v>1570</v>
+        <v>1584</v>
       </c>
       <c r="C72" t="n">
-        <v>1508</v>
+        <v>1360</v>
       </c>
       <c r="D72" t="n">
-        <v>-458</v>
+        <v>-444</v>
       </c>
       <c r="E72" t="n">
-        <v>-10</v>
+        <v>-156</v>
       </c>
       <c r="F72" t="inlineStr">
         <is>
@@ -2160,20 +2160,20 @@
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>9738.71</t>
+          <t>0375.95</t>
         </is>
       </c>
       <c r="B73" t="n">
-        <v>1572</v>
+        <v>1582</v>
       </c>
       <c r="C73" t="n">
-        <v>1504</v>
+        <v>1360</v>
       </c>
       <c r="D73" t="n">
-        <v>-458</v>
+        <v>-444</v>
       </c>
       <c r="E73" t="n">
-        <v>-12</v>
+        <v>-158</v>
       </c>
       <c r="F73" t="inlineStr">
         <is>
@@ -2184,20 +2184,20 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>9739.89</t>
+          <t>0377.24</t>
         </is>
       </c>
       <c r="B74" t="n">
-        <v>1570</v>
+        <v>1582</v>
       </c>
       <c r="C74" t="n">
-        <v>1504</v>
+        <v>1360</v>
       </c>
       <c r="D74" t="n">
-        <v>-458</v>
+        <v>-445</v>
       </c>
       <c r="E74" t="n">
-        <v>-14</v>
+        <v>-160</v>
       </c>
       <c r="F74" t="inlineStr">
         <is>
@@ -2208,20 +2208,20 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>9741.22</t>
+          <t>0378.58</t>
         </is>
       </c>
       <c r="B75" t="n">
-        <v>1570</v>
+        <v>1584</v>
       </c>
       <c r="C75" t="n">
-        <v>1500</v>
+        <v>1354</v>
       </c>
       <c r="D75" t="n">
-        <v>-458</v>
+        <v>-445</v>
       </c>
       <c r="E75" t="n">
-        <v>-16</v>
+        <v>-162</v>
       </c>
       <c r="F75" t="inlineStr">
         <is>
@@ -2232,20 +2232,20 @@
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>9742.39</t>
+          <t>0379.90</t>
         </is>
       </c>
       <c r="B76" t="n">
-        <v>1570</v>
+        <v>1584</v>
       </c>
       <c r="C76" t="n">
-        <v>1500</v>
+        <v>1350</v>
       </c>
       <c r="D76" t="n">
-        <v>-458</v>
+        <v>-445</v>
       </c>
       <c r="E76" t="n">
-        <v>-18</v>
+        <v>-164</v>
       </c>
       <c r="F76" t="inlineStr">
         <is>
@@ -2256,20 +2256,20 @@
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>9743.60</t>
+          <t>0381.06</t>
         </is>
       </c>
       <c r="B77" t="n">
-        <v>1572</v>
+        <v>1582</v>
       </c>
       <c r="C77" t="n">
-        <v>1498</v>
+        <v>1352</v>
       </c>
       <c r="D77" t="n">
-        <v>-458</v>
+        <v>-445</v>
       </c>
       <c r="E77" t="n">
-        <v>-20</v>
+        <v>-166</v>
       </c>
       <c r="F77" t="inlineStr">
         <is>
@@ -2280,20 +2280,20 @@
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>9744.85</t>
+          <t>0382.24</t>
         </is>
       </c>
       <c r="B78" t="n">
-        <v>1574</v>
+        <v>1586</v>
       </c>
       <c r="C78" t="n">
-        <v>1490</v>
+        <v>1352</v>
       </c>
       <c r="D78" t="n">
-        <v>-457</v>
+        <v>-444</v>
       </c>
       <c r="E78" t="n">
-        <v>-23</v>
+        <v>-168</v>
       </c>
       <c r="F78" t="inlineStr">
         <is>
@@ -2304,20 +2304,20 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>9746.10</t>
+          <t>0383.46</t>
         </is>
       </c>
       <c r="B79" t="n">
-        <v>1572</v>
+        <v>1584</v>
       </c>
       <c r="C79" t="n">
-        <v>1490</v>
+        <v>1346</v>
       </c>
       <c r="D79" t="n">
-        <v>-456</v>
+        <v>-444</v>
       </c>
       <c r="E79" t="n">
-        <v>-26</v>
+        <v>-170</v>
       </c>
       <c r="F79" t="inlineStr">
         <is>
@@ -2328,20 +2328,20 @@
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>9747.27</t>
+          <t>0384.63</t>
         </is>
       </c>
       <c r="B80" t="n">
-        <v>1572</v>
+        <v>1584</v>
       </c>
       <c r="C80" t="n">
-        <v>1490</v>
+        <v>1342</v>
       </c>
       <c r="D80" t="n">
-        <v>-456</v>
+        <v>-444</v>
       </c>
       <c r="E80" t="n">
-        <v>-28</v>
+        <v>-172</v>
       </c>
       <c r="F80" t="inlineStr">
         <is>
@@ -2352,20 +2352,20 @@
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>9748.52</t>
+          <t>0385.95</t>
         </is>
       </c>
       <c r="B81" t="n">
-        <v>1574</v>
+        <v>1586</v>
       </c>
       <c r="C81" t="n">
-        <v>1486</v>
+        <v>1340</v>
       </c>
       <c r="D81" t="n">
-        <v>-455</v>
+        <v>-443</v>
       </c>
       <c r="E81" t="n">
-        <v>-31</v>
+        <v>-175</v>
       </c>
       <c r="F81" t="inlineStr">
         <is>
@@ -2376,24 +2376,504 @@
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>9749.77</t>
+          <t>0387.23</t>
         </is>
       </c>
       <c r="B82" t="n">
-        <v>1572</v>
+        <v>1586</v>
       </c>
       <c r="C82" t="n">
-        <v>1480</v>
+        <v>1338</v>
       </c>
       <c r="D82" t="n">
-        <v>-456</v>
+        <v>-443</v>
       </c>
       <c r="E82" t="n">
-        <v>-34</v>
+        <v>-179</v>
       </c>
       <c r="F82" t="inlineStr">
         <is>
           <t>['Up']</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>0388.38</t>
+        </is>
+      </c>
+      <c r="B83" t="n">
+        <v>1584</v>
+      </c>
+      <c r="C83" t="n">
+        <v>1338</v>
+      </c>
+      <c r="D83" t="n">
+        <v>-443</v>
+      </c>
+      <c r="E83" t="n">
+        <v>-181</v>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>['Up']</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>0389.74</t>
+        </is>
+      </c>
+      <c r="B84" t="n">
+        <v>1584</v>
+      </c>
+      <c r="C84" t="n">
+        <v>1338</v>
+      </c>
+      <c r="D84" t="n">
+        <v>-443</v>
+      </c>
+      <c r="E84" t="n">
+        <v>-182</v>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>['Down']</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>0391.05</t>
+        </is>
+      </c>
+      <c r="B85" t="n">
+        <v>1584</v>
+      </c>
+      <c r="C85" t="n">
+        <v>1334</v>
+      </c>
+      <c r="D85" t="n">
+        <v>-444</v>
+      </c>
+      <c r="E85" t="n">
+        <v>-183</v>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>['Down']</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>0392.25</t>
+        </is>
+      </c>
+      <c r="B86" t="n">
+        <v>1584</v>
+      </c>
+      <c r="C86" t="n">
+        <v>1334</v>
+      </c>
+      <c r="D86" t="n">
+        <v>-444</v>
+      </c>
+      <c r="E86" t="n">
+        <v>-184</v>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>['Down']</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>0393.46</t>
+        </is>
+      </c>
+      <c r="B87" t="n">
+        <v>1586</v>
+      </c>
+      <c r="C87" t="n">
+        <v>1332</v>
+      </c>
+      <c r="D87" t="n">
+        <v>-444</v>
+      </c>
+      <c r="E87" t="n">
+        <v>-186</v>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>['Down']</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>0394.64</t>
+        </is>
+      </c>
+      <c r="B88" t="n">
+        <v>1584</v>
+      </c>
+      <c r="C88" t="n">
+        <v>1334</v>
+      </c>
+      <c r="D88" t="n">
+        <v>-444</v>
+      </c>
+      <c r="E88" t="n">
+        <v>-187</v>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>['Down']</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>0395.88</t>
+        </is>
+      </c>
+      <c r="B89" t="n">
+        <v>1584</v>
+      </c>
+      <c r="C89" t="n">
+        <v>1332</v>
+      </c>
+      <c r="D89" t="n">
+        <v>-444</v>
+      </c>
+      <c r="E89" t="n">
+        <v>-187</v>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>['Down']</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>0397.23</t>
+        </is>
+      </c>
+      <c r="B90" t="n">
+        <v>1586</v>
+      </c>
+      <c r="C90" t="n">
+        <v>1330</v>
+      </c>
+      <c r="D90" t="n">
+        <v>-443</v>
+      </c>
+      <c r="E90" t="n">
+        <v>-188</v>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>['Down']</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>0398.56</t>
+        </is>
+      </c>
+      <c r="B91" t="n">
+        <v>1586</v>
+      </c>
+      <c r="C91" t="n">
+        <v>1330</v>
+      </c>
+      <c r="D91" t="n">
+        <v>-443</v>
+      </c>
+      <c r="E91" t="n">
+        <v>-189</v>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>['Down']</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>0399.74</t>
+        </is>
+      </c>
+      <c r="B92" t="n">
+        <v>1588</v>
+      </c>
+      <c r="C92" t="n">
+        <v>1328</v>
+      </c>
+      <c r="D92" t="n">
+        <v>-442</v>
+      </c>
+      <c r="E92" t="n">
+        <v>-190</v>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>['Down']</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>0401.07</t>
+        </is>
+      </c>
+      <c r="B93" t="n">
+        <v>1586</v>
+      </c>
+      <c r="C93" t="n">
+        <v>1330</v>
+      </c>
+      <c r="D93" t="n">
+        <v>-442</v>
+      </c>
+      <c r="E93" t="n">
+        <v>-191</v>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>['Down']</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>0402.25</t>
+        </is>
+      </c>
+      <c r="B94" t="n">
+        <v>1586</v>
+      </c>
+      <c r="C94" t="n">
+        <v>1328</v>
+      </c>
+      <c r="D94" t="n">
+        <v>-442</v>
+      </c>
+      <c r="E94" t="n">
+        <v>-191</v>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>['Down']</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>0403.36</t>
+        </is>
+      </c>
+      <c r="B95" t="n">
+        <v>1586</v>
+      </c>
+      <c r="C95" t="n">
+        <v>1328</v>
+      </c>
+      <c r="D95" t="n">
+        <v>-442</v>
+      </c>
+      <c r="E95" t="n">
+        <v>-192</v>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>['Down']</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>0404.62</t>
+        </is>
+      </c>
+      <c r="B96" t="n">
+        <v>1588</v>
+      </c>
+      <c r="C96" t="n">
+        <v>1326</v>
+      </c>
+      <c r="D96" t="n">
+        <v>-442</v>
+      </c>
+      <c r="E96" t="n">
+        <v>-192</v>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>['Down']</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>0405.88</t>
+        </is>
+      </c>
+      <c r="B97" t="n">
+        <v>1588</v>
+      </c>
+      <c r="C97" t="n">
+        <v>1324</v>
+      </c>
+      <c r="D97" t="n">
+        <v>-441</v>
+      </c>
+      <c r="E97" t="n">
+        <v>-194</v>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>['Down']</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>0407.23</t>
+        </is>
+      </c>
+      <c r="B98" t="n">
+        <v>1588</v>
+      </c>
+      <c r="C98" t="n">
+        <v>1324</v>
+      </c>
+      <c r="D98" t="n">
+        <v>-441</v>
+      </c>
+      <c r="E98" t="n">
+        <v>-195</v>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>['Down']</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>0408.38</t>
+        </is>
+      </c>
+      <c r="B99" t="n">
+        <v>1586</v>
+      </c>
+      <c r="C99" t="n">
+        <v>1324</v>
+      </c>
+      <c r="D99" t="n">
+        <v>-441</v>
+      </c>
+      <c r="E99" t="n">
+        <v>-196</v>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>['Down']</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>0409.74</t>
+        </is>
+      </c>
+      <c r="B100" t="n">
+        <v>1584</v>
+      </c>
+      <c r="C100" t="n">
+        <v>1324</v>
+      </c>
+      <c r="D100" t="n">
+        <v>-442</v>
+      </c>
+      <c r="E100" t="n">
+        <v>-196</v>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>['Down']</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>0411.05</t>
+        </is>
+      </c>
+      <c r="B101" t="n">
+        <v>1586</v>
+      </c>
+      <c r="C101" t="n">
+        <v>1324</v>
+      </c>
+      <c r="D101" t="n">
+        <v>-442</v>
+      </c>
+      <c r="E101" t="n">
+        <v>-196</v>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>['Down']</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>0412.25</t>
+        </is>
+      </c>
+      <c r="B102" t="n">
+        <v>1588</v>
+      </c>
+      <c r="C102" t="n">
+        <v>1320</v>
+      </c>
+      <c r="D102" t="n">
+        <v>-442</v>
+      </c>
+      <c r="E102" t="n">
+        <v>-197</v>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>['Down']</t>
         </is>
       </c>
     </row>

--- a/Logs/Log.xlsx
+++ b/Logs/Log.xlsx
@@ -456,20 +456,20 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>0287.10</t>
+          <t>1102.96</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1580</v>
+        <v>1586</v>
       </c>
       <c r="C2" t="n">
-        <v>1380</v>
+        <v>1322</v>
       </c>
       <c r="D2" t="n">
-        <v>-448</v>
+        <v>-442</v>
       </c>
       <c r="E2" t="n">
-        <v>-140</v>
+        <v>-198</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
@@ -480,20 +480,20 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>0288.85</t>
+          <t>1104.60</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1582</v>
+        <v>1588</v>
       </c>
       <c r="C3" t="n">
-        <v>1382</v>
+        <v>1320</v>
       </c>
       <c r="D3" t="n">
-        <v>-447</v>
+        <v>-441</v>
       </c>
       <c r="E3" t="n">
-        <v>-139</v>
+        <v>-199</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
@@ -504,20 +504,20 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>0290.13</t>
+          <t>1105.96</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1582</v>
+        <v>1588</v>
       </c>
       <c r="C4" t="n">
-        <v>1380</v>
+        <v>1318</v>
       </c>
       <c r="D4" t="n">
-        <v>-447</v>
+        <v>-440</v>
       </c>
       <c r="E4" t="n">
-        <v>-140</v>
+        <v>-201</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
@@ -528,20 +528,20 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>0291.38</t>
+          <t>1107.19</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1582</v>
+        <v>1586</v>
       </c>
       <c r="C5" t="n">
-        <v>1380</v>
+        <v>1318</v>
       </c>
       <c r="D5" t="n">
-        <v>-447</v>
+        <v>-441</v>
       </c>
       <c r="E5" t="n">
-        <v>-140</v>
+        <v>-202</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
@@ -552,20 +552,20 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>0292.61</t>
+          <t>1108.55</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1580</v>
+        <v>1586</v>
       </c>
       <c r="C6" t="n">
-        <v>1382</v>
+        <v>1322</v>
       </c>
       <c r="D6" t="n">
-        <v>-447</v>
+        <v>-442</v>
       </c>
       <c r="E6" t="n">
-        <v>-139</v>
+        <v>-200</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
@@ -576,20 +576,20 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>0293.76</t>
+          <t>1109.90</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1582</v>
+        <v>1588</v>
       </c>
       <c r="C7" t="n">
-        <v>1380</v>
+        <v>1320</v>
       </c>
       <c r="D7" t="n">
-        <v>-447</v>
+        <v>-441</v>
       </c>
       <c r="E7" t="n">
-        <v>-140</v>
+        <v>-199</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
@@ -600,20 +600,20 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>0294.93</t>
+          <t>1111.13</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1580</v>
+        <v>1588</v>
       </c>
       <c r="C8" t="n">
-        <v>1382</v>
+        <v>1318</v>
       </c>
       <c r="D8" t="n">
-        <v>-447</v>
+        <v>-440</v>
       </c>
       <c r="E8" t="n">
-        <v>-139</v>
+        <v>-201</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
@@ -624,20 +624,20 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>0296.27</t>
+          <t>1112.28</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>1580</v>
+        <v>1588</v>
       </c>
       <c r="C9" t="n">
-        <v>1382</v>
+        <v>1316</v>
       </c>
       <c r="D9" t="n">
-        <v>-448</v>
+        <v>-440</v>
       </c>
       <c r="E9" t="n">
-        <v>-139</v>
+        <v>-203</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
@@ -648,20 +648,20 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>0297.44</t>
+          <t>1113.46</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1582</v>
+        <v>1584</v>
       </c>
       <c r="C10" t="n">
-        <v>1380</v>
+        <v>1322</v>
       </c>
       <c r="D10" t="n">
-        <v>-447</v>
+        <v>-442</v>
       </c>
       <c r="E10" t="n">
-        <v>-139</v>
+        <v>-201</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
@@ -672,20 +672,20 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>0298.76</t>
+          <t>1114.68</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1580</v>
+        <v>1586</v>
       </c>
       <c r="C11" t="n">
-        <v>1382</v>
+        <v>1320</v>
       </c>
       <c r="D11" t="n">
-        <v>-448</v>
+        <v>-443</v>
       </c>
       <c r="E11" t="n">
-        <v>-139</v>
+        <v>-199</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
@@ -696,20 +696,20 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>0299.94</t>
+          <t>1115.85</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1580</v>
+        <v>1588</v>
       </c>
       <c r="C12" t="n">
-        <v>1380</v>
+        <v>1320</v>
       </c>
       <c r="D12" t="n">
-        <v>-448</v>
+        <v>-441</v>
       </c>
       <c r="E12" t="n">
-        <v>-139</v>
+        <v>-200</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
@@ -720,20 +720,20 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>0301.26</t>
+          <t>1117.11</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1582</v>
+        <v>1586</v>
       </c>
       <c r="C13" t="n">
-        <v>1380</v>
+        <v>1320</v>
       </c>
       <c r="D13" t="n">
-        <v>-447</v>
+        <v>-441</v>
       </c>
       <c r="E13" t="n">
-        <v>-140</v>
+        <v>-200</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
@@ -744,20 +744,20 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>0302.45</t>
+          <t>1118.33</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1582</v>
+        <v>1586</v>
       </c>
       <c r="C14" t="n">
-        <v>1382</v>
+        <v>1322</v>
       </c>
       <c r="D14" t="n">
-        <v>-447</v>
+        <v>-442</v>
       </c>
       <c r="E14" t="n">
-        <v>-139</v>
+        <v>-199</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
@@ -768,20 +768,20 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>0303.69</t>
+          <t>1119.51</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>1580</v>
+        <v>1588</v>
       </c>
       <c r="C15" t="n">
-        <v>1380</v>
+        <v>1320</v>
       </c>
       <c r="D15" t="n">
-        <v>-447</v>
+        <v>-441</v>
       </c>
       <c r="E15" t="n">
-        <v>-140</v>
+        <v>-199</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
@@ -792,20 +792,20 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>0304.95</t>
+          <t>1120.76</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1580</v>
+        <v>1588</v>
       </c>
       <c r="C16" t="n">
-        <v>1382</v>
+        <v>1320</v>
       </c>
       <c r="D16" t="n">
-        <v>-447</v>
+        <v>-440</v>
       </c>
       <c r="E16" t="n">
-        <v>-139</v>
+        <v>-200</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
@@ -816,20 +816,20 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>0306.15</t>
+          <t>1121.97</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1582</v>
+        <v>1588</v>
       </c>
       <c r="C17" t="n">
-        <v>1382</v>
+        <v>1318</v>
       </c>
       <c r="D17" t="n">
-        <v>-447</v>
+        <v>-440</v>
       </c>
       <c r="E17" t="n">
-        <v>-139</v>
+        <v>-201</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
@@ -840,20 +840,20 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>0307.34</t>
+          <t>1123.15</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>1582</v>
+        <v>1588</v>
       </c>
       <c r="C18" t="n">
-        <v>1380</v>
+        <v>1320</v>
       </c>
       <c r="D18" t="n">
-        <v>-447</v>
+        <v>-440</v>
       </c>
       <c r="E18" t="n">
-        <v>-139</v>
+        <v>-201</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
@@ -864,20 +864,20 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>0308.65</t>
+          <t>1124.37</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1580</v>
+        <v>1586</v>
       </c>
       <c r="C19" t="n">
-        <v>1382</v>
+        <v>1322</v>
       </c>
       <c r="D19" t="n">
-        <v>-447</v>
+        <v>-441</v>
       </c>
       <c r="E19" t="n">
-        <v>-139</v>
+        <v>-199</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
@@ -888,20 +888,20 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>0309.83</t>
+          <t>1125.56</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1582</v>
+        <v>1588</v>
       </c>
       <c r="C20" t="n">
-        <v>1380</v>
+        <v>1318</v>
       </c>
       <c r="D20" t="n">
-        <v>-447</v>
+        <v>-441</v>
       </c>
       <c r="E20" t="n">
-        <v>-139</v>
+        <v>-200</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
@@ -912,20 +912,20 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>0311.09</t>
+          <t>1126.80</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>1580</v>
+        <v>1586</v>
       </c>
       <c r="C21" t="n">
-        <v>1382</v>
+        <v>1320</v>
       </c>
       <c r="D21" t="n">
-        <v>-447</v>
+        <v>-441</v>
       </c>
       <c r="E21" t="n">
-        <v>-139</v>
+        <v>-201</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
@@ -936,20 +936,20 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>0312.32</t>
+          <t>1128.05</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1580</v>
+        <v>1586</v>
       </c>
       <c r="C22" t="n">
-        <v>1382</v>
+        <v>1322</v>
       </c>
       <c r="D22" t="n">
-        <v>-448</v>
+        <v>-442</v>
       </c>
       <c r="E22" t="n">
-        <v>-139</v>
+        <v>-199</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
@@ -960,20 +960,20 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>0313.59</t>
+          <t>1129.31</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1582</v>
+        <v>1586</v>
       </c>
       <c r="C23" t="n">
-        <v>1380</v>
+        <v>1320</v>
       </c>
       <c r="D23" t="n">
-        <v>-447</v>
+        <v>-442</v>
       </c>
       <c r="E23" t="n">
-        <v>-139</v>
+        <v>-199</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
@@ -984,20 +984,20 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>0314.83</t>
+          <t>1130.66</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>1582</v>
+        <v>1584</v>
       </c>
       <c r="C24" t="n">
-        <v>1382</v>
+        <v>1322</v>
       </c>
       <c r="D24" t="n">
-        <v>-447</v>
+        <v>-443</v>
       </c>
       <c r="E24" t="n">
-        <v>-139</v>
+        <v>-199</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
@@ -1008,20 +1008,20 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>0316.16</t>
+          <t>1131.87</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1582</v>
+        <v>1584</v>
       </c>
       <c r="C25" t="n">
-        <v>1380</v>
+        <v>1322</v>
       </c>
       <c r="D25" t="n">
-        <v>-447</v>
+        <v>-444</v>
       </c>
       <c r="E25" t="n">
-        <v>-139</v>
+        <v>-198</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
@@ -1032,20 +1032,20 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>0317.33</t>
+          <t>1133.15</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1582</v>
+        <v>1584</v>
       </c>
       <c r="C26" t="n">
-        <v>1380</v>
+        <v>1322</v>
       </c>
       <c r="D26" t="n">
-        <v>-446</v>
+        <v>-444</v>
       </c>
       <c r="E26" t="n">
-        <v>-140</v>
+        <v>-198</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
@@ -1056,20 +1056,20 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>0318.68</t>
+          <t>1134.48</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>1580</v>
+        <v>1588</v>
       </c>
       <c r="C27" t="n">
-        <v>1382</v>
+        <v>1318</v>
       </c>
       <c r="D27" t="n">
-        <v>-447</v>
+        <v>-442</v>
       </c>
       <c r="E27" t="n">
-        <v>-139</v>
+        <v>-200</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
@@ -1080,20 +1080,20 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>0319.85</t>
+          <t>1135.65</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1580</v>
+        <v>1586</v>
       </c>
       <c r="C28" t="n">
-        <v>1380</v>
+        <v>1320</v>
       </c>
       <c r="D28" t="n">
-        <v>-447</v>
+        <v>-441</v>
       </c>
       <c r="E28" t="n">
-        <v>-140</v>
+        <v>-201</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
@@ -1104,20 +1104,20 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>0321.08</t>
+          <t>1136.98</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1580</v>
+        <v>1584</v>
       </c>
       <c r="C29" t="n">
-        <v>1380</v>
+        <v>1322</v>
       </c>
       <c r="D29" t="n">
-        <v>-448</v>
+        <v>-443</v>
       </c>
       <c r="E29" t="n">
-        <v>-140</v>
+        <v>-199</v>
       </c>
       <c r="F29" t="inlineStr">
         <is>
@@ -1128,20 +1128,20 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>0322.35</t>
+          <t>1138.16</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>1578</v>
+        <v>1584</v>
       </c>
       <c r="C30" t="n">
-        <v>1380</v>
+        <v>1316</v>
       </c>
       <c r="D30" t="n">
-        <v>-449</v>
+        <v>-444</v>
       </c>
       <c r="E30" t="n">
-        <v>-140</v>
+        <v>-201</v>
       </c>
       <c r="F30" t="inlineStr">
         <is>
@@ -1152,20 +1152,20 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>0323.60</t>
+          <t>1139.39</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1578</v>
+        <v>1584</v>
       </c>
       <c r="C31" t="n">
-        <v>1380</v>
+        <v>1320</v>
       </c>
       <c r="D31" t="n">
-        <v>-449</v>
+        <v>-444</v>
       </c>
       <c r="E31" t="n">
-        <v>-140</v>
+        <v>-202</v>
       </c>
       <c r="F31" t="inlineStr">
         <is>
@@ -1176,20 +1176,20 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>0324.94</t>
+          <t>1140.56</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1578</v>
+        <v>1580</v>
       </c>
       <c r="C32" t="n">
-        <v>1380</v>
+        <v>1322</v>
       </c>
       <c r="D32" t="n">
-        <v>-450</v>
+        <v>-446</v>
       </c>
       <c r="E32" t="n">
-        <v>-140</v>
+        <v>-199</v>
       </c>
       <c r="F32" t="inlineStr">
         <is>
@@ -1200,20 +1200,20 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>0326.19</t>
+          <t>1141.77</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>1574</v>
+        <v>1578</v>
       </c>
       <c r="C33" t="n">
-        <v>1380</v>
+        <v>1322</v>
       </c>
       <c r="D33" t="n">
-        <v>-451</v>
+        <v>-449</v>
       </c>
       <c r="E33" t="n">
-        <v>-140</v>
+        <v>-198</v>
       </c>
       <c r="F33" t="inlineStr">
         <is>
@@ -1224,20 +1224,20 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>0327.41</t>
+          <t>1142.94</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1574</v>
+        <v>1580</v>
       </c>
       <c r="C34" t="n">
-        <v>1380</v>
+        <v>1318</v>
       </c>
       <c r="D34" t="n">
-        <v>-452</v>
+        <v>-449</v>
       </c>
       <c r="E34" t="n">
-        <v>-140</v>
+        <v>-200</v>
       </c>
       <c r="F34" t="inlineStr">
         <is>
@@ -1248,20 +1248,20 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>0328.65</t>
+          <t>1144.17</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1570</v>
+        <v>1576</v>
       </c>
       <c r="C35" t="n">
-        <v>1382</v>
+        <v>1322</v>
       </c>
       <c r="D35" t="n">
-        <v>-454</v>
+        <v>-450</v>
       </c>
       <c r="E35" t="n">
-        <v>-140</v>
+        <v>-200</v>
       </c>
       <c r="F35" t="inlineStr">
         <is>
@@ -1272,20 +1272,20 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>0329.84</t>
+          <t>1145.36</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>1568</v>
+        <v>1576</v>
       </c>
       <c r="C36" t="n">
-        <v>1382</v>
+        <v>1320</v>
       </c>
       <c r="D36" t="n">
-        <v>-457</v>
+        <v>-452</v>
       </c>
       <c r="E36" t="n">
-        <v>-139</v>
+        <v>-199</v>
       </c>
       <c r="F36" t="inlineStr">
         <is>
@@ -1296,20 +1296,20 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>0331.15</t>
+          <t>1146.69</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1566</v>
+        <v>1574</v>
       </c>
       <c r="C37" t="n">
-        <v>1382</v>
+        <v>1320</v>
       </c>
       <c r="D37" t="n">
-        <v>-459</v>
+        <v>-453</v>
       </c>
       <c r="E37" t="n">
-        <v>-139</v>
+        <v>-200</v>
       </c>
       <c r="F37" t="inlineStr">
         <is>
@@ -1320,20 +1320,20 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>0332.33</t>
+          <t>1147.95</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1568</v>
+        <v>1570</v>
       </c>
       <c r="C38" t="n">
-        <v>1380</v>
+        <v>1320</v>
       </c>
       <c r="D38" t="n">
-        <v>-460</v>
+        <v>-456</v>
       </c>
       <c r="E38" t="n">
-        <v>-139</v>
+        <v>-200</v>
       </c>
       <c r="F38" t="inlineStr">
         <is>
@@ -1344,20 +1344,20 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>0333.68</t>
+          <t>1149.07</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>1562</v>
+        <v>1570</v>
       </c>
       <c r="C39" t="n">
-        <v>1384</v>
+        <v>1322</v>
       </c>
       <c r="D39" t="n">
-        <v>-462</v>
+        <v>-458</v>
       </c>
       <c r="E39" t="n">
-        <v>-138</v>
+        <v>-199</v>
       </c>
       <c r="F39" t="inlineStr">
         <is>
@@ -1368,20 +1368,20 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>0334.94</t>
+          <t>1150.25</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1562</v>
+        <v>1570</v>
       </c>
       <c r="C40" t="n">
-        <v>1378</v>
+        <v>1320</v>
       </c>
       <c r="D40" t="n">
-        <v>-464</v>
+        <v>-458</v>
       </c>
       <c r="E40" t="n">
-        <v>-139</v>
+        <v>-199</v>
       </c>
       <c r="F40" t="inlineStr">
         <is>
@@ -1392,20 +1392,20 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>0336.25</t>
+          <t>1151.58</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1560</v>
+        <v>1568</v>
       </c>
       <c r="C41" t="n">
-        <v>1382</v>
+        <v>1320</v>
       </c>
       <c r="D41" t="n">
-        <v>-465</v>
+        <v>-459</v>
       </c>
       <c r="E41" t="n">
-        <v>-139</v>
+        <v>-200</v>
       </c>
       <c r="F41" t="inlineStr">
         <is>
@@ -1416,20 +1416,20 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>0337.43</t>
+          <t>1152.75</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>1558</v>
+        <v>1566</v>
       </c>
       <c r="C42" t="n">
-        <v>1382</v>
+        <v>1320</v>
       </c>
       <c r="D42" t="n">
-        <v>-468</v>
+        <v>-461</v>
       </c>
       <c r="E42" t="n">
-        <v>-139</v>
+        <v>-200</v>
       </c>
       <c r="F42" t="inlineStr">
         <is>
@@ -1440,20 +1440,20 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>0338.65</t>
+          <t>1154.06</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1560</v>
+        <v>1562</v>
       </c>
       <c r="C43" t="n">
-        <v>1378</v>
+        <v>1322</v>
       </c>
       <c r="D43" t="n">
-        <v>-468</v>
+        <v>-464</v>
       </c>
       <c r="E43" t="n">
-        <v>-140</v>
+        <v>-199</v>
       </c>
       <c r="F43" t="inlineStr">
         <is>
@@ -1464,20 +1464,20 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>0339.94</t>
+          <t>1155.25</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1558</v>
+        <v>1564</v>
       </c>
       <c r="C44" t="n">
-        <v>1380</v>
+        <v>1322</v>
       </c>
       <c r="D44" t="n">
-        <v>-469</v>
+        <v>-465</v>
       </c>
       <c r="E44" t="n">
-        <v>-140</v>
+        <v>-198</v>
       </c>
       <c r="F44" t="inlineStr">
         <is>
@@ -1488,20 +1488,20 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>0341.26</t>
+          <t>1156.49</t>
         </is>
       </c>
       <c r="B45" t="n">
-        <v>1554</v>
+        <v>1564</v>
       </c>
       <c r="C45" t="n">
-        <v>1382</v>
+        <v>1322</v>
       </c>
       <c r="D45" t="n">
-        <v>-471</v>
+        <v>-464</v>
       </c>
       <c r="E45" t="n">
-        <v>-140</v>
+        <v>-198</v>
       </c>
       <c r="F45" t="inlineStr">
         <is>
@@ -1512,20 +1512,20 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>0342.44</t>
+          <t>1157.68</t>
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1558</v>
+        <v>1560</v>
       </c>
       <c r="C46" t="n">
-        <v>1380</v>
+        <v>1322</v>
       </c>
       <c r="D46" t="n">
-        <v>-471</v>
+        <v>-466</v>
       </c>
       <c r="E46" t="n">
-        <v>-140</v>
+        <v>-198</v>
       </c>
       <c r="F46" t="inlineStr">
         <is>
@@ -1536,20 +1536,20 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>0343.79</t>
+          <t>1158.90</t>
         </is>
       </c>
       <c r="B47" t="n">
-        <v>1556</v>
+        <v>1562</v>
       </c>
       <c r="C47" t="n">
-        <v>1382</v>
+        <v>1322</v>
       </c>
       <c r="D47" t="n">
-        <v>-472</v>
+        <v>-467</v>
       </c>
       <c r="E47" t="n">
-        <v>-139</v>
+        <v>-198</v>
       </c>
       <c r="F47" t="inlineStr">
         <is>
@@ -1560,20 +1560,20 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>0345.05</t>
+          <t>1160.15</t>
         </is>
       </c>
       <c r="B48" t="n">
-        <v>1556</v>
+        <v>1564</v>
       </c>
       <c r="C48" t="n">
-        <v>1380</v>
+        <v>1318</v>
       </c>
       <c r="D48" t="n">
-        <v>-472</v>
+        <v>-465</v>
       </c>
       <c r="E48" t="n">
-        <v>-139</v>
+        <v>-200</v>
       </c>
       <c r="F48" t="inlineStr">
         <is>
@@ -1584,20 +1584,20 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>0346.26</t>
+          <t>1161.29</t>
         </is>
       </c>
       <c r="B49" t="n">
-        <v>1556</v>
+        <v>1564</v>
       </c>
       <c r="C49" t="n">
-        <v>1382</v>
+        <v>1318</v>
       </c>
       <c r="D49" t="n">
-        <v>-472</v>
+        <v>-464</v>
       </c>
       <c r="E49" t="n">
-        <v>-139</v>
+        <v>-202</v>
       </c>
       <c r="F49" t="inlineStr">
         <is>
@@ -1608,20 +1608,20 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>0347.44</t>
+          <t>1162.48</t>
         </is>
       </c>
       <c r="B50" t="n">
-        <v>1562</v>
+        <v>1566</v>
       </c>
       <c r="C50" t="n">
-        <v>1378</v>
+        <v>1320</v>
       </c>
       <c r="D50" t="n">
-        <v>-471</v>
+        <v>-463</v>
       </c>
       <c r="E50" t="n">
-        <v>-140</v>
+        <v>-201</v>
       </c>
       <c r="F50" t="inlineStr">
         <is>
@@ -1632,20 +1632,20 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>0348.67</t>
+          <t>1163.68</t>
         </is>
       </c>
       <c r="B51" t="n">
-        <v>1560</v>
+        <v>1566</v>
       </c>
       <c r="C51" t="n">
-        <v>1382</v>
+        <v>1320</v>
       </c>
       <c r="D51" t="n">
-        <v>-470</v>
+        <v>-462</v>
       </c>
       <c r="E51" t="n">
-        <v>-140</v>
+        <v>-200</v>
       </c>
       <c r="F51" t="inlineStr">
         <is>
@@ -1656,20 +1656,20 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>0349.85</t>
+          <t>1164.87</t>
         </is>
       </c>
       <c r="B52" t="n">
-        <v>1560</v>
+        <v>1566</v>
       </c>
       <c r="C52" t="n">
-        <v>1382</v>
+        <v>1322</v>
       </c>
       <c r="D52" t="n">
-        <v>-469</v>
+        <v>-462</v>
       </c>
       <c r="E52" t="n">
-        <v>-139</v>
+        <v>-199</v>
       </c>
       <c r="F52" t="inlineStr">
         <is>
@@ -1680,20 +1680,20 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>0351.17</t>
+          <t>1166.07</t>
         </is>
       </c>
       <c r="B53" t="n">
-        <v>1564</v>
+        <v>1568</v>
       </c>
       <c r="C53" t="n">
-        <v>1378</v>
+        <v>1322</v>
       </c>
       <c r="D53" t="n">
-        <v>-467</v>
+        <v>-461</v>
       </c>
       <c r="E53" t="n">
-        <v>-140</v>
+        <v>-198</v>
       </c>
       <c r="F53" t="inlineStr">
         <is>
@@ -1704,20 +1704,20 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>0352.34</t>
+          <t>1167.26</t>
         </is>
       </c>
       <c r="B54" t="n">
-        <v>1566</v>
+        <v>1570</v>
       </c>
       <c r="C54" t="n">
-        <v>1380</v>
+        <v>1320</v>
       </c>
       <c r="D54" t="n">
-        <v>-466</v>
+        <v>-459</v>
       </c>
       <c r="E54" t="n">
-        <v>-140</v>
+        <v>-199</v>
       </c>
       <c r="F54" t="inlineStr">
         <is>
@@ -1728,20 +1728,20 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>0353.57</t>
+          <t>1168.48</t>
         </is>
       </c>
       <c r="B55" t="n">
-        <v>1566</v>
+        <v>1570</v>
       </c>
       <c r="C55" t="n">
-        <v>1382</v>
+        <v>1322</v>
       </c>
       <c r="D55" t="n">
-        <v>-464</v>
+        <v>-458</v>
       </c>
       <c r="E55" t="n">
-        <v>-140</v>
+        <v>-199</v>
       </c>
       <c r="F55" t="inlineStr">
         <is>
@@ -1752,20 +1752,20 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>0354.74</t>
+          <t>1169.65</t>
         </is>
       </c>
       <c r="B56" t="n">
-        <v>1570</v>
+        <v>1574</v>
       </c>
       <c r="C56" t="n">
-        <v>1380</v>
+        <v>1318</v>
       </c>
       <c r="D56" t="n">
-        <v>-462</v>
+        <v>-456</v>
       </c>
       <c r="E56" t="n">
-        <v>-140</v>
+        <v>-200</v>
       </c>
       <c r="F56" t="inlineStr">
         <is>
@@ -1776,20 +1776,20 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>0356.06</t>
+          <t>1170.97</t>
         </is>
       </c>
       <c r="B57" t="n">
-        <v>1570</v>
+        <v>1574</v>
       </c>
       <c r="C57" t="n">
-        <v>1380</v>
+        <v>1322</v>
       </c>
       <c r="D57" t="n">
-        <v>-460</v>
+        <v>-454</v>
       </c>
       <c r="E57" t="n">
-        <v>-140</v>
+        <v>-200</v>
       </c>
       <c r="F57" t="inlineStr">
         <is>
@@ -1800,20 +1800,20 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>0357.24</t>
+          <t>1172.15</t>
         </is>
       </c>
       <c r="B58" t="n">
-        <v>1572</v>
+        <v>1576</v>
       </c>
       <c r="C58" t="n">
-        <v>1380</v>
+        <v>1320</v>
       </c>
       <c r="D58" t="n">
-        <v>-459</v>
+        <v>-453</v>
       </c>
       <c r="E58" t="n">
-        <v>-140</v>
+        <v>-199</v>
       </c>
       <c r="F58" t="inlineStr">
         <is>
@@ -1824,20 +1824,20 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>0358.44</t>
+          <t>1173.48</t>
         </is>
       </c>
       <c r="B59" t="n">
         <v>1576</v>
       </c>
       <c r="C59" t="n">
-        <v>1378</v>
+        <v>1322</v>
       </c>
       <c r="D59" t="n">
-        <v>-456</v>
+        <v>-452</v>
       </c>
       <c r="E59" t="n">
-        <v>-141</v>
+        <v>-199</v>
       </c>
       <c r="F59" t="inlineStr">
         <is>
@@ -1848,20 +1848,20 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>0359.64</t>
+          <t>1174.66</t>
         </is>
       </c>
       <c r="B60" t="n">
-        <v>1574</v>
+        <v>1578</v>
       </c>
       <c r="C60" t="n">
-        <v>1382</v>
+        <v>1320</v>
       </c>
       <c r="D60" t="n">
-        <v>-455</v>
+        <v>-451</v>
       </c>
       <c r="E60" t="n">
-        <v>-140</v>
+        <v>-199</v>
       </c>
       <c r="F60" t="inlineStr">
         <is>
@@ -1872,20 +1872,20 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>0360.96</t>
+          <t>1175.87</t>
         </is>
       </c>
       <c r="B61" t="n">
-        <v>1574</v>
+        <v>1580</v>
       </c>
       <c r="C61" t="n">
-        <v>1382</v>
+        <v>1320</v>
       </c>
       <c r="D61" t="n">
-        <v>-454</v>
+        <v>-449</v>
       </c>
       <c r="E61" t="n">
-        <v>-140</v>
+        <v>-200</v>
       </c>
       <c r="F61" t="inlineStr">
         <is>
@@ -1896,20 +1896,20 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>0362.14</t>
+          <t>1177.05</t>
         </is>
       </c>
       <c r="B62" t="n">
-        <v>1576</v>
+        <v>1582</v>
       </c>
       <c r="C62" t="n">
-        <v>1382</v>
+        <v>1320</v>
       </c>
       <c r="D62" t="n">
-        <v>-453</v>
+        <v>-447</v>
       </c>
       <c r="E62" t="n">
-        <v>-139</v>
+        <v>-200</v>
       </c>
       <c r="F62" t="inlineStr">
         <is>
@@ -1920,20 +1920,20 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>0363.46</t>
+          <t>1178.38</t>
         </is>
       </c>
       <c r="B63" t="n">
-        <v>1580</v>
+        <v>1584</v>
       </c>
       <c r="C63" t="n">
-        <v>1380</v>
+        <v>1320</v>
       </c>
       <c r="D63" t="n">
-        <v>-452</v>
+        <v>-445</v>
       </c>
       <c r="E63" t="n">
-        <v>-139</v>
+        <v>-200</v>
       </c>
       <c r="F63" t="inlineStr">
         <is>
@@ -1944,20 +1944,20 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>0364.72</t>
+          <t>1179.56</t>
         </is>
       </c>
       <c r="B64" t="n">
-        <v>1580</v>
+        <v>1584</v>
       </c>
       <c r="C64" t="n">
-        <v>1382</v>
+        <v>1322</v>
       </c>
       <c r="D64" t="n">
-        <v>-451</v>
+        <v>-444</v>
       </c>
       <c r="E64" t="n">
-        <v>-139</v>
+        <v>-199</v>
       </c>
       <c r="F64" t="inlineStr">
         <is>
@@ -1968,20 +1968,20 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>0365.96</t>
+          <t>1180.80</t>
         </is>
       </c>
       <c r="B65" t="n">
-        <v>1580</v>
+        <v>1586</v>
       </c>
       <c r="C65" t="n">
-        <v>1380</v>
+        <v>1318</v>
       </c>
       <c r="D65" t="n">
-        <v>-449</v>
+        <v>-443</v>
       </c>
       <c r="E65" t="n">
-        <v>-139</v>
+        <v>-200</v>
       </c>
       <c r="F65" t="inlineStr">
         <is>
@@ -1992,20 +1992,20 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>0367.14</t>
+          <t>1182.06</t>
         </is>
       </c>
       <c r="B66" t="n">
-        <v>1580</v>
+        <v>1588</v>
       </c>
       <c r="C66" t="n">
-        <v>1378</v>
+        <v>1316</v>
       </c>
       <c r="D66" t="n">
-        <v>-448</v>
+        <v>-441</v>
       </c>
       <c r="E66" t="n">
-        <v>-140</v>
+        <v>-203</v>
       </c>
       <c r="F66" t="inlineStr">
         <is>
@@ -2016,20 +2016,20 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>0368.47</t>
+          <t>1183.40</t>
         </is>
       </c>
       <c r="B67" t="n">
-        <v>1582</v>
+        <v>1588</v>
       </c>
       <c r="C67" t="n">
-        <v>1372</v>
+        <v>1314</v>
       </c>
       <c r="D67" t="n">
-        <v>-448</v>
+        <v>-440</v>
       </c>
       <c r="E67" t="n">
-        <v>-142</v>
+        <v>-205</v>
       </c>
       <c r="F67" t="inlineStr">
         <is>
@@ -2040,20 +2040,20 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>0369.64</t>
+          <t>1184.61</t>
         </is>
       </c>
       <c r="B68" t="n">
-        <v>1582</v>
+        <v>1586</v>
       </c>
       <c r="C68" t="n">
-        <v>1370</v>
+        <v>1314</v>
       </c>
       <c r="D68" t="n">
-        <v>-447</v>
+        <v>-441</v>
       </c>
       <c r="E68" t="n">
-        <v>-145</v>
+        <v>-206</v>
       </c>
       <c r="F68" t="inlineStr">
         <is>
@@ -2064,20 +2064,20 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>0370.98</t>
+          <t>1185.88</t>
         </is>
       </c>
       <c r="B69" t="n">
-        <v>1582</v>
+        <v>1588</v>
       </c>
       <c r="C69" t="n">
-        <v>1370</v>
+        <v>1310</v>
       </c>
       <c r="D69" t="n">
-        <v>-447</v>
+        <v>-441</v>
       </c>
       <c r="E69" t="n">
-        <v>-148</v>
+        <v>-208</v>
       </c>
       <c r="F69" t="inlineStr">
         <is>
@@ -2088,20 +2088,20 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>0372.24</t>
+          <t>1187.07</t>
         </is>
       </c>
       <c r="B70" t="n">
-        <v>1584</v>
+        <v>1588</v>
       </c>
       <c r="C70" t="n">
-        <v>1366</v>
+        <v>1306</v>
       </c>
       <c r="D70" t="n">
-        <v>-446</v>
+        <v>-440</v>
       </c>
       <c r="E70" t="n">
-        <v>-151</v>
+        <v>-212</v>
       </c>
       <c r="F70" t="inlineStr">
         <is>
@@ -2112,20 +2112,20 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>0373.58</t>
+          <t>1188.29</t>
         </is>
       </c>
       <c r="B71" t="n">
-        <v>1586</v>
+        <v>1588</v>
       </c>
       <c r="C71" t="n">
-        <v>1362</v>
+        <v>1304</v>
       </c>
       <c r="D71" t="n">
-        <v>-445</v>
+        <v>-440</v>
       </c>
       <c r="E71" t="n">
-        <v>-153</v>
+        <v>-215</v>
       </c>
       <c r="F71" t="inlineStr">
         <is>
@@ -2136,20 +2136,20 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>0374.80</t>
+          <t>1189.47</t>
         </is>
       </c>
       <c r="B72" t="n">
-        <v>1584</v>
+        <v>1586</v>
       </c>
       <c r="C72" t="n">
-        <v>1360</v>
+        <v>1304</v>
       </c>
       <c r="D72" t="n">
-        <v>-444</v>
+        <v>-441</v>
       </c>
       <c r="E72" t="n">
-        <v>-156</v>
+        <v>-216</v>
       </c>
       <c r="F72" t="inlineStr">
         <is>
@@ -2160,20 +2160,20 @@
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>0375.95</t>
+          <t>1190.61</t>
         </is>
       </c>
       <c r="B73" t="n">
-        <v>1582</v>
+        <v>1586</v>
       </c>
       <c r="C73" t="n">
-        <v>1360</v>
+        <v>1304</v>
       </c>
       <c r="D73" t="n">
-        <v>-444</v>
+        <v>-442</v>
       </c>
       <c r="E73" t="n">
-        <v>-158</v>
+        <v>-216</v>
       </c>
       <c r="F73" t="inlineStr">
         <is>
@@ -2184,20 +2184,20 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>0377.24</t>
+          <t>1191.86</t>
         </is>
       </c>
       <c r="B74" t="n">
-        <v>1582</v>
+        <v>1588</v>
       </c>
       <c r="C74" t="n">
-        <v>1360</v>
+        <v>1300</v>
       </c>
       <c r="D74" t="n">
-        <v>-445</v>
+        <v>-441</v>
       </c>
       <c r="E74" t="n">
-        <v>-160</v>
+        <v>-218</v>
       </c>
       <c r="F74" t="inlineStr">
         <is>
@@ -2208,20 +2208,20 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>0378.58</t>
+          <t>1193.09</t>
         </is>
       </c>
       <c r="B75" t="n">
-        <v>1584</v>
+        <v>1588</v>
       </c>
       <c r="C75" t="n">
-        <v>1354</v>
+        <v>1298</v>
       </c>
       <c r="D75" t="n">
-        <v>-445</v>
+        <v>-440</v>
       </c>
       <c r="E75" t="n">
-        <v>-162</v>
+        <v>-221</v>
       </c>
       <c r="F75" t="inlineStr">
         <is>
@@ -2232,20 +2232,20 @@
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>0379.90</t>
+          <t>1194.26</t>
         </is>
       </c>
       <c r="B76" t="n">
-        <v>1584</v>
+        <v>1588</v>
       </c>
       <c r="C76" t="n">
-        <v>1350</v>
+        <v>1294</v>
       </c>
       <c r="D76" t="n">
-        <v>-445</v>
+        <v>-440</v>
       </c>
       <c r="E76" t="n">
-        <v>-164</v>
+        <v>-224</v>
       </c>
       <c r="F76" t="inlineStr">
         <is>
@@ -2256,20 +2256,20 @@
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>0381.06</t>
+          <t>1195.50</t>
         </is>
       </c>
       <c r="B77" t="n">
-        <v>1582</v>
+        <v>1588</v>
       </c>
       <c r="C77" t="n">
-        <v>1352</v>
+        <v>1294</v>
       </c>
       <c r="D77" t="n">
-        <v>-445</v>
+        <v>-440</v>
       </c>
       <c r="E77" t="n">
-        <v>-166</v>
+        <v>-226</v>
       </c>
       <c r="F77" t="inlineStr">
         <is>
@@ -2280,20 +2280,20 @@
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>0382.24</t>
+          <t>1196.85</t>
         </is>
       </c>
       <c r="B78" t="n">
-        <v>1586</v>
+        <v>1590</v>
       </c>
       <c r="C78" t="n">
-        <v>1352</v>
+        <v>1290</v>
       </c>
       <c r="D78" t="n">
-        <v>-444</v>
+        <v>-439</v>
       </c>
       <c r="E78" t="n">
-        <v>-168</v>
+        <v>-228</v>
       </c>
       <c r="F78" t="inlineStr">
         <is>
@@ -2304,20 +2304,20 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>0383.46</t>
+          <t>1198.18</t>
         </is>
       </c>
       <c r="B79" t="n">
-        <v>1584</v>
+        <v>1588</v>
       </c>
       <c r="C79" t="n">
-        <v>1346</v>
+        <v>1290</v>
       </c>
       <c r="D79" t="n">
-        <v>-444</v>
+        <v>-439</v>
       </c>
       <c r="E79" t="n">
-        <v>-170</v>
+        <v>-230</v>
       </c>
       <c r="F79" t="inlineStr">
         <is>
@@ -2328,20 +2328,20 @@
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>0384.63</t>
+          <t>1199.35</t>
         </is>
       </c>
       <c r="B80" t="n">
-        <v>1584</v>
+        <v>1590</v>
       </c>
       <c r="C80" t="n">
-        <v>1342</v>
+        <v>1288</v>
       </c>
       <c r="D80" t="n">
-        <v>-444</v>
+        <v>-439</v>
       </c>
       <c r="E80" t="n">
-        <v>-172</v>
+        <v>-231</v>
       </c>
       <c r="F80" t="inlineStr">
         <is>
@@ -2352,20 +2352,20 @@
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>0385.95</t>
+          <t>1200.67</t>
         </is>
       </c>
       <c r="B81" t="n">
-        <v>1586</v>
+        <v>1588</v>
       </c>
       <c r="C81" t="n">
-        <v>1340</v>
+        <v>1284</v>
       </c>
       <c r="D81" t="n">
-        <v>-443</v>
+        <v>-439</v>
       </c>
       <c r="E81" t="n">
-        <v>-175</v>
+        <v>-234</v>
       </c>
       <c r="F81" t="inlineStr">
         <is>
@@ -2376,20 +2376,20 @@
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>0387.23</t>
+          <t>1201.83</t>
         </is>
       </c>
       <c r="B82" t="n">
-        <v>1586</v>
+        <v>1590</v>
       </c>
       <c r="C82" t="n">
-        <v>1338</v>
+        <v>1280</v>
       </c>
       <c r="D82" t="n">
-        <v>-443</v>
+        <v>-439</v>
       </c>
       <c r="E82" t="n">
-        <v>-179</v>
+        <v>-238</v>
       </c>
       <c r="F82" t="inlineStr">
         <is>
@@ -2400,20 +2400,20 @@
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>0388.38</t>
+          <t>1203.07</t>
         </is>
       </c>
       <c r="B83" t="n">
-        <v>1584</v>
+        <v>1590</v>
       </c>
       <c r="C83" t="n">
-        <v>1338</v>
+        <v>1280</v>
       </c>
       <c r="D83" t="n">
-        <v>-443</v>
+        <v>-438</v>
       </c>
       <c r="E83" t="n">
-        <v>-181</v>
+        <v>-240</v>
       </c>
       <c r="F83" t="inlineStr">
         <is>
@@ -2424,20 +2424,20 @@
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>0389.74</t>
+          <t>1204.25</t>
         </is>
       </c>
       <c r="B84" t="n">
-        <v>1584</v>
+        <v>1590</v>
       </c>
       <c r="C84" t="n">
-        <v>1338</v>
+        <v>1278</v>
       </c>
       <c r="D84" t="n">
-        <v>-443</v>
+        <v>-438</v>
       </c>
       <c r="E84" t="n">
-        <v>-182</v>
+        <v>-241</v>
       </c>
       <c r="F84" t="inlineStr">
         <is>
@@ -2448,20 +2448,20 @@
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>0391.05</t>
+          <t>1205.58</t>
         </is>
       </c>
       <c r="B85" t="n">
-        <v>1584</v>
+        <v>1590</v>
       </c>
       <c r="C85" t="n">
-        <v>1334</v>
+        <v>1278</v>
       </c>
       <c r="D85" t="n">
-        <v>-444</v>
+        <v>-438</v>
       </c>
       <c r="E85" t="n">
-        <v>-183</v>
+        <v>-242</v>
       </c>
       <c r="F85" t="inlineStr">
         <is>
@@ -2472,20 +2472,20 @@
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>0392.25</t>
+          <t>1206.76</t>
         </is>
       </c>
       <c r="B86" t="n">
-        <v>1584</v>
+        <v>1590</v>
       </c>
       <c r="C86" t="n">
-        <v>1334</v>
+        <v>1274</v>
       </c>
       <c r="D86" t="n">
-        <v>-444</v>
+        <v>-438</v>
       </c>
       <c r="E86" t="n">
-        <v>-184</v>
+        <v>-244</v>
       </c>
       <c r="F86" t="inlineStr">
         <is>
@@ -2496,20 +2496,20 @@
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>0393.46</t>
+          <t>1207.99</t>
         </is>
       </c>
       <c r="B87" t="n">
-        <v>1586</v>
+        <v>1592</v>
       </c>
       <c r="C87" t="n">
-        <v>1332</v>
+        <v>1276</v>
       </c>
       <c r="D87" t="n">
-        <v>-444</v>
+        <v>-437</v>
       </c>
       <c r="E87" t="n">
-        <v>-186</v>
+        <v>-245</v>
       </c>
       <c r="F87" t="inlineStr">
         <is>
@@ -2520,20 +2520,20 @@
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>0394.64</t>
+          <t>1209.27</t>
         </is>
       </c>
       <c r="B88" t="n">
-        <v>1584</v>
+        <v>1588</v>
       </c>
       <c r="C88" t="n">
-        <v>1334</v>
+        <v>1276</v>
       </c>
       <c r="D88" t="n">
-        <v>-444</v>
+        <v>-438</v>
       </c>
       <c r="E88" t="n">
-        <v>-187</v>
+        <v>-244</v>
       </c>
       <c r="F88" t="inlineStr">
         <is>
@@ -2544,20 +2544,20 @@
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>0395.88</t>
+          <t>1210.49</t>
         </is>
       </c>
       <c r="B89" t="n">
-        <v>1584</v>
+        <v>1592</v>
       </c>
       <c r="C89" t="n">
-        <v>1332</v>
+        <v>1274</v>
       </c>
       <c r="D89" t="n">
-        <v>-444</v>
+        <v>-438</v>
       </c>
       <c r="E89" t="n">
-        <v>-187</v>
+        <v>-245</v>
       </c>
       <c r="F89" t="inlineStr">
         <is>
@@ -2568,20 +2568,20 @@
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>0397.23</t>
+          <t>1211.73</t>
         </is>
       </c>
       <c r="B90" t="n">
-        <v>1586</v>
+        <v>1588</v>
       </c>
       <c r="C90" t="n">
-        <v>1330</v>
+        <v>1274</v>
       </c>
       <c r="D90" t="n">
-        <v>-443</v>
+        <v>-438</v>
       </c>
       <c r="E90" t="n">
-        <v>-188</v>
+        <v>-246</v>
       </c>
       <c r="F90" t="inlineStr">
         <is>
@@ -2592,20 +2592,20 @@
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>0398.56</t>
+          <t>1212.98</t>
         </is>
       </c>
       <c r="B91" t="n">
-        <v>1586</v>
+        <v>1592</v>
       </c>
       <c r="C91" t="n">
-        <v>1330</v>
+        <v>1272</v>
       </c>
       <c r="D91" t="n">
-        <v>-443</v>
+        <v>-438</v>
       </c>
       <c r="E91" t="n">
-        <v>-189</v>
+        <v>-247</v>
       </c>
       <c r="F91" t="inlineStr">
         <is>
@@ -2616,20 +2616,20 @@
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>0399.74</t>
+          <t>1214.17</t>
         </is>
       </c>
       <c r="B92" t="n">
-        <v>1588</v>
+        <v>1590</v>
       </c>
       <c r="C92" t="n">
-        <v>1328</v>
+        <v>1270</v>
       </c>
       <c r="D92" t="n">
-        <v>-442</v>
+        <v>-437</v>
       </c>
       <c r="E92" t="n">
-        <v>-190</v>
+        <v>-249</v>
       </c>
       <c r="F92" t="inlineStr">
         <is>
@@ -2640,20 +2640,20 @@
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>0401.07</t>
+          <t>1215.38</t>
         </is>
       </c>
       <c r="B93" t="n">
-        <v>1586</v>
+        <v>1588</v>
       </c>
       <c r="C93" t="n">
-        <v>1330</v>
+        <v>1272</v>
       </c>
       <c r="D93" t="n">
-        <v>-442</v>
+        <v>-439</v>
       </c>
       <c r="E93" t="n">
-        <v>-191</v>
+        <v>-249</v>
       </c>
       <c r="F93" t="inlineStr">
         <is>
@@ -2664,20 +2664,20 @@
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>0402.25</t>
+          <t>1216.56</t>
         </is>
       </c>
       <c r="B94" t="n">
-        <v>1586</v>
+        <v>1590</v>
       </c>
       <c r="C94" t="n">
-        <v>1328</v>
+        <v>1272</v>
       </c>
       <c r="D94" t="n">
-        <v>-442</v>
+        <v>-439</v>
       </c>
       <c r="E94" t="n">
-        <v>-191</v>
+        <v>-248</v>
       </c>
       <c r="F94" t="inlineStr">
         <is>
@@ -2688,20 +2688,20 @@
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>0403.36</t>
+          <t>1217.77</t>
         </is>
       </c>
       <c r="B95" t="n">
-        <v>1586</v>
+        <v>1590</v>
       </c>
       <c r="C95" t="n">
-        <v>1328</v>
+        <v>1270</v>
       </c>
       <c r="D95" t="n">
-        <v>-442</v>
+        <v>-438</v>
       </c>
       <c r="E95" t="n">
-        <v>-192</v>
+        <v>-249</v>
       </c>
       <c r="F95" t="inlineStr">
         <is>
@@ -2712,20 +2712,20 @@
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>0404.62</t>
+          <t>1218.95</t>
         </is>
       </c>
       <c r="B96" t="n">
-        <v>1588</v>
+        <v>1592</v>
       </c>
       <c r="C96" t="n">
-        <v>1326</v>
+        <v>1268</v>
       </c>
       <c r="D96" t="n">
-        <v>-442</v>
+        <v>-437</v>
       </c>
       <c r="E96" t="n">
-        <v>-192</v>
+        <v>-251</v>
       </c>
       <c r="F96" t="inlineStr">
         <is>
@@ -2736,20 +2736,20 @@
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>0405.88</t>
+          <t>1220.18</t>
         </is>
       </c>
       <c r="B97" t="n">
-        <v>1588</v>
+        <v>1592</v>
       </c>
       <c r="C97" t="n">
-        <v>1324</v>
+        <v>1264</v>
       </c>
       <c r="D97" t="n">
-        <v>-441</v>
+        <v>-436</v>
       </c>
       <c r="E97" t="n">
-        <v>-194</v>
+        <v>-254</v>
       </c>
       <c r="F97" t="inlineStr">
         <is>
@@ -2760,20 +2760,20 @@
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>0407.23</t>
+          <t>1221.37</t>
         </is>
       </c>
       <c r="B98" t="n">
-        <v>1588</v>
+        <v>1590</v>
       </c>
       <c r="C98" t="n">
-        <v>1324</v>
+        <v>1268</v>
       </c>
       <c r="D98" t="n">
-        <v>-441</v>
+        <v>-437</v>
       </c>
       <c r="E98" t="n">
-        <v>-195</v>
+        <v>-254</v>
       </c>
       <c r="F98" t="inlineStr">
         <is>
@@ -2784,20 +2784,20 @@
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>0408.38</t>
+          <t>1222.59</t>
         </is>
       </c>
       <c r="B99" t="n">
-        <v>1586</v>
+        <v>1592</v>
       </c>
       <c r="C99" t="n">
-        <v>1324</v>
+        <v>1268</v>
       </c>
       <c r="D99" t="n">
-        <v>-441</v>
+        <v>-437</v>
       </c>
       <c r="E99" t="n">
-        <v>-196</v>
+        <v>-252</v>
       </c>
       <c r="F99" t="inlineStr">
         <is>
@@ -2808,20 +2808,20 @@
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>0409.74</t>
+          <t>1223.86</t>
         </is>
       </c>
       <c r="B100" t="n">
-        <v>1584</v>
+        <v>1590</v>
       </c>
       <c r="C100" t="n">
-        <v>1324</v>
+        <v>1268</v>
       </c>
       <c r="D100" t="n">
-        <v>-442</v>
+        <v>-437</v>
       </c>
       <c r="E100" t="n">
-        <v>-196</v>
+        <v>-252</v>
       </c>
       <c r="F100" t="inlineStr">
         <is>
@@ -2832,20 +2832,20 @@
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>0411.05</t>
+          <t>1225.19</t>
         </is>
       </c>
       <c r="B101" t="n">
-        <v>1586</v>
+        <v>1590</v>
       </c>
       <c r="C101" t="n">
-        <v>1324</v>
+        <v>1266</v>
       </c>
       <c r="D101" t="n">
-        <v>-442</v>
+        <v>-438</v>
       </c>
       <c r="E101" t="n">
-        <v>-196</v>
+        <v>-253</v>
       </c>
       <c r="F101" t="inlineStr">
         <is>
@@ -2856,20 +2856,20 @@
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>0412.25</t>
+          <t>1226.45</t>
         </is>
       </c>
       <c r="B102" t="n">
-        <v>1588</v>
+        <v>1590</v>
       </c>
       <c r="C102" t="n">
-        <v>1320</v>
+        <v>1266</v>
       </c>
       <c r="D102" t="n">
-        <v>-442</v>
+        <v>-438</v>
       </c>
       <c r="E102" t="n">
-        <v>-197</v>
+        <v>-254</v>
       </c>
       <c r="F102" t="inlineStr">
         <is>

--- a/Logs/Log.xlsx
+++ b/Logs/Log.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Tue Nov 21" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Wed Nov 22" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F102"/>
+  <dimension ref="A1:F252"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,20 +456,20 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>1102.96</t>
+          <t>0835.84</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1586</v>
+        <v>1600</v>
       </c>
       <c r="C2" t="n">
-        <v>1322</v>
+        <v>1222</v>
       </c>
       <c r="D2" t="n">
-        <v>-442</v>
+        <v>-428</v>
       </c>
       <c r="E2" t="n">
-        <v>-198</v>
+        <v>-298</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
@@ -480,20 +480,20 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>1104.60</t>
+          <t>0837.47</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1588</v>
+        <v>1602</v>
       </c>
       <c r="C3" t="n">
-        <v>1320</v>
+        <v>1220</v>
       </c>
       <c r="D3" t="n">
-        <v>-441</v>
+        <v>-427</v>
       </c>
       <c r="E3" t="n">
-        <v>-199</v>
+        <v>-299</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
@@ -504,20 +504,20 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>1105.96</t>
+          <t>0838.84</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1588</v>
+        <v>1602</v>
       </c>
       <c r="C4" t="n">
-        <v>1318</v>
+        <v>1220</v>
       </c>
       <c r="D4" t="n">
-        <v>-440</v>
+        <v>-426</v>
       </c>
       <c r="E4" t="n">
-        <v>-201</v>
+        <v>-300</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
@@ -528,20 +528,20 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>1107.19</t>
+          <t>0839.99</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1586</v>
+        <v>1600</v>
       </c>
       <c r="C5" t="n">
-        <v>1318</v>
+        <v>1224</v>
       </c>
       <c r="D5" t="n">
-        <v>-441</v>
+        <v>-427</v>
       </c>
       <c r="E5" t="n">
-        <v>-202</v>
+        <v>-298</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
@@ -552,20 +552,20 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>1108.55</t>
+          <t>0841.33</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1586</v>
+        <v>1600</v>
       </c>
       <c r="C6" t="n">
-        <v>1322</v>
+        <v>1222</v>
       </c>
       <c r="D6" t="n">
-        <v>-442</v>
+        <v>-428</v>
       </c>
       <c r="E6" t="n">
-        <v>-200</v>
+        <v>-297</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
@@ -576,20 +576,20 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>1109.90</t>
+          <t>0842.48</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1588</v>
+        <v>1602</v>
       </c>
       <c r="C7" t="n">
-        <v>1320</v>
+        <v>1218</v>
       </c>
       <c r="D7" t="n">
-        <v>-441</v>
+        <v>-427</v>
       </c>
       <c r="E7" t="n">
-        <v>-199</v>
+        <v>-300</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
@@ -600,20 +600,20 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>1111.13</t>
+          <t>0843.84</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1588</v>
+        <v>1602</v>
       </c>
       <c r="C8" t="n">
-        <v>1318</v>
+        <v>1222</v>
       </c>
       <c r="D8" t="n">
-        <v>-440</v>
+        <v>-426</v>
       </c>
       <c r="E8" t="n">
-        <v>-201</v>
+        <v>-300</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
@@ -624,20 +624,20 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>1112.28</t>
+          <t>0845.01</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>1588</v>
+        <v>1602</v>
       </c>
       <c r="C9" t="n">
-        <v>1316</v>
+        <v>1220</v>
       </c>
       <c r="D9" t="n">
-        <v>-440</v>
+        <v>-426</v>
       </c>
       <c r="E9" t="n">
-        <v>-203</v>
+        <v>-299</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
@@ -648,20 +648,20 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>1113.46</t>
+          <t>0846.23</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1584</v>
+        <v>1604</v>
       </c>
       <c r="C10" t="n">
-        <v>1322</v>
+        <v>1218</v>
       </c>
       <c r="D10" t="n">
-        <v>-442</v>
+        <v>-425</v>
       </c>
       <c r="E10" t="n">
-        <v>-201</v>
+        <v>-301</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
@@ -672,20 +672,20 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>1114.68</t>
+          <t>0847.40</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1586</v>
+        <v>1602</v>
       </c>
       <c r="C11" t="n">
-        <v>1320</v>
+        <v>1220</v>
       </c>
       <c r="D11" t="n">
-        <v>-443</v>
+        <v>-425</v>
       </c>
       <c r="E11" t="n">
-        <v>-199</v>
+        <v>-301</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
@@ -696,20 +696,20 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>1115.85</t>
+          <t>0848.74</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1588</v>
+        <v>1600</v>
       </c>
       <c r="C12" t="n">
-        <v>1320</v>
+        <v>1224</v>
       </c>
       <c r="D12" t="n">
-        <v>-441</v>
+        <v>-427</v>
       </c>
       <c r="E12" t="n">
-        <v>-200</v>
+        <v>-298</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
@@ -720,20 +720,20 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>1117.11</t>
+          <t>0849.89</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1586</v>
+        <v>1600</v>
       </c>
       <c r="C13" t="n">
-        <v>1320</v>
+        <v>1222</v>
       </c>
       <c r="D13" t="n">
-        <v>-441</v>
+        <v>-428</v>
       </c>
       <c r="E13" t="n">
-        <v>-200</v>
+        <v>-297</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
@@ -744,20 +744,20 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>1118.33</t>
+          <t>0851.23</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1586</v>
+        <v>1602</v>
       </c>
       <c r="C14" t="n">
-        <v>1322</v>
+        <v>1220</v>
       </c>
       <c r="D14" t="n">
-        <v>-442</v>
+        <v>-427</v>
       </c>
       <c r="E14" t="n">
-        <v>-199</v>
+        <v>-299</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
@@ -768,20 +768,20 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>1119.51</t>
+          <t>0852.48</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>1588</v>
+        <v>1600</v>
       </c>
       <c r="C15" t="n">
-        <v>1320</v>
+        <v>1222</v>
       </c>
       <c r="D15" t="n">
-        <v>-441</v>
+        <v>-427</v>
       </c>
       <c r="E15" t="n">
-        <v>-199</v>
+        <v>-299</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
@@ -792,20 +792,20 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>1120.76</t>
+          <t>0853.84</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1588</v>
+        <v>1602</v>
       </c>
       <c r="C16" t="n">
-        <v>1320</v>
+        <v>1222</v>
       </c>
       <c r="D16" t="n">
-        <v>-440</v>
+        <v>-427</v>
       </c>
       <c r="E16" t="n">
-        <v>-200</v>
+        <v>-298</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
@@ -816,20 +816,20 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>1121.97</t>
+          <t>0855.08</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1588</v>
+        <v>1600</v>
       </c>
       <c r="C17" t="n">
-        <v>1318</v>
+        <v>1224</v>
       </c>
       <c r="D17" t="n">
-        <v>-440</v>
+        <v>-427</v>
       </c>
       <c r="E17" t="n">
-        <v>-201</v>
+        <v>-297</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
@@ -840,20 +840,20 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>1123.15</t>
+          <t>0856.45</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>1588</v>
+        <v>1600</v>
       </c>
       <c r="C18" t="n">
-        <v>1320</v>
+        <v>1224</v>
       </c>
       <c r="D18" t="n">
-        <v>-440</v>
+        <v>-428</v>
       </c>
       <c r="E18" t="n">
-        <v>-201</v>
+        <v>-296</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
@@ -864,20 +864,20 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>1124.37</t>
+          <t>0857.61</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1586</v>
+        <v>1600</v>
       </c>
       <c r="C19" t="n">
-        <v>1322</v>
+        <v>1224</v>
       </c>
       <c r="D19" t="n">
-        <v>-441</v>
+        <v>-428</v>
       </c>
       <c r="E19" t="n">
-        <v>-199</v>
+        <v>-296</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
@@ -888,20 +888,20 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>1125.56</t>
+          <t>0858.93</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1588</v>
+        <v>1602</v>
       </c>
       <c r="C20" t="n">
-        <v>1318</v>
+        <v>1220</v>
       </c>
       <c r="D20" t="n">
-        <v>-441</v>
+        <v>-427</v>
       </c>
       <c r="E20" t="n">
-        <v>-200</v>
+        <v>-298</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
@@ -912,20 +912,20 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>1126.80</t>
+          <t>0860.27</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>1586</v>
+        <v>1602</v>
       </c>
       <c r="C21" t="n">
-        <v>1320</v>
+        <v>1222</v>
       </c>
       <c r="D21" t="n">
-        <v>-441</v>
+        <v>-426</v>
       </c>
       <c r="E21" t="n">
-        <v>-201</v>
+        <v>-299</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
@@ -936,20 +936,20 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>1128.05</t>
+          <t>0861.64</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1586</v>
+        <v>1600</v>
       </c>
       <c r="C22" t="n">
-        <v>1322</v>
+        <v>1222</v>
       </c>
       <c r="D22" t="n">
-        <v>-442</v>
+        <v>-427</v>
       </c>
       <c r="E22" t="n">
-        <v>-199</v>
+        <v>-298</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
@@ -960,20 +960,20 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>1129.31</t>
+          <t>0862.78</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1586</v>
+        <v>1602</v>
       </c>
       <c r="C23" t="n">
-        <v>1320</v>
+        <v>1220</v>
       </c>
       <c r="D23" t="n">
-        <v>-442</v>
+        <v>-427</v>
       </c>
       <c r="E23" t="n">
-        <v>-199</v>
+        <v>-299</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
@@ -984,1894 +984,5494 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>1130.66</t>
+          <t>0864.14</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>1584</v>
+        <v>1602</v>
       </c>
       <c r="C24" t="n">
-        <v>1322</v>
+        <v>1222</v>
       </c>
       <c r="D24" t="n">
-        <v>-443</v>
+        <v>-426</v>
       </c>
       <c r="E24" t="n">
-        <v>-199</v>
+        <v>-299</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>['Right']</t>
+          <t>[]</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>1131.87</t>
+          <t>0865.28</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1584</v>
+        <v>1600</v>
       </c>
       <c r="C25" t="n">
-        <v>1322</v>
+        <v>1224</v>
       </c>
       <c r="D25" t="n">
-        <v>-444</v>
+        <v>-427</v>
       </c>
       <c r="E25" t="n">
-        <v>-198</v>
+        <v>-297</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>['Right']</t>
+          <t>[]</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>1133.15</t>
+          <t>0866.64</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1584</v>
+        <v>1602</v>
       </c>
       <c r="C26" t="n">
-        <v>1322</v>
+        <v>1220</v>
       </c>
       <c r="D26" t="n">
-        <v>-444</v>
+        <v>-427</v>
       </c>
       <c r="E26" t="n">
-        <v>-198</v>
+        <v>-298</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>['Right']</t>
+          <t>[]</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>1134.48</t>
+          <t>0867.78</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>1588</v>
+        <v>1600</v>
       </c>
       <c r="C27" t="n">
-        <v>1318</v>
+        <v>1224</v>
       </c>
       <c r="D27" t="n">
-        <v>-442</v>
+        <v>-427</v>
       </c>
       <c r="E27" t="n">
-        <v>-200</v>
+        <v>-298</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>['Right']</t>
+          <t>[]</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>1135.65</t>
+          <t>0869.14</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1586</v>
+        <v>1602</v>
       </c>
       <c r="C28" t="n">
-        <v>1320</v>
+        <v>1218</v>
       </c>
       <c r="D28" t="n">
-        <v>-441</v>
+        <v>-427</v>
       </c>
       <c r="E28" t="n">
-        <v>-201</v>
+        <v>-299</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>['Right']</t>
+          <t>[]</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>1136.98</t>
+          <t>0870.30</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1584</v>
+        <v>1604</v>
       </c>
       <c r="C29" t="n">
-        <v>1322</v>
+        <v>1226</v>
       </c>
       <c r="D29" t="n">
-        <v>-443</v>
+        <v>-425</v>
       </c>
       <c r="E29" t="n">
-        <v>-199</v>
+        <v>-298</v>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>['Right']</t>
+          <t>[]</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>1138.16</t>
+          <t>0871.64</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>1584</v>
+        <v>1602</v>
       </c>
       <c r="C30" t="n">
-        <v>1316</v>
+        <v>1224</v>
       </c>
       <c r="D30" t="n">
-        <v>-444</v>
+        <v>-425</v>
       </c>
       <c r="E30" t="n">
-        <v>-201</v>
+        <v>-295</v>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>['Right']</t>
+          <t>[]</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>1139.39</t>
+          <t>0872.91</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1584</v>
+        <v>1600</v>
       </c>
       <c r="C31" t="n">
-        <v>1320</v>
+        <v>1222</v>
       </c>
       <c r="D31" t="n">
-        <v>-444</v>
+        <v>-427</v>
       </c>
       <c r="E31" t="n">
-        <v>-202</v>
+        <v>-297</v>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>['Right']</t>
+          <t>[]</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>1140.56</t>
+          <t>0874.14</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1580</v>
+        <v>1602</v>
       </c>
       <c r="C32" t="n">
-        <v>1322</v>
+        <v>1220</v>
       </c>
       <c r="D32" t="n">
-        <v>-446</v>
+        <v>-427</v>
       </c>
       <c r="E32" t="n">
-        <v>-199</v>
+        <v>-299</v>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>['Right']</t>
+          <t>[]</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>1141.77</t>
+          <t>0875.30</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>1578</v>
+        <v>1600</v>
       </c>
       <c r="C33" t="n">
-        <v>1322</v>
+        <v>1222</v>
       </c>
       <c r="D33" t="n">
-        <v>-449</v>
+        <v>-427</v>
       </c>
       <c r="E33" t="n">
-        <v>-198</v>
+        <v>-299</v>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>['Right']</t>
+          <t>[]</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>1142.94</t>
+          <t>0876.66</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1580</v>
+        <v>1600</v>
       </c>
       <c r="C34" t="n">
-        <v>1318</v>
+        <v>1224</v>
       </c>
       <c r="D34" t="n">
-        <v>-449</v>
+        <v>-428</v>
       </c>
       <c r="E34" t="n">
-        <v>-200</v>
+        <v>-297</v>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>['Right']</t>
+          <t>[]</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>1144.17</t>
+          <t>0877.84</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1576</v>
+        <v>1600</v>
       </c>
       <c r="C35" t="n">
-        <v>1322</v>
+        <v>1224</v>
       </c>
       <c r="D35" t="n">
-        <v>-450</v>
+        <v>-428</v>
       </c>
       <c r="E35" t="n">
-        <v>-200</v>
+        <v>-296</v>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>['Right']</t>
+          <t>[]</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>1145.36</t>
+          <t>0879.14</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>1576</v>
+        <v>1602</v>
       </c>
       <c r="C36" t="n">
-        <v>1320</v>
+        <v>1222</v>
       </c>
       <c r="D36" t="n">
-        <v>-452</v>
+        <v>-427</v>
       </c>
       <c r="E36" t="n">
-        <v>-199</v>
+        <v>-297</v>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>['Right']</t>
+          <t>[]</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>1146.69</t>
+          <t>0880.28</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1574</v>
+        <v>1602</v>
       </c>
       <c r="C37" t="n">
-        <v>1320</v>
+        <v>1222</v>
       </c>
       <c r="D37" t="n">
-        <v>-453</v>
+        <v>-426</v>
       </c>
       <c r="E37" t="n">
-        <v>-200</v>
+        <v>-298</v>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>['Right']</t>
+          <t>[]</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>1147.95</t>
+          <t>0881.64</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1570</v>
+        <v>1600</v>
       </c>
       <c r="C38" t="n">
-        <v>1320</v>
+        <v>1222</v>
       </c>
       <c r="D38" t="n">
-        <v>-456</v>
+        <v>-427</v>
       </c>
       <c r="E38" t="n">
-        <v>-200</v>
+        <v>-298</v>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>['Right']</t>
+          <t>[]</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>1149.07</t>
+          <t>0882.78</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>1570</v>
+        <v>1602</v>
       </c>
       <c r="C39" t="n">
-        <v>1322</v>
+        <v>1222</v>
       </c>
       <c r="D39" t="n">
-        <v>-458</v>
+        <v>-427</v>
       </c>
       <c r="E39" t="n">
-        <v>-199</v>
+        <v>-298</v>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>['Right']</t>
+          <t>[]</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>1150.25</t>
+          <t>0884.13</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1570</v>
+        <v>1600</v>
       </c>
       <c r="C40" t="n">
-        <v>1320</v>
+        <v>1224</v>
       </c>
       <c r="D40" t="n">
-        <v>-458</v>
+        <v>-427</v>
       </c>
       <c r="E40" t="n">
-        <v>-199</v>
+        <v>-297</v>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>['Right']</t>
+          <t>[]</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>1151.58</t>
+          <t>0885.28</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1568</v>
+        <v>1602</v>
       </c>
       <c r="C41" t="n">
-        <v>1320</v>
+        <v>1222</v>
       </c>
       <c r="D41" t="n">
-        <v>-459</v>
+        <v>-427</v>
       </c>
       <c r="E41" t="n">
-        <v>-200</v>
+        <v>-297</v>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>['Right']</t>
+          <t>[]</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>1152.75</t>
+          <t>0886.65</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>1566</v>
+        <v>1600</v>
       </c>
       <c r="C42" t="n">
-        <v>1320</v>
+        <v>1224</v>
       </c>
       <c r="D42" t="n">
-        <v>-461</v>
+        <v>-427</v>
       </c>
       <c r="E42" t="n">
-        <v>-200</v>
+        <v>-297</v>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>['Right']</t>
+          <t>[]</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>1154.06</t>
+          <t>0887.82</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1562</v>
+        <v>1600</v>
       </c>
       <c r="C43" t="n">
-        <v>1322</v>
+        <v>1222</v>
       </c>
       <c r="D43" t="n">
-        <v>-464</v>
+        <v>-428</v>
       </c>
       <c r="E43" t="n">
-        <v>-199</v>
+        <v>-297</v>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>['Right']</t>
+          <t>[]</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>1155.25</t>
+          <t>0889.18</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1564</v>
+        <v>1602</v>
       </c>
       <c r="C44" t="n">
-        <v>1322</v>
+        <v>1222</v>
       </c>
       <c r="D44" t="n">
-        <v>-465</v>
+        <v>-427</v>
       </c>
       <c r="E44" t="n">
-        <v>-198</v>
+        <v>-298</v>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>['Left']</t>
+          <t>[]</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>1156.49</t>
+          <t>0890.43</t>
         </is>
       </c>
       <c r="B45" t="n">
-        <v>1564</v>
+        <v>1600</v>
       </c>
       <c r="C45" t="n">
-        <v>1322</v>
+        <v>1224</v>
       </c>
       <c r="D45" t="n">
-        <v>-464</v>
+        <v>-427</v>
       </c>
       <c r="E45" t="n">
-        <v>-198</v>
+        <v>-297</v>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>['Left']</t>
+          <t>[]</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>1157.68</t>
+          <t>0891.74</t>
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1560</v>
+        <v>1600</v>
       </c>
       <c r="C46" t="n">
-        <v>1322</v>
+        <v>1224</v>
       </c>
       <c r="D46" t="n">
-        <v>-466</v>
+        <v>-428</v>
       </c>
       <c r="E46" t="n">
-        <v>-198</v>
+        <v>-296</v>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>['Left']</t>
+          <t>[]</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>1158.90</t>
+          <t>0892.92</t>
         </is>
       </c>
       <c r="B47" t="n">
-        <v>1562</v>
+        <v>1602</v>
       </c>
       <c r="C47" t="n">
-        <v>1322</v>
+        <v>1220</v>
       </c>
       <c r="D47" t="n">
-        <v>-467</v>
+        <v>-427</v>
       </c>
       <c r="E47" t="n">
-        <v>-198</v>
+        <v>-298</v>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>['Left']</t>
+          <t>[]</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>1160.15</t>
+          <t>0894.23</t>
         </is>
       </c>
       <c r="B48" t="n">
-        <v>1564</v>
+        <v>1600</v>
       </c>
       <c r="C48" t="n">
-        <v>1318</v>
+        <v>1224</v>
       </c>
       <c r="D48" t="n">
-        <v>-465</v>
+        <v>-427</v>
       </c>
       <c r="E48" t="n">
-        <v>-200</v>
+        <v>-298</v>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>['Left']</t>
+          <t>[]</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>1161.29</t>
+          <t>0895.38</t>
         </is>
       </c>
       <c r="B49" t="n">
-        <v>1564</v>
+        <v>1602</v>
       </c>
       <c r="C49" t="n">
-        <v>1318</v>
+        <v>1220</v>
       </c>
       <c r="D49" t="n">
-        <v>-464</v>
+        <v>-427</v>
       </c>
       <c r="E49" t="n">
-        <v>-202</v>
+        <v>-298</v>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>['Left']</t>
+          <t>[]</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>1162.48</t>
+          <t>0896.74</t>
         </is>
       </c>
       <c r="B50" t="n">
-        <v>1566</v>
+        <v>1602</v>
       </c>
       <c r="C50" t="n">
-        <v>1320</v>
+        <v>1222</v>
       </c>
       <c r="D50" t="n">
-        <v>-463</v>
+        <v>-426</v>
       </c>
       <c r="E50" t="n">
-        <v>-201</v>
+        <v>-299</v>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>['Left']</t>
+          <t>[]</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>1163.68</t>
+          <t>0897.98</t>
         </is>
       </c>
       <c r="B51" t="n">
-        <v>1566</v>
+        <v>1600</v>
       </c>
       <c r="C51" t="n">
-        <v>1320</v>
+        <v>1224</v>
       </c>
       <c r="D51" t="n">
-        <v>-462</v>
+        <v>-427</v>
       </c>
       <c r="E51" t="n">
-        <v>-200</v>
+        <v>-297</v>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>['Left']</t>
+          <t>[]</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>1164.87</t>
+          <t>0899.34</t>
         </is>
       </c>
       <c r="B52" t="n">
-        <v>1566</v>
+        <v>1602</v>
       </c>
       <c r="C52" t="n">
-        <v>1322</v>
+        <v>1222</v>
       </c>
       <c r="D52" t="n">
-        <v>-462</v>
+        <v>-427</v>
       </c>
       <c r="E52" t="n">
-        <v>-199</v>
+        <v>-297</v>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>['Left']</t>
+          <t>[]</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>1166.07</t>
+          <t>0900.49</t>
         </is>
       </c>
       <c r="B53" t="n">
-        <v>1568</v>
+        <v>1602</v>
       </c>
       <c r="C53" t="n">
-        <v>1322</v>
+        <v>1222</v>
       </c>
       <c r="D53" t="n">
-        <v>-461</v>
+        <v>-426</v>
       </c>
       <c r="E53" t="n">
-        <v>-198</v>
+        <v>-298</v>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>['Left']</t>
+          <t>[]</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>1167.26</t>
+          <t>0901.83</t>
         </is>
       </c>
       <c r="B54" t="n">
-        <v>1570</v>
+        <v>1602</v>
       </c>
       <c r="C54" t="n">
-        <v>1320</v>
+        <v>1222</v>
       </c>
       <c r="D54" t="n">
-        <v>-459</v>
+        <v>-426</v>
       </c>
       <c r="E54" t="n">
-        <v>-199</v>
+        <v>-298</v>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>['Left']</t>
+          <t>['Right']</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>1168.48</t>
+          <t>0902.98</t>
         </is>
       </c>
       <c r="B55" t="n">
-        <v>1570</v>
+        <v>1600</v>
       </c>
       <c r="C55" t="n">
-        <v>1322</v>
+        <v>1224</v>
       </c>
       <c r="D55" t="n">
-        <v>-458</v>
+        <v>-427</v>
       </c>
       <c r="E55" t="n">
-        <v>-199</v>
+        <v>-297</v>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>['Left']</t>
+          <t>['Right']</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>1169.65</t>
+          <t>0904.33</t>
         </is>
       </c>
       <c r="B56" t="n">
-        <v>1574</v>
+        <v>1602</v>
       </c>
       <c r="C56" t="n">
-        <v>1318</v>
+        <v>1222</v>
       </c>
       <c r="D56" t="n">
-        <v>-456</v>
+        <v>-427</v>
       </c>
       <c r="E56" t="n">
-        <v>-200</v>
+        <v>-297</v>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>['Left']</t>
+          <t>['Right']</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>1170.97</t>
+          <t>0905.49</t>
         </is>
       </c>
       <c r="B57" t="n">
-        <v>1574</v>
+        <v>1602</v>
       </c>
       <c r="C57" t="n">
-        <v>1322</v>
+        <v>1222</v>
       </c>
       <c r="D57" t="n">
-        <v>-454</v>
+        <v>-426</v>
       </c>
       <c r="E57" t="n">
-        <v>-200</v>
+        <v>-298</v>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>['Left']</t>
+          <t>['Right']</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>1172.15</t>
+          <t>0906.73</t>
         </is>
       </c>
       <c r="B58" t="n">
-        <v>1576</v>
+        <v>1602</v>
       </c>
       <c r="C58" t="n">
-        <v>1320</v>
+        <v>1224</v>
       </c>
       <c r="D58" t="n">
-        <v>-453</v>
+        <v>-426</v>
       </c>
       <c r="E58" t="n">
-        <v>-199</v>
+        <v>-297</v>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>['Left']</t>
+          <t>['Right']</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>1173.48</t>
+          <t>0907.90</t>
         </is>
       </c>
       <c r="B59" t="n">
-        <v>1576</v>
+        <v>1598</v>
       </c>
       <c r="C59" t="n">
-        <v>1322</v>
+        <v>1224</v>
       </c>
       <c r="D59" t="n">
-        <v>-452</v>
+        <v>-428</v>
       </c>
       <c r="E59" t="n">
-        <v>-199</v>
+        <v>-296</v>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>['Left']</t>
+          <t>['Right']</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>1174.66</t>
+          <t>0909.25</t>
         </is>
       </c>
       <c r="B60" t="n">
-        <v>1578</v>
+        <v>1600</v>
       </c>
       <c r="C60" t="n">
-        <v>1320</v>
+        <v>1222</v>
       </c>
       <c r="D60" t="n">
-        <v>-451</v>
+        <v>-429</v>
       </c>
       <c r="E60" t="n">
-        <v>-199</v>
+        <v>-297</v>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>['Left']</t>
+          <t>['Right']</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>1175.87</t>
+          <t>0910.42</t>
         </is>
       </c>
       <c r="B61" t="n">
-        <v>1580</v>
+        <v>1596</v>
       </c>
       <c r="C61" t="n">
-        <v>1320</v>
+        <v>1224</v>
       </c>
       <c r="D61" t="n">
-        <v>-449</v>
+        <v>-430</v>
       </c>
       <c r="E61" t="n">
-        <v>-200</v>
+        <v>-297</v>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>['Left']</t>
+          <t>['Right']</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>1177.05</t>
+          <t>0911.74</t>
         </is>
       </c>
       <c r="B62" t="n">
-        <v>1582</v>
+        <v>1594</v>
       </c>
       <c r="C62" t="n">
-        <v>1320</v>
+        <v>1224</v>
       </c>
       <c r="D62" t="n">
-        <v>-447</v>
+        <v>-433</v>
       </c>
       <c r="E62" t="n">
-        <v>-200</v>
+        <v>-296</v>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>['Left']</t>
+          <t>['Right']</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>1178.38</t>
+          <t>0912.89</t>
         </is>
       </c>
       <c r="B63" t="n">
-        <v>1584</v>
+        <v>1594</v>
       </c>
       <c r="C63" t="n">
-        <v>1320</v>
+        <v>1224</v>
       </c>
       <c r="D63" t="n">
-        <v>-445</v>
+        <v>-434</v>
       </c>
       <c r="E63" t="n">
-        <v>-200</v>
+        <v>-296</v>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>['Left']</t>
+          <t>['Right']</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>1179.56</t>
+          <t>0914.24</t>
         </is>
       </c>
       <c r="B64" t="n">
-        <v>1584</v>
+        <v>1594</v>
       </c>
       <c r="C64" t="n">
-        <v>1322</v>
+        <v>1222</v>
       </c>
       <c r="D64" t="n">
-        <v>-444</v>
+        <v>-434</v>
       </c>
       <c r="E64" t="n">
-        <v>-199</v>
+        <v>-297</v>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>['Up']</t>
+          <t>['Right']</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>1180.80</t>
+          <t>0915.42</t>
         </is>
       </c>
       <c r="B65" t="n">
-        <v>1586</v>
+        <v>1592</v>
       </c>
       <c r="C65" t="n">
-        <v>1318</v>
+        <v>1220</v>
       </c>
       <c r="D65" t="n">
-        <v>-443</v>
+        <v>-435</v>
       </c>
       <c r="E65" t="n">
-        <v>-200</v>
+        <v>-299</v>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>['Up']</t>
+          <t>['Right']</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>1182.06</t>
+          <t>0916.83</t>
         </is>
       </c>
       <c r="B66" t="n">
-        <v>1588</v>
+        <v>1590</v>
       </c>
       <c r="C66" t="n">
-        <v>1316</v>
+        <v>1222</v>
       </c>
       <c r="D66" t="n">
-        <v>-441</v>
+        <v>-437</v>
       </c>
       <c r="E66" t="n">
-        <v>-203</v>
+        <v>-299</v>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>['Up']</t>
+          <t>['Right']</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>1183.40</t>
+          <t>0917.99</t>
         </is>
       </c>
       <c r="B67" t="n">
-        <v>1588</v>
+        <v>1590</v>
       </c>
       <c r="C67" t="n">
-        <v>1314</v>
+        <v>1220</v>
       </c>
       <c r="D67" t="n">
-        <v>-440</v>
+        <v>-438</v>
       </c>
       <c r="E67" t="n">
-        <v>-205</v>
+        <v>-299</v>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>['Up']</t>
+          <t>['Right']</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>1184.61</t>
+          <t>0919.36</t>
         </is>
       </c>
       <c r="B68" t="n">
         <v>1586</v>
       </c>
       <c r="C68" t="n">
-        <v>1314</v>
+        <v>1224</v>
       </c>
       <c r="D68" t="n">
-        <v>-441</v>
+        <v>-440</v>
       </c>
       <c r="E68" t="n">
-        <v>-206</v>
+        <v>-298</v>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>['Up']</t>
+          <t>['Right']</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>1185.88</t>
+          <t>0920.50</t>
         </is>
       </c>
       <c r="B69" t="n">
-        <v>1588</v>
+        <v>1584</v>
       </c>
       <c r="C69" t="n">
-        <v>1310</v>
+        <v>1224</v>
       </c>
       <c r="D69" t="n">
-        <v>-441</v>
+        <v>-443</v>
       </c>
       <c r="E69" t="n">
-        <v>-208</v>
+        <v>-296</v>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>['Up']</t>
+          <t>['Right']</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>1187.07</t>
+          <t>0921.84</t>
         </is>
       </c>
       <c r="B70" t="n">
-        <v>1588</v>
+        <v>1580</v>
       </c>
       <c r="C70" t="n">
-        <v>1306</v>
+        <v>1224</v>
       </c>
       <c r="D70" t="n">
-        <v>-440</v>
+        <v>-446</v>
       </c>
       <c r="E70" t="n">
-        <v>-212</v>
+        <v>-296</v>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>['Up']</t>
+          <t>['Right']</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>1188.29</t>
+          <t>0922.99</t>
         </is>
       </c>
       <c r="B71" t="n">
-        <v>1588</v>
+        <v>1582</v>
       </c>
       <c r="C71" t="n">
-        <v>1304</v>
+        <v>1222</v>
       </c>
       <c r="D71" t="n">
-        <v>-440</v>
+        <v>-447</v>
       </c>
       <c r="E71" t="n">
-        <v>-215</v>
+        <v>-297</v>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>['Up']</t>
+          <t>['Right']</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>1189.47</t>
+          <t>0924.33</t>
         </is>
       </c>
       <c r="B72" t="n">
-        <v>1586</v>
+        <v>1580</v>
       </c>
       <c r="C72" t="n">
-        <v>1304</v>
+        <v>1224</v>
       </c>
       <c r="D72" t="n">
-        <v>-441</v>
+        <v>-447</v>
       </c>
       <c r="E72" t="n">
-        <v>-216</v>
+        <v>-297</v>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>['Up']</t>
+          <t>['Right']</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>1190.61</t>
+          <t>0925.50</t>
         </is>
       </c>
       <c r="B73" t="n">
-        <v>1586</v>
+        <v>1576</v>
       </c>
       <c r="C73" t="n">
-        <v>1304</v>
+        <v>1224</v>
       </c>
       <c r="D73" t="n">
-        <v>-442</v>
+        <v>-450</v>
       </c>
       <c r="E73" t="n">
-        <v>-216</v>
+        <v>-296</v>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>['Up']</t>
+          <t>['Right']</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>1191.86</t>
+          <t>0926.84</t>
         </is>
       </c>
       <c r="B74" t="n">
-        <v>1588</v>
+        <v>1576</v>
       </c>
       <c r="C74" t="n">
-        <v>1300</v>
+        <v>1224</v>
       </c>
       <c r="D74" t="n">
-        <v>-441</v>
+        <v>-452</v>
       </c>
       <c r="E74" t="n">
-        <v>-218</v>
+        <v>-296</v>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>['Up']</t>
+          <t>['Right']</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>1193.09</t>
+          <t>0927.99</t>
         </is>
       </c>
       <c r="B75" t="n">
-        <v>1588</v>
+        <v>1576</v>
       </c>
       <c r="C75" t="n">
-        <v>1298</v>
+        <v>1222</v>
       </c>
       <c r="D75" t="n">
-        <v>-440</v>
+        <v>-452</v>
       </c>
       <c r="E75" t="n">
-        <v>-221</v>
+        <v>-297</v>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>['Up']</t>
+          <t>['Right']</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>1194.26</t>
+          <t>0929.34</t>
         </is>
       </c>
       <c r="B76" t="n">
-        <v>1588</v>
+        <v>1574</v>
       </c>
       <c r="C76" t="n">
-        <v>1294</v>
+        <v>1226</v>
       </c>
       <c r="D76" t="n">
-        <v>-440</v>
+        <v>-453</v>
       </c>
       <c r="E76" t="n">
-        <v>-224</v>
+        <v>-296</v>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>['Up']</t>
+          <t>['Right']</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>1195.50</t>
+          <t>0930.49</t>
         </is>
       </c>
       <c r="B77" t="n">
-        <v>1588</v>
+        <v>1568</v>
       </c>
       <c r="C77" t="n">
-        <v>1294</v>
+        <v>1224</v>
       </c>
       <c r="D77" t="n">
-        <v>-440</v>
+        <v>-457</v>
       </c>
       <c r="E77" t="n">
-        <v>-226</v>
+        <v>-295</v>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>['Up']</t>
+          <t>['Right']</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>1196.85</t>
+          <t>0931.83</t>
         </is>
       </c>
       <c r="B78" t="n">
-        <v>1590</v>
+        <v>1568</v>
       </c>
       <c r="C78" t="n">
-        <v>1290</v>
+        <v>1224</v>
       </c>
       <c r="D78" t="n">
-        <v>-439</v>
+        <v>-460</v>
       </c>
       <c r="E78" t="n">
-        <v>-228</v>
+        <v>-296</v>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>['Up']</t>
+          <t>['Right']</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>1198.18</t>
+          <t>0933.00</t>
         </is>
       </c>
       <c r="B79" t="n">
-        <v>1588</v>
+        <v>1566</v>
       </c>
       <c r="C79" t="n">
-        <v>1290</v>
+        <v>1222</v>
       </c>
       <c r="D79" t="n">
-        <v>-439</v>
+        <v>-461</v>
       </c>
       <c r="E79" t="n">
-        <v>-230</v>
+        <v>-297</v>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>['Up']</t>
+          <t>['Right']</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>1199.35</t>
+          <t>0934.33</t>
         </is>
       </c>
       <c r="B80" t="n">
-        <v>1590</v>
+        <v>1564</v>
       </c>
       <c r="C80" t="n">
-        <v>1288</v>
+        <v>1222</v>
       </c>
       <c r="D80" t="n">
-        <v>-439</v>
+        <v>-463</v>
       </c>
       <c r="E80" t="n">
-        <v>-231</v>
+        <v>-298</v>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>['Up']</t>
+          <t>['Right']</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>1200.67</t>
+          <t>0935.50</t>
         </is>
       </c>
       <c r="B81" t="n">
-        <v>1588</v>
+        <v>1562</v>
       </c>
       <c r="C81" t="n">
-        <v>1284</v>
+        <v>1224</v>
       </c>
       <c r="D81" t="n">
-        <v>-439</v>
+        <v>-465</v>
       </c>
       <c r="E81" t="n">
-        <v>-234</v>
+        <v>-297</v>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>['Up']</t>
+          <t>['Right']</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>1201.83</t>
+          <t>0936.84</t>
         </is>
       </c>
       <c r="B82" t="n">
-        <v>1590</v>
+        <v>1562</v>
       </c>
       <c r="C82" t="n">
-        <v>1280</v>
+        <v>1222</v>
       </c>
       <c r="D82" t="n">
-        <v>-439</v>
+        <v>-466</v>
       </c>
       <c r="E82" t="n">
-        <v>-238</v>
+        <v>-297</v>
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>['Up']</t>
+          <t>['Right']</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>1203.07</t>
+          <t>0937.99</t>
         </is>
       </c>
       <c r="B83" t="n">
-        <v>1590</v>
+        <v>1560</v>
       </c>
       <c r="C83" t="n">
-        <v>1280</v>
+        <v>1222</v>
       </c>
       <c r="D83" t="n">
-        <v>-438</v>
+        <v>-467</v>
       </c>
       <c r="E83" t="n">
-        <v>-240</v>
+        <v>-298</v>
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>['Up']</t>
+          <t>['Right']</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>1204.25</t>
+          <t>0939.34</t>
         </is>
       </c>
       <c r="B84" t="n">
-        <v>1590</v>
+        <v>1558</v>
       </c>
       <c r="C84" t="n">
-        <v>1278</v>
+        <v>1222</v>
       </c>
       <c r="D84" t="n">
-        <v>-438</v>
+        <v>-469</v>
       </c>
       <c r="E84" t="n">
-        <v>-241</v>
+        <v>-298</v>
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>['Down']</t>
+          <t>['Right']</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>1205.58</t>
+          <t>0940.48</t>
         </is>
       </c>
       <c r="B85" t="n">
-        <v>1590</v>
+        <v>1554</v>
       </c>
       <c r="C85" t="n">
-        <v>1278</v>
+        <v>1224</v>
       </c>
       <c r="D85" t="n">
-        <v>-438</v>
+        <v>-472</v>
       </c>
       <c r="E85" t="n">
-        <v>-242</v>
+        <v>-297</v>
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>['Down']</t>
+          <t>['Right']</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>1206.76</t>
+          <t>0941.85</t>
         </is>
       </c>
       <c r="B86" t="n">
-        <v>1590</v>
+        <v>1554</v>
       </c>
       <c r="C86" t="n">
-        <v>1274</v>
+        <v>1222</v>
       </c>
       <c r="D86" t="n">
-        <v>-438</v>
+        <v>-474</v>
       </c>
       <c r="E86" t="n">
-        <v>-244</v>
+        <v>-297</v>
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>['Down']</t>
+          <t>['Right']</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>1207.99</t>
+          <t>0943.13</t>
         </is>
       </c>
       <c r="B87" t="n">
-        <v>1592</v>
+        <v>1552</v>
       </c>
       <c r="C87" t="n">
-        <v>1276</v>
+        <v>1220</v>
       </c>
       <c r="D87" t="n">
-        <v>-437</v>
+        <v>-475</v>
       </c>
       <c r="E87" t="n">
-        <v>-245</v>
+        <v>-299</v>
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>['Down']</t>
+          <t>['Right']</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>1209.27</t>
+          <t>0944.44</t>
         </is>
       </c>
       <c r="B88" t="n">
-        <v>1588</v>
+        <v>1552</v>
       </c>
       <c r="C88" t="n">
-        <v>1276</v>
+        <v>1222</v>
       </c>
       <c r="D88" t="n">
-        <v>-438</v>
+        <v>-476</v>
       </c>
       <c r="E88" t="n">
-        <v>-244</v>
+        <v>-299</v>
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>['Down']</t>
+          <t>['Right']</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>1210.49</t>
+          <t>0945.58</t>
         </is>
       </c>
       <c r="B89" t="n">
-        <v>1592</v>
+        <v>1550</v>
       </c>
       <c r="C89" t="n">
-        <v>1274</v>
+        <v>1222</v>
       </c>
       <c r="D89" t="n">
-        <v>-438</v>
+        <v>-477</v>
       </c>
       <c r="E89" t="n">
-        <v>-245</v>
+        <v>-298</v>
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>['Down']</t>
+          <t>['Right']</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>1211.73</t>
+          <t>0946.84</t>
         </is>
       </c>
       <c r="B90" t="n">
-        <v>1588</v>
+        <v>1544</v>
       </c>
       <c r="C90" t="n">
-        <v>1274</v>
+        <v>1224</v>
       </c>
       <c r="D90" t="n">
-        <v>-438</v>
+        <v>-481</v>
       </c>
       <c r="E90" t="n">
-        <v>-246</v>
+        <v>-297</v>
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>['Down']</t>
+          <t>['Right']</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>1212.98</t>
+          <t>0947.98</t>
         </is>
       </c>
       <c r="B91" t="n">
-        <v>1592</v>
+        <v>1542</v>
       </c>
       <c r="C91" t="n">
-        <v>1272</v>
+        <v>1224</v>
       </c>
       <c r="D91" t="n">
-        <v>-438</v>
+        <v>-485</v>
       </c>
       <c r="E91" t="n">
-        <v>-247</v>
+        <v>-296</v>
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>['Down']</t>
+          <t>['Right']</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>1214.17</t>
+          <t>0949.33</t>
         </is>
       </c>
       <c r="B92" t="n">
-        <v>1590</v>
+        <v>1544</v>
       </c>
       <c r="C92" t="n">
-        <v>1270</v>
+        <v>1220</v>
       </c>
       <c r="D92" t="n">
-        <v>-437</v>
+        <v>-485</v>
       </c>
       <c r="E92" t="n">
-        <v>-249</v>
+        <v>-298</v>
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>['Down']</t>
+          <t>['Right']</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>1215.38</t>
+          <t>0950.49</t>
         </is>
       </c>
       <c r="B93" t="n">
-        <v>1588</v>
+        <v>1542</v>
       </c>
       <c r="C93" t="n">
-        <v>1272</v>
+        <v>1220</v>
       </c>
       <c r="D93" t="n">
-        <v>-439</v>
+        <v>-485</v>
       </c>
       <c r="E93" t="n">
-        <v>-249</v>
+        <v>-300</v>
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>['Down']</t>
+          <t>['Right']</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>1216.56</t>
+          <t>0951.86</t>
         </is>
       </c>
       <c r="B94" t="n">
-        <v>1590</v>
+        <v>1540</v>
       </c>
       <c r="C94" t="n">
-        <v>1272</v>
+        <v>1222</v>
       </c>
       <c r="D94" t="n">
-        <v>-439</v>
+        <v>-487</v>
       </c>
       <c r="E94" t="n">
-        <v>-248</v>
+        <v>-299</v>
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>['Down']</t>
+          <t>['Right']</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>1217.77</t>
+          <t>0953.14</t>
         </is>
       </c>
       <c r="B95" t="n">
-        <v>1590</v>
+        <v>1536</v>
       </c>
       <c r="C95" t="n">
-        <v>1270</v>
+        <v>1224</v>
       </c>
       <c r="D95" t="n">
-        <v>-438</v>
+        <v>-490</v>
       </c>
       <c r="E95" t="n">
-        <v>-249</v>
+        <v>-297</v>
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>['Down']</t>
+          <t>['Right']</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>1218.95</t>
+          <t>0954.45</t>
         </is>
       </c>
       <c r="B96" t="n">
-        <v>1592</v>
+        <v>1534</v>
       </c>
       <c r="C96" t="n">
-        <v>1268</v>
+        <v>1224</v>
       </c>
       <c r="D96" t="n">
-        <v>-437</v>
+        <v>-493</v>
       </c>
       <c r="E96" t="n">
-        <v>-251</v>
+        <v>-296</v>
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>['Down']</t>
+          <t>['Right']</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>1220.18</t>
+          <t>0955.60</t>
         </is>
       </c>
       <c r="B97" t="n">
-        <v>1592</v>
+        <v>1532</v>
       </c>
       <c r="C97" t="n">
-        <v>1264</v>
+        <v>1224</v>
       </c>
       <c r="D97" t="n">
-        <v>-436</v>
+        <v>-495</v>
       </c>
       <c r="E97" t="n">
-        <v>-254</v>
+        <v>-296</v>
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>['Down']</t>
+          <t>['Right']</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>1221.37</t>
+          <t>0956.94</t>
         </is>
       </c>
       <c r="B98" t="n">
-        <v>1590</v>
+        <v>1530</v>
       </c>
       <c r="C98" t="n">
-        <v>1268</v>
+        <v>1224</v>
       </c>
       <c r="D98" t="n">
-        <v>-437</v>
+        <v>-497</v>
       </c>
       <c r="E98" t="n">
-        <v>-254</v>
+        <v>-296</v>
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>['Down']</t>
+          <t>['Right']</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>1222.59</t>
+          <t>0958.11</t>
         </is>
       </c>
       <c r="B99" t="n">
-        <v>1592</v>
+        <v>1528</v>
       </c>
       <c r="C99" t="n">
-        <v>1268</v>
+        <v>1224</v>
       </c>
       <c r="D99" t="n">
-        <v>-437</v>
+        <v>-499</v>
       </c>
       <c r="E99" t="n">
-        <v>-252</v>
+        <v>-296</v>
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>['Down']</t>
+          <t>['Right']</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>1223.86</t>
+          <t>0959.44</t>
         </is>
       </c>
       <c r="B100" t="n">
-        <v>1590</v>
+        <v>1528</v>
       </c>
       <c r="C100" t="n">
-        <v>1268</v>
+        <v>1222</v>
       </c>
       <c r="D100" t="n">
-        <v>-437</v>
+        <v>-500</v>
       </c>
       <c r="E100" t="n">
-        <v>-252</v>
+        <v>-297</v>
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>['Down']</t>
+          <t>['Right']</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>1225.19</t>
+          <t>0960.59</t>
         </is>
       </c>
       <c r="B101" t="n">
-        <v>1590</v>
+        <v>1526</v>
       </c>
       <c r="C101" t="n">
-        <v>1266</v>
+        <v>1220</v>
       </c>
       <c r="D101" t="n">
-        <v>-438</v>
+        <v>-501</v>
       </c>
       <c r="E101" t="n">
-        <v>-253</v>
+        <v>-299</v>
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>['Down']</t>
+          <t>['Right']</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>1226.45</t>
+          <t>0961.93</t>
         </is>
       </c>
       <c r="B102" t="n">
+        <v>1526</v>
+      </c>
+      <c r="C102" t="n">
+        <v>1222</v>
+      </c>
+      <c r="D102" t="n">
+        <v>-502</v>
+      </c>
+      <c r="E102" t="n">
+        <v>-299</v>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>['Right']</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>0963.29</t>
+        </is>
+      </c>
+      <c r="B103" t="n">
+        <v>1522</v>
+      </c>
+      <c r="C103" t="n">
+        <v>1224</v>
+      </c>
+      <c r="D103" t="n">
+        <v>-504</v>
+      </c>
+      <c r="E103" t="n">
+        <v>-297</v>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>['Right']</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>0964.63</t>
+        </is>
+      </c>
+      <c r="B104" t="n">
+        <v>1518</v>
+      </c>
+      <c r="C104" t="n">
+        <v>1224</v>
+      </c>
+      <c r="D104" t="n">
+        <v>-508</v>
+      </c>
+      <c r="E104" t="n">
+        <v>-296</v>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>['Left']</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>0966.01</t>
+        </is>
+      </c>
+      <c r="B105" t="n">
+        <v>1520</v>
+      </c>
+      <c r="C105" t="n">
+        <v>1224</v>
+      </c>
+      <c r="D105" t="n">
+        <v>-509</v>
+      </c>
+      <c r="E105" t="n">
+        <v>-296</v>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>['Left']</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>0967.24</t>
+        </is>
+      </c>
+      <c r="B106" t="n">
+        <v>1520</v>
+      </c>
+      <c r="C106" t="n">
+        <v>1222</v>
+      </c>
+      <c r="D106" t="n">
+        <v>-508</v>
+      </c>
+      <c r="E106" t="n">
+        <v>-297</v>
+      </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>['Left']</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>0968.39</t>
+        </is>
+      </c>
+      <c r="B107" t="n">
+        <v>1518</v>
+      </c>
+      <c r="C107" t="n">
+        <v>1224</v>
+      </c>
+      <c r="D107" t="n">
+        <v>-509</v>
+      </c>
+      <c r="E107" t="n">
+        <v>-297</v>
+      </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>['Left']</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>0969.74</t>
+        </is>
+      </c>
+      <c r="B108" t="n">
+        <v>1520</v>
+      </c>
+      <c r="C108" t="n">
+        <v>1224</v>
+      </c>
+      <c r="D108" t="n">
+        <v>-509</v>
+      </c>
+      <c r="E108" t="n">
+        <v>-296</v>
+      </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>['Left']</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>0970.89</t>
+        </is>
+      </c>
+      <c r="B109" t="n">
+        <v>1522</v>
+      </c>
+      <c r="C109" t="n">
+        <v>1224</v>
+      </c>
+      <c r="D109" t="n">
+        <v>-507</v>
+      </c>
+      <c r="E109" t="n">
+        <v>-296</v>
+      </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>['Left']</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>0972.23</t>
+        </is>
+      </c>
+      <c r="B110" t="n">
+        <v>1522</v>
+      </c>
+      <c r="C110" t="n">
+        <v>1224</v>
+      </c>
+      <c r="D110" t="n">
+        <v>-506</v>
+      </c>
+      <c r="E110" t="n">
+        <v>-296</v>
+      </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>['Left']</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>0973.38</t>
+        </is>
+      </c>
+      <c r="B111" t="n">
+        <v>1526</v>
+      </c>
+      <c r="C111" t="n">
+        <v>1222</v>
+      </c>
+      <c r="D111" t="n">
+        <v>-504</v>
+      </c>
+      <c r="E111" t="n">
+        <v>-297</v>
+      </c>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>['Left']</t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>0974.73</t>
+        </is>
+      </c>
+      <c r="B112" t="n">
+        <v>1524</v>
+      </c>
+      <c r="C112" t="n">
+        <v>1222</v>
+      </c>
+      <c r="D112" t="n">
+        <v>-503</v>
+      </c>
+      <c r="E112" t="n">
+        <v>-298</v>
+      </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>['Left']</t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>0975.88</t>
+        </is>
+      </c>
+      <c r="B113" t="n">
+        <v>1526</v>
+      </c>
+      <c r="C113" t="n">
+        <v>1220</v>
+      </c>
+      <c r="D113" t="n">
+        <v>-503</v>
+      </c>
+      <c r="E113" t="n">
+        <v>-299</v>
+      </c>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>['Left']</t>
+        </is>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>0977.24</t>
+        </is>
+      </c>
+      <c r="B114" t="n">
+        <v>1528</v>
+      </c>
+      <c r="C114" t="n">
+        <v>1220</v>
+      </c>
+      <c r="D114" t="n">
+        <v>-501</v>
+      </c>
+      <c r="E114" t="n">
+        <v>-300</v>
+      </c>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>['Left']</t>
+        </is>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>0978.40</t>
+        </is>
+      </c>
+      <c r="B115" t="n">
+        <v>1530</v>
+      </c>
+      <c r="C115" t="n">
+        <v>1220</v>
+      </c>
+      <c r="D115" t="n">
+        <v>-499</v>
+      </c>
+      <c r="E115" t="n">
+        <v>-300</v>
+      </c>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t>['Left']</t>
+        </is>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>0979.74</t>
+        </is>
+      </c>
+      <c r="B116" t="n">
+        <v>1532</v>
+      </c>
+      <c r="C116" t="n">
+        <v>1224</v>
+      </c>
+      <c r="D116" t="n">
+        <v>-497</v>
+      </c>
+      <c r="E116" t="n">
+        <v>-298</v>
+      </c>
+      <c r="F116" t="inlineStr">
+        <is>
+          <t>['Left']</t>
+        </is>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>0980.89</t>
+        </is>
+      </c>
+      <c r="B117" t="n">
+        <v>1532</v>
+      </c>
+      <c r="C117" t="n">
+        <v>1222</v>
+      </c>
+      <c r="D117" t="n">
+        <v>-496</v>
+      </c>
+      <c r="E117" t="n">
+        <v>-297</v>
+      </c>
+      <c r="F117" t="inlineStr">
+        <is>
+          <t>['Left']</t>
+        </is>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>0982.23</t>
+        </is>
+      </c>
+      <c r="B118" t="n">
+        <v>1536</v>
+      </c>
+      <c r="C118" t="n">
+        <v>1222</v>
+      </c>
+      <c r="D118" t="n">
+        <v>-494</v>
+      </c>
+      <c r="E118" t="n">
+        <v>-298</v>
+      </c>
+      <c r="F118" t="inlineStr">
+        <is>
+          <t>['Left']</t>
+        </is>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>0983.58</t>
+        </is>
+      </c>
+      <c r="B119" t="n">
+        <v>1536</v>
+      </c>
+      <c r="C119" t="n">
+        <v>1222</v>
+      </c>
+      <c r="D119" t="n">
+        <v>-492</v>
+      </c>
+      <c r="E119" t="n">
+        <v>-298</v>
+      </c>
+      <c r="F119" t="inlineStr">
+        <is>
+          <t>['Left']</t>
+        </is>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>0984.94</t>
+        </is>
+      </c>
+      <c r="B120" t="n">
+        <v>1538</v>
+      </c>
+      <c r="C120" t="n">
+        <v>1222</v>
+      </c>
+      <c r="D120" t="n">
+        <v>-491</v>
+      </c>
+      <c r="E120" t="n">
+        <v>-298</v>
+      </c>
+      <c r="F120" t="inlineStr">
+        <is>
+          <t>['Left']</t>
+        </is>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>0986.08</t>
+        </is>
+      </c>
+      <c r="B121" t="n">
+        <v>1538</v>
+      </c>
+      <c r="C121" t="n">
+        <v>1224</v>
+      </c>
+      <c r="D121" t="n">
+        <v>-490</v>
+      </c>
+      <c r="E121" t="n">
+        <v>-297</v>
+      </c>
+      <c r="F121" t="inlineStr">
+        <is>
+          <t>['Left']</t>
+        </is>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>0987.44</t>
+        </is>
+      </c>
+      <c r="B122" t="n">
+        <v>1542</v>
+      </c>
+      <c r="C122" t="n">
+        <v>1222</v>
+      </c>
+      <c r="D122" t="n">
+        <v>-488</v>
+      </c>
+      <c r="E122" t="n">
+        <v>-297</v>
+      </c>
+      <c r="F122" t="inlineStr">
+        <is>
+          <t>['Left']</t>
+        </is>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>0988.59</t>
+        </is>
+      </c>
+      <c r="B123" t="n">
+        <v>1542</v>
+      </c>
+      <c r="C123" t="n">
+        <v>1224</v>
+      </c>
+      <c r="D123" t="n">
+        <v>-486</v>
+      </c>
+      <c r="E123" t="n">
+        <v>-297</v>
+      </c>
+      <c r="F123" t="inlineStr">
+        <is>
+          <t>['Left']</t>
+        </is>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>0989.95</t>
+        </is>
+      </c>
+      <c r="B124" t="n">
+        <v>1546</v>
+      </c>
+      <c r="C124" t="n">
+        <v>1222</v>
+      </c>
+      <c r="D124" t="n">
+        <v>-484</v>
+      </c>
+      <c r="E124" t="n">
+        <v>-297</v>
+      </c>
+      <c r="F124" t="inlineStr">
+        <is>
+          <t>['Left']</t>
+        </is>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>0991.09</t>
+        </is>
+      </c>
+      <c r="B125" t="n">
+        <v>1546</v>
+      </c>
+      <c r="C125" t="n">
+        <v>1222</v>
+      </c>
+      <c r="D125" t="n">
+        <v>-482</v>
+      </c>
+      <c r="E125" t="n">
+        <v>-298</v>
+      </c>
+      <c r="F125" t="inlineStr">
+        <is>
+          <t>['Left']</t>
+        </is>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>0992.46</t>
+        </is>
+      </c>
+      <c r="B126" t="n">
+        <v>1546</v>
+      </c>
+      <c r="C126" t="n">
+        <v>1222</v>
+      </c>
+      <c r="D126" t="n">
+        <v>-482</v>
+      </c>
+      <c r="E126" t="n">
+        <v>-298</v>
+      </c>
+      <c r="F126" t="inlineStr">
+        <is>
+          <t>['Left']</t>
+        </is>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>0993.72</t>
+        </is>
+      </c>
+      <c r="B127" t="n">
+        <v>1548</v>
+      </c>
+      <c r="C127" t="n">
+        <v>1222</v>
+      </c>
+      <c r="D127" t="n">
+        <v>-481</v>
+      </c>
+      <c r="E127" t="n">
+        <v>-298</v>
+      </c>
+      <c r="F127" t="inlineStr">
+        <is>
+          <t>['Left']</t>
+        </is>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>0995.14</t>
+        </is>
+      </c>
+      <c r="B128" t="n">
+        <v>1550</v>
+      </c>
+      <c r="C128" t="n">
+        <v>1224</v>
+      </c>
+      <c r="D128" t="n">
+        <v>-479</v>
+      </c>
+      <c r="E128" t="n">
+        <v>-297</v>
+      </c>
+      <c r="F128" t="inlineStr">
+        <is>
+          <t>['Left']</t>
+        </is>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="inlineStr">
+        <is>
+          <t>0996.28</t>
+        </is>
+      </c>
+      <c r="B129" t="n">
+        <v>1554</v>
+      </c>
+      <c r="C129" t="n">
+        <v>1220</v>
+      </c>
+      <c r="D129" t="n">
+        <v>-476</v>
+      </c>
+      <c r="E129" t="n">
+        <v>-298</v>
+      </c>
+      <c r="F129" t="inlineStr">
+        <is>
+          <t>['Left']</t>
+        </is>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>0997.64</t>
+        </is>
+      </c>
+      <c r="B130" t="n">
+        <v>1556</v>
+      </c>
+      <c r="C130" t="n">
+        <v>1220</v>
+      </c>
+      <c r="D130" t="n">
+        <v>-473</v>
+      </c>
+      <c r="E130" t="n">
+        <v>-300</v>
+      </c>
+      <c r="F130" t="inlineStr">
+        <is>
+          <t>['Left']</t>
+        </is>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="inlineStr">
+        <is>
+          <t>0998.81</t>
+        </is>
+      </c>
+      <c r="B131" t="n">
+        <v>1556</v>
+      </c>
+      <c r="C131" t="n">
+        <v>1222</v>
+      </c>
+      <c r="D131" t="n">
+        <v>-472</v>
+      </c>
+      <c r="E131" t="n">
+        <v>-299</v>
+      </c>
+      <c r="F131" t="inlineStr">
+        <is>
+          <t>['Left']</t>
+        </is>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="inlineStr">
+        <is>
+          <t>1000.03</t>
+        </is>
+      </c>
+      <c r="B132" t="n">
+        <v>1558</v>
+      </c>
+      <c r="C132" t="n">
+        <v>1222</v>
+      </c>
+      <c r="D132" t="n">
+        <v>-471</v>
+      </c>
+      <c r="E132" t="n">
+        <v>-298</v>
+      </c>
+      <c r="F132" t="inlineStr">
+        <is>
+          <t>['Left']</t>
+        </is>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="inlineStr">
+        <is>
+          <t>1001.18</t>
+        </is>
+      </c>
+      <c r="B133" t="n">
+        <v>1560</v>
+      </c>
+      <c r="C133" t="n">
+        <v>1222</v>
+      </c>
+      <c r="D133" t="n">
+        <v>-469</v>
+      </c>
+      <c r="E133" t="n">
+        <v>-298</v>
+      </c>
+      <c r="F133" t="inlineStr">
+        <is>
+          <t>['Left']</t>
+        </is>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="inlineStr">
+        <is>
+          <t>1002.53</t>
+        </is>
+      </c>
+      <c r="B134" t="n">
+        <v>1560</v>
+      </c>
+      <c r="C134" t="n">
+        <v>1222</v>
+      </c>
+      <c r="D134" t="n">
+        <v>-468</v>
+      </c>
+      <c r="E134" t="n">
+        <v>-298</v>
+      </c>
+      <c r="F134" t="inlineStr">
+        <is>
+          <t>['Left']</t>
+        </is>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="inlineStr">
+        <is>
+          <t>1003.69</t>
+        </is>
+      </c>
+      <c r="B135" t="n">
+        <v>1566</v>
+      </c>
+      <c r="C135" t="n">
+        <v>1218</v>
+      </c>
+      <c r="D135" t="n">
+        <v>-465</v>
+      </c>
+      <c r="E135" t="n">
+        <v>-300</v>
+      </c>
+      <c r="F135" t="inlineStr">
+        <is>
+          <t>['Left']</t>
+        </is>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="inlineStr">
+        <is>
+          <t>1005.03</t>
+        </is>
+      </c>
+      <c r="B136" t="n">
+        <v>1564</v>
+      </c>
+      <c r="C136" t="n">
+        <v>1224</v>
+      </c>
+      <c r="D136" t="n">
+        <v>-463</v>
+      </c>
+      <c r="E136" t="n">
+        <v>-299</v>
+      </c>
+      <c r="F136" t="inlineStr">
+        <is>
+          <t>['Left']</t>
+        </is>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="inlineStr">
+        <is>
+          <t>1006.18</t>
+        </is>
+      </c>
+      <c r="B137" t="n">
+        <v>1568</v>
+      </c>
+      <c r="C137" t="n">
+        <v>1222</v>
+      </c>
+      <c r="D137" t="n">
+        <v>-462</v>
+      </c>
+      <c r="E137" t="n">
+        <v>-297</v>
+      </c>
+      <c r="F137" t="inlineStr">
+        <is>
+          <t>['Left']</t>
+        </is>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="inlineStr">
+        <is>
+          <t>1007.54</t>
+        </is>
+      </c>
+      <c r="B138" t="n">
+        <v>1568</v>
+      </c>
+      <c r="C138" t="n">
+        <v>1224</v>
+      </c>
+      <c r="D138" t="n">
+        <v>-460</v>
+      </c>
+      <c r="E138" t="n">
+        <v>-297</v>
+      </c>
+      <c r="F138" t="inlineStr">
+        <is>
+          <t>['Left']</t>
+        </is>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="inlineStr">
+        <is>
+          <t>1008.69</t>
+        </is>
+      </c>
+      <c r="B139" t="n">
+        <v>1572</v>
+      </c>
+      <c r="C139" t="n">
+        <v>1222</v>
+      </c>
+      <c r="D139" t="n">
+        <v>-458</v>
+      </c>
+      <c r="E139" t="n">
+        <v>-297</v>
+      </c>
+      <c r="F139" t="inlineStr">
+        <is>
+          <t>['Left']</t>
+        </is>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="inlineStr">
+        <is>
+          <t>1010.04</t>
+        </is>
+      </c>
+      <c r="B140" t="n">
+        <v>1574</v>
+      </c>
+      <c r="C140" t="n">
+        <v>1222</v>
+      </c>
+      <c r="D140" t="n">
+        <v>-455</v>
+      </c>
+      <c r="E140" t="n">
+        <v>-298</v>
+      </c>
+      <c r="F140" t="inlineStr">
+        <is>
+          <t>['Left']</t>
+        </is>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="inlineStr">
+        <is>
+          <t>1011.19</t>
+        </is>
+      </c>
+      <c r="B141" t="n">
+        <v>1574</v>
+      </c>
+      <c r="C141" t="n">
+        <v>1222</v>
+      </c>
+      <c r="D141" t="n">
+        <v>-454</v>
+      </c>
+      <c r="E141" t="n">
+        <v>-298</v>
+      </c>
+      <c r="F141" t="inlineStr">
+        <is>
+          <t>['Left']</t>
+        </is>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="inlineStr">
+        <is>
+          <t>1012.54</t>
+        </is>
+      </c>
+      <c r="B142" t="n">
+        <v>1576</v>
+      </c>
+      <c r="C142" t="n">
+        <v>1224</v>
+      </c>
+      <c r="D142" t="n">
+        <v>-453</v>
+      </c>
+      <c r="E142" t="n">
+        <v>-297</v>
+      </c>
+      <c r="F142" t="inlineStr">
+        <is>
+          <t>['Left']</t>
+        </is>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="inlineStr">
+        <is>
+          <t>1013.69</t>
+        </is>
+      </c>
+      <c r="B143" t="n">
+        <v>1576</v>
+      </c>
+      <c r="C143" t="n">
+        <v>1224</v>
+      </c>
+      <c r="D143" t="n">
+        <v>-452</v>
+      </c>
+      <c r="E143" t="n">
+        <v>-296</v>
+      </c>
+      <c r="F143" t="inlineStr">
+        <is>
+          <t>['Left']</t>
+        </is>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="inlineStr">
+        <is>
+          <t>1015.05</t>
+        </is>
+      </c>
+      <c r="B144" t="n">
+        <v>1580</v>
+      </c>
+      <c r="C144" t="n">
+        <v>1224</v>
+      </c>
+      <c r="D144" t="n">
+        <v>-450</v>
+      </c>
+      <c r="E144" t="n">
+        <v>-296</v>
+      </c>
+      <c r="F144" t="inlineStr">
+        <is>
+          <t>['Left']</t>
+        </is>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="inlineStr">
+        <is>
+          <t>1016.31</t>
+        </is>
+      </c>
+      <c r="B145" t="n">
+        <v>1582</v>
+      </c>
+      <c r="C145" t="n">
+        <v>1222</v>
+      </c>
+      <c r="D145" t="n">
+        <v>-447</v>
+      </c>
+      <c r="E145" t="n">
+        <v>-297</v>
+      </c>
+      <c r="F145" t="inlineStr">
+        <is>
+          <t>['Left']</t>
+        </is>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="inlineStr">
+        <is>
+          <t>1017.63</t>
+        </is>
+      </c>
+      <c r="B146" t="n">
+        <v>1586</v>
+      </c>
+      <c r="C146" t="n">
+        <v>1220</v>
+      </c>
+      <c r="D146" t="n">
+        <v>-444</v>
+      </c>
+      <c r="E146" t="n">
+        <v>-299</v>
+      </c>
+      <c r="F146" t="inlineStr">
+        <is>
+          <t>['Left']</t>
+        </is>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="inlineStr">
+        <is>
+          <t>1018.99</t>
+        </is>
+      </c>
+      <c r="B147" t="n">
+        <v>1586</v>
+      </c>
+      <c r="C147" t="n">
+        <v>1224</v>
+      </c>
+      <c r="D147" t="n">
+        <v>-442</v>
+      </c>
+      <c r="E147" t="n">
+        <v>-298</v>
+      </c>
+      <c r="F147" t="inlineStr">
+        <is>
+          <t>['Left']</t>
+        </is>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="inlineStr">
+        <is>
+          <t>1020.34</t>
+        </is>
+      </c>
+      <c r="B148" t="n">
         <v>1590</v>
       </c>
-      <c r="C102" t="n">
-        <v>1266</v>
-      </c>
-      <c r="D102" t="n">
+      <c r="C148" t="n">
+        <v>1222</v>
+      </c>
+      <c r="D148" t="n">
+        <v>-440</v>
+      </c>
+      <c r="E148" t="n">
+        <v>-297</v>
+      </c>
+      <c r="F148" t="inlineStr">
+        <is>
+          <t>['Left']</t>
+        </is>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="inlineStr">
+        <is>
+          <t>1021.48</t>
+        </is>
+      </c>
+      <c r="B149" t="n">
+        <v>1592</v>
+      </c>
+      <c r="C149" t="n">
+        <v>1220</v>
+      </c>
+      <c r="D149" t="n">
+        <v>-437</v>
+      </c>
+      <c r="E149" t="n">
+        <v>-299</v>
+      </c>
+      <c r="F149" t="inlineStr">
+        <is>
+          <t>['Left']</t>
+        </is>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="inlineStr">
+        <is>
+          <t>1022.84</t>
+        </is>
+      </c>
+      <c r="B150" t="n">
+        <v>1592</v>
+      </c>
+      <c r="C150" t="n">
+        <v>1224</v>
+      </c>
+      <c r="D150" t="n">
+        <v>-436</v>
+      </c>
+      <c r="E150" t="n">
+        <v>-298</v>
+      </c>
+      <c r="F150" t="inlineStr">
+        <is>
+          <t>['Left']</t>
+        </is>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="inlineStr">
+        <is>
+          <t>1023.98</t>
+        </is>
+      </c>
+      <c r="B151" t="n">
+        <v>1596</v>
+      </c>
+      <c r="C151" t="n">
+        <v>1222</v>
+      </c>
+      <c r="D151" t="n">
+        <v>-434</v>
+      </c>
+      <c r="E151" t="n">
+        <v>-297</v>
+      </c>
+      <c r="F151" t="inlineStr">
+        <is>
+          <t>['Left']</t>
+        </is>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="inlineStr">
+        <is>
+          <t>1025.33</t>
+        </is>
+      </c>
+      <c r="B152" t="n">
+        <v>1598</v>
+      </c>
+      <c r="C152" t="n">
+        <v>1218</v>
+      </c>
+      <c r="D152" t="n">
+        <v>-431</v>
+      </c>
+      <c r="E152" t="n">
+        <v>-300</v>
+      </c>
+      <c r="F152" t="inlineStr">
+        <is>
+          <t>['Left']</t>
+        </is>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="inlineStr">
+        <is>
+          <t>1026.48</t>
+        </is>
+      </c>
+      <c r="B153" t="n">
+        <v>1600</v>
+      </c>
+      <c r="C153" t="n">
+        <v>1220</v>
+      </c>
+      <c r="D153" t="n">
+        <v>-429</v>
+      </c>
+      <c r="E153" t="n">
+        <v>-301</v>
+      </c>
+      <c r="F153" t="inlineStr">
+        <is>
+          <t>['Left']</t>
+        </is>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="inlineStr">
+        <is>
+          <t>1027.83</t>
+        </is>
+      </c>
+      <c r="B154" t="n">
+        <v>1600</v>
+      </c>
+      <c r="C154" t="n">
+        <v>1222</v>
+      </c>
+      <c r="D154" t="n">
+        <v>-428</v>
+      </c>
+      <c r="E154" t="n">
+        <v>-299</v>
+      </c>
+      <c r="F154" t="inlineStr">
+        <is>
+          <t>['Up']</t>
+        </is>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="inlineStr">
+        <is>
+          <t>1029.18</t>
+        </is>
+      </c>
+      <c r="B155" t="n">
+        <v>1600</v>
+      </c>
+      <c r="C155" t="n">
+        <v>1222</v>
+      </c>
+      <c r="D155" t="n">
+        <v>-428</v>
+      </c>
+      <c r="E155" t="n">
+        <v>-298</v>
+      </c>
+      <c r="F155" t="inlineStr">
+        <is>
+          <t>['Up']</t>
+        </is>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="inlineStr">
+        <is>
+          <t>1030.54</t>
+        </is>
+      </c>
+      <c r="B156" t="n">
+        <v>1598</v>
+      </c>
+      <c r="C156" t="n">
+        <v>1220</v>
+      </c>
+      <c r="D156" t="n">
+        <v>-429</v>
+      </c>
+      <c r="E156" t="n">
+        <v>-299</v>
+      </c>
+      <c r="F156" t="inlineStr">
+        <is>
+          <t>['Up']</t>
+        </is>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="inlineStr">
+        <is>
+          <t>1031.68</t>
+        </is>
+      </c>
+      <c r="B157" t="n">
+        <v>1600</v>
+      </c>
+      <c r="C157" t="n">
+        <v>1218</v>
+      </c>
+      <c r="D157" t="n">
+        <v>-429</v>
+      </c>
+      <c r="E157" t="n">
+        <v>-301</v>
+      </c>
+      <c r="F157" t="inlineStr">
+        <is>
+          <t>['Up']</t>
+        </is>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="inlineStr">
+        <is>
+          <t>1033.03</t>
+        </is>
+      </c>
+      <c r="B158" t="n">
+        <v>1602</v>
+      </c>
+      <c r="C158" t="n">
+        <v>1214</v>
+      </c>
+      <c r="D158" t="n">
+        <v>-427</v>
+      </c>
+      <c r="E158" t="n">
+        <v>-304</v>
+      </c>
+      <c r="F158" t="inlineStr">
+        <is>
+          <t>['Up']</t>
+        </is>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="inlineStr">
+        <is>
+          <t>1034.29</t>
+        </is>
+      </c>
+      <c r="B159" t="n">
+        <v>1602</v>
+      </c>
+      <c r="C159" t="n">
+        <v>1212</v>
+      </c>
+      <c r="D159" t="n">
+        <v>-426</v>
+      </c>
+      <c r="E159" t="n">
+        <v>-307</v>
+      </c>
+      <c r="F159" t="inlineStr">
+        <is>
+          <t>['Up']</t>
+        </is>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="inlineStr">
+        <is>
+          <t>1035.64</t>
+        </is>
+      </c>
+      <c r="B160" t="n">
+        <v>1602</v>
+      </c>
+      <c r="C160" t="n">
+        <v>1208</v>
+      </c>
+      <c r="D160" t="n">
+        <v>-426</v>
+      </c>
+      <c r="E160" t="n">
+        <v>-310</v>
+      </c>
+      <c r="F160" t="inlineStr">
+        <is>
+          <t>['Up']</t>
+        </is>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="inlineStr">
+        <is>
+          <t>1037.01</t>
+        </is>
+      </c>
+      <c r="B161" t="n">
+        <v>1600</v>
+      </c>
+      <c r="C161" t="n">
+        <v>1208</v>
+      </c>
+      <c r="D161" t="n">
+        <v>-427</v>
+      </c>
+      <c r="E161" t="n">
+        <v>-312</v>
+      </c>
+      <c r="F161" t="inlineStr">
+        <is>
+          <t>['Up']</t>
+        </is>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="inlineStr">
+        <is>
+          <t>1038.26</t>
+        </is>
+      </c>
+      <c r="B162" t="n">
+        <v>1602</v>
+      </c>
+      <c r="C162" t="n">
+        <v>1206</v>
+      </c>
+      <c r="D162" t="n">
+        <v>-427</v>
+      </c>
+      <c r="E162" t="n">
+        <v>-313</v>
+      </c>
+      <c r="F162" t="inlineStr">
+        <is>
+          <t>['Up']</t>
+        </is>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="inlineStr">
+        <is>
+          <t>1039.48</t>
+        </is>
+      </c>
+      <c r="B163" t="n">
+        <v>1602</v>
+      </c>
+      <c r="C163" t="n">
+        <v>1202</v>
+      </c>
+      <c r="D163" t="n">
+        <v>-426</v>
+      </c>
+      <c r="E163" t="n">
+        <v>-316</v>
+      </c>
+      <c r="F163" t="inlineStr">
+        <is>
+          <t>['Up']</t>
+        </is>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="inlineStr">
+        <is>
+          <t>1040.84</t>
+        </is>
+      </c>
+      <c r="B164" t="n">
+        <v>1606</v>
+      </c>
+      <c r="C164" t="n">
+        <v>1196</v>
+      </c>
+      <c r="D164" t="n">
+        <v>-424</v>
+      </c>
+      <c r="E164" t="n">
+        <v>-321</v>
+      </c>
+      <c r="F164" t="inlineStr">
+        <is>
+          <t>['Up']</t>
+        </is>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="inlineStr">
+        <is>
+          <t>1041.99</t>
+        </is>
+      </c>
+      <c r="B165" t="n">
+        <v>1602</v>
+      </c>
+      <c r="C165" t="n">
+        <v>1194</v>
+      </c>
+      <c r="D165" t="n">
+        <v>-424</v>
+      </c>
+      <c r="E165" t="n">
+        <v>-325</v>
+      </c>
+      <c r="F165" t="inlineStr">
+        <is>
+          <t>['Up']</t>
+        </is>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="inlineStr">
+        <is>
+          <t>1043.33</t>
+        </is>
+      </c>
+      <c r="B166" t="n">
+        <v>1602</v>
+      </c>
+      <c r="C166" t="n">
+        <v>1196</v>
+      </c>
+      <c r="D166" t="n">
+        <v>-426</v>
+      </c>
+      <c r="E166" t="n">
+        <v>-325</v>
+      </c>
+      <c r="F166" t="inlineStr">
+        <is>
+          <t>['Up']</t>
+        </is>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="inlineStr">
+        <is>
+          <t>1044.51</t>
+        </is>
+      </c>
+      <c r="B167" t="n">
+        <v>1602</v>
+      </c>
+      <c r="C167" t="n">
+        <v>1192</v>
+      </c>
+      <c r="D167" t="n">
+        <v>-426</v>
+      </c>
+      <c r="E167" t="n">
+        <v>-326</v>
+      </c>
+      <c r="F167" t="inlineStr">
+        <is>
+          <t>['Up']</t>
+        </is>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="inlineStr">
+        <is>
+          <t>1045.75</t>
+        </is>
+      </c>
+      <c r="B168" t="n">
+        <v>1604</v>
+      </c>
+      <c r="C168" t="n">
+        <v>1192</v>
+      </c>
+      <c r="D168" t="n">
+        <v>-425</v>
+      </c>
+      <c r="E168" t="n">
+        <v>-328</v>
+      </c>
+      <c r="F168" t="inlineStr">
+        <is>
+          <t>['Up']</t>
+        </is>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="inlineStr">
+        <is>
+          <t>1046.89</t>
+        </is>
+      </c>
+      <c r="B169" t="n">
+        <v>1602</v>
+      </c>
+      <c r="C169" t="n">
+        <v>1190</v>
+      </c>
+      <c r="D169" t="n">
+        <v>-425</v>
+      </c>
+      <c r="E169" t="n">
+        <v>-329</v>
+      </c>
+      <c r="F169" t="inlineStr">
+        <is>
+          <t>['Up']</t>
+        </is>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="inlineStr">
+        <is>
+          <t>1048.26</t>
+        </is>
+      </c>
+      <c r="B170" t="n">
+        <v>1604</v>
+      </c>
+      <c r="C170" t="n">
+        <v>1186</v>
+      </c>
+      <c r="D170" t="n">
+        <v>-425</v>
+      </c>
+      <c r="E170" t="n">
+        <v>-332</v>
+      </c>
+      <c r="F170" t="inlineStr">
+        <is>
+          <t>['Up']</t>
+        </is>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="inlineStr">
+        <is>
+          <t>1049.40</t>
+        </is>
+      </c>
+      <c r="B171" t="n">
+        <v>1602</v>
+      </c>
+      <c r="C171" t="n">
+        <v>1186</v>
+      </c>
+      <c r="D171" t="n">
+        <v>-425</v>
+      </c>
+      <c r="E171" t="n">
+        <v>-334</v>
+      </c>
+      <c r="F171" t="inlineStr">
+        <is>
+          <t>['Up']</t>
+        </is>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="inlineStr">
+        <is>
+          <t>1050.74</t>
+        </is>
+      </c>
+      <c r="B172" t="n">
+        <v>1604</v>
+      </c>
+      <c r="C172" t="n">
+        <v>1182</v>
+      </c>
+      <c r="D172" t="n">
+        <v>-425</v>
+      </c>
+      <c r="E172" t="n">
+        <v>-336</v>
+      </c>
+      <c r="F172" t="inlineStr">
+        <is>
+          <t>['Up']</t>
+        </is>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="inlineStr">
+        <is>
+          <t>1051.89</t>
+        </is>
+      </c>
+      <c r="B173" t="n">
+        <v>1608</v>
+      </c>
+      <c r="C173" t="n">
+        <v>1176</v>
+      </c>
+      <c r="D173" t="n">
+        <v>-422</v>
+      </c>
+      <c r="E173" t="n">
+        <v>-341</v>
+      </c>
+      <c r="F173" t="inlineStr">
+        <is>
+          <t>['Up']</t>
+        </is>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="inlineStr">
+        <is>
+          <t>1053.23</t>
+        </is>
+      </c>
+      <c r="B174" t="n">
+        <v>1602</v>
+      </c>
+      <c r="C174" t="n">
+        <v>1180</v>
+      </c>
+      <c r="D174" t="n">
+        <v>-423</v>
+      </c>
+      <c r="E174" t="n">
+        <v>-342</v>
+      </c>
+      <c r="F174" t="inlineStr">
+        <is>
+          <t>['Up']</t>
+        </is>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="inlineStr">
+        <is>
+          <t>1054.60</t>
+        </is>
+      </c>
+      <c r="B175" t="n">
+        <v>1604</v>
+      </c>
+      <c r="C175" t="n">
+        <v>1176</v>
+      </c>
+      <c r="D175" t="n">
+        <v>-425</v>
+      </c>
+      <c r="E175" t="n">
+        <v>-342</v>
+      </c>
+      <c r="F175" t="inlineStr">
+        <is>
+          <t>['Up']</t>
+        </is>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="inlineStr">
+        <is>
+          <t>1055.84</t>
+        </is>
+      </c>
+      <c r="B176" t="n">
+        <v>1604</v>
+      </c>
+      <c r="C176" t="n">
+        <v>1172</v>
+      </c>
+      <c r="D176" t="n">
+        <v>-424</v>
+      </c>
+      <c r="E176" t="n">
+        <v>-346</v>
+      </c>
+      <c r="F176" t="inlineStr">
+        <is>
+          <t>['Up']</t>
+        </is>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="inlineStr">
+        <is>
+          <t>1056.99</t>
+        </is>
+      </c>
+      <c r="B177" t="n">
+        <v>1604</v>
+      </c>
+      <c r="C177" t="n">
+        <v>1172</v>
+      </c>
+      <c r="D177" t="n">
+        <v>-424</v>
+      </c>
+      <c r="E177" t="n">
+        <v>-348</v>
+      </c>
+      <c r="F177" t="inlineStr">
+        <is>
+          <t>['Up']</t>
+        </is>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="inlineStr">
+        <is>
+          <t>1058.34</t>
+        </is>
+      </c>
+      <c r="B178" t="n">
+        <v>1606</v>
+      </c>
+      <c r="C178" t="n">
+        <v>1166</v>
+      </c>
+      <c r="D178" t="n">
+        <v>-423</v>
+      </c>
+      <c r="E178" t="n">
+        <v>-351</v>
+      </c>
+      <c r="F178" t="inlineStr">
+        <is>
+          <t>['Up']</t>
+        </is>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="inlineStr">
+        <is>
+          <t>1059.49</t>
+        </is>
+      </c>
+      <c r="B179" t="n">
+        <v>1606</v>
+      </c>
+      <c r="C179" t="n">
+        <v>1164</v>
+      </c>
+      <c r="D179" t="n">
+        <v>-422</v>
+      </c>
+      <c r="E179" t="n">
+        <v>-355</v>
+      </c>
+      <c r="F179" t="inlineStr">
+        <is>
+          <t>['Up']</t>
+        </is>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="inlineStr">
+        <is>
+          <t>1060.85</t>
+        </is>
+      </c>
+      <c r="B180" t="n">
+        <v>1606</v>
+      </c>
+      <c r="C180" t="n">
+        <v>1164</v>
+      </c>
+      <c r="D180" t="n">
+        <v>-422</v>
+      </c>
+      <c r="E180" t="n">
+        <v>-356</v>
+      </c>
+      <c r="F180" t="inlineStr">
+        <is>
+          <t>['Up']</t>
+        </is>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="inlineStr">
+        <is>
+          <t>1061.99</t>
+        </is>
+      </c>
+      <c r="B181" t="n">
+        <v>1608</v>
+      </c>
+      <c r="C181" t="n">
+        <v>1160</v>
+      </c>
+      <c r="D181" t="n">
+        <v>-421</v>
+      </c>
+      <c r="E181" t="n">
+        <v>-358</v>
+      </c>
+      <c r="F181" t="inlineStr">
+        <is>
+          <t>['Up']</t>
+        </is>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="inlineStr">
+        <is>
+          <t>1063.33</t>
+        </is>
+      </c>
+      <c r="B182" t="n">
+        <v>1604</v>
+      </c>
+      <c r="C182" t="n">
+        <v>1160</v>
+      </c>
+      <c r="D182" t="n">
+        <v>-422</v>
+      </c>
+      <c r="E182" t="n">
+        <v>-360</v>
+      </c>
+      <c r="F182" t="inlineStr">
+        <is>
+          <t>['Up']</t>
+        </is>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="inlineStr">
+        <is>
+          <t>1064.49</t>
+        </is>
+      </c>
+      <c r="B183" t="n">
+        <v>1608</v>
+      </c>
+      <c r="C183" t="n">
+        <v>1152</v>
+      </c>
+      <c r="D183" t="n">
+        <v>-422</v>
+      </c>
+      <c r="E183" t="n">
+        <v>-364</v>
+      </c>
+      <c r="F183" t="inlineStr">
+        <is>
+          <t>['Up']</t>
+        </is>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="inlineStr">
+        <is>
+          <t>1065.85</t>
+        </is>
+      </c>
+      <c r="B184" t="n">
+        <v>1608</v>
+      </c>
+      <c r="C184" t="n">
+        <v>1154</v>
+      </c>
+      <c r="D184" t="n">
+        <v>-420</v>
+      </c>
+      <c r="E184" t="n">
+        <v>-367</v>
+      </c>
+      <c r="F184" t="inlineStr">
+        <is>
+          <t>['Up']</t>
+        </is>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="inlineStr">
+        <is>
+          <t>1067.02</t>
+        </is>
+      </c>
+      <c r="B185" t="n">
+        <v>1606</v>
+      </c>
+      <c r="C185" t="n">
+        <v>1154</v>
+      </c>
+      <c r="D185" t="n">
+        <v>-421</v>
+      </c>
+      <c r="E185" t="n">
+        <v>-366</v>
+      </c>
+      <c r="F185" t="inlineStr">
+        <is>
+          <t>['Up']</t>
+        </is>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="inlineStr">
+        <is>
+          <t>1068.35</t>
+        </is>
+      </c>
+      <c r="B186" t="n">
+        <v>1606</v>
+      </c>
+      <c r="C186" t="n">
+        <v>1150</v>
+      </c>
+      <c r="D186" t="n">
+        <v>-422</v>
+      </c>
+      <c r="E186" t="n">
+        <v>-368</v>
+      </c>
+      <c r="F186" t="inlineStr">
+        <is>
+          <t>['Up']</t>
+        </is>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="inlineStr">
+        <is>
+          <t>1069.58</t>
+        </is>
+      </c>
+      <c r="B187" t="n">
+        <v>1608</v>
+      </c>
+      <c r="C187" t="n">
+        <v>1148</v>
+      </c>
+      <c r="D187" t="n">
+        <v>-421</v>
+      </c>
+      <c r="E187" t="n">
+        <v>-371</v>
+      </c>
+      <c r="F187" t="inlineStr">
+        <is>
+          <t>['Up']</t>
+        </is>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="inlineStr">
+        <is>
+          <t>1070.78</t>
+        </is>
+      </c>
+      <c r="B188" t="n">
+        <v>1608</v>
+      </c>
+      <c r="C188" t="n">
+        <v>1142</v>
+      </c>
+      <c r="D188" t="n">
+        <v>-420</v>
+      </c>
+      <c r="E188" t="n">
+        <v>-375</v>
+      </c>
+      <c r="F188" t="inlineStr">
+        <is>
+          <t>['Up']</t>
+        </is>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="inlineStr">
+        <is>
+          <t>1072.08</t>
+        </is>
+      </c>
+      <c r="B189" t="n">
+        <v>1606</v>
+      </c>
+      <c r="C189" t="n">
+        <v>1144</v>
+      </c>
+      <c r="D189" t="n">
+        <v>-421</v>
+      </c>
+      <c r="E189" t="n">
+        <v>-377</v>
+      </c>
+      <c r="F189" t="inlineStr">
+        <is>
+          <t>['Up']</t>
+        </is>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="inlineStr">
+        <is>
+          <t>1073.44</t>
+        </is>
+      </c>
+      <c r="B190" t="n">
+        <v>1610</v>
+      </c>
+      <c r="C190" t="n">
+        <v>1140</v>
+      </c>
+      <c r="D190" t="n">
+        <v>-420</v>
+      </c>
+      <c r="E190" t="n">
+        <v>-378</v>
+      </c>
+      <c r="F190" t="inlineStr">
+        <is>
+          <t>['Up']</t>
+        </is>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="inlineStr">
+        <is>
+          <t>1074.58</t>
+        </is>
+      </c>
+      <c r="B191" t="n">
+        <v>1606</v>
+      </c>
+      <c r="C191" t="n">
+        <v>1140</v>
+      </c>
+      <c r="D191" t="n">
+        <v>-420</v>
+      </c>
+      <c r="E191" t="n">
+        <v>-380</v>
+      </c>
+      <c r="F191" t="inlineStr">
+        <is>
+          <t>['Up']</t>
+        </is>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="inlineStr">
+        <is>
+          <t>1075.94</t>
+        </is>
+      </c>
+      <c r="B192" t="n">
+        <v>1610</v>
+      </c>
+      <c r="C192" t="n">
+        <v>1134</v>
+      </c>
+      <c r="D192" t="n">
+        <v>-420</v>
+      </c>
+      <c r="E192" t="n">
+        <v>-383</v>
+      </c>
+      <c r="F192" t="inlineStr">
+        <is>
+          <t>['Up']</t>
+        </is>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="inlineStr">
+        <is>
+          <t>1077.09</t>
+        </is>
+      </c>
+      <c r="B193" t="n">
+        <v>1608</v>
+      </c>
+      <c r="C193" t="n">
+        <v>1136</v>
+      </c>
+      <c r="D193" t="n">
+        <v>-419</v>
+      </c>
+      <c r="E193" t="n">
+        <v>-385</v>
+      </c>
+      <c r="F193" t="inlineStr">
+        <is>
+          <t>['Up']</t>
+        </is>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="inlineStr">
+        <is>
+          <t>1078.45</t>
+        </is>
+      </c>
+      <c r="B194" t="n">
+        <v>1608</v>
+      </c>
+      <c r="C194" t="n">
+        <v>1132</v>
+      </c>
+      <c r="D194" t="n">
+        <v>-420</v>
+      </c>
+      <c r="E194" t="n">
+        <v>-386</v>
+      </c>
+      <c r="F194" t="inlineStr">
+        <is>
+          <t>['Up']</t>
+        </is>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="inlineStr">
+        <is>
+          <t>1079.71</t>
+        </is>
+      </c>
+      <c r="B195" t="n">
+        <v>1610</v>
+      </c>
+      <c r="C195" t="n">
+        <v>1128</v>
+      </c>
+      <c r="D195" t="n">
+        <v>-419</v>
+      </c>
+      <c r="E195" t="n">
+        <v>-390</v>
+      </c>
+      <c r="F195" t="inlineStr">
+        <is>
+          <t>['Up']</t>
+        </is>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="inlineStr">
+        <is>
+          <t>1081.03</t>
+        </is>
+      </c>
+      <c r="B196" t="n">
+        <v>1610</v>
+      </c>
+      <c r="C196" t="n">
+        <v>1126</v>
+      </c>
+      <c r="D196" t="n">
+        <v>-418</v>
+      </c>
+      <c r="E196" t="n">
+        <v>-393</v>
+      </c>
+      <c r="F196" t="inlineStr">
+        <is>
+          <t>['Up']</t>
+        </is>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="inlineStr">
+        <is>
+          <t>1082.19</t>
+        </is>
+      </c>
+      <c r="B197" t="n">
+        <v>1610</v>
+      </c>
+      <c r="C197" t="n">
+        <v>1126</v>
+      </c>
+      <c r="D197" t="n">
+        <v>-418</v>
+      </c>
+      <c r="E197" t="n">
+        <v>-394</v>
+      </c>
+      <c r="F197" t="inlineStr">
+        <is>
+          <t>['Up']</t>
+        </is>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="inlineStr">
+        <is>
+          <t>1083.54</t>
+        </is>
+      </c>
+      <c r="B198" t="n">
+        <v>1610</v>
+      </c>
+      <c r="C198" t="n">
+        <v>1122</v>
+      </c>
+      <c r="D198" t="n">
+        <v>-418</v>
+      </c>
+      <c r="E198" t="n">
+        <v>-396</v>
+      </c>
+      <c r="F198" t="inlineStr">
+        <is>
+          <t>['Up']</t>
+        </is>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="inlineStr">
+        <is>
+          <t>1084.69</t>
+        </is>
+      </c>
+      <c r="B199" t="n">
+        <v>1612</v>
+      </c>
+      <c r="C199" t="n">
+        <v>1120</v>
+      </c>
+      <c r="D199" t="n">
+        <v>-417</v>
+      </c>
+      <c r="E199" t="n">
+        <v>-399</v>
+      </c>
+      <c r="F199" t="inlineStr">
+        <is>
+          <t>['Up']</t>
+        </is>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="inlineStr">
+        <is>
+          <t>1086.05</t>
+        </is>
+      </c>
+      <c r="B200" t="n">
+        <v>1612</v>
+      </c>
+      <c r="C200" t="n">
+        <v>1114</v>
+      </c>
+      <c r="D200" t="n">
+        <v>-416</v>
+      </c>
+      <c r="E200" t="n">
+        <v>-403</v>
+      </c>
+      <c r="F200" t="inlineStr">
+        <is>
+          <t>['Up']</t>
+        </is>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="inlineStr">
+        <is>
+          <t>1087.19</t>
+        </is>
+      </c>
+      <c r="B201" t="n">
+        <v>1608</v>
+      </c>
+      <c r="C201" t="n">
+        <v>1116</v>
+      </c>
+      <c r="D201" t="n">
+        <v>-418</v>
+      </c>
+      <c r="E201" t="n">
+        <v>-405</v>
+      </c>
+      <c r="F201" t="inlineStr">
+        <is>
+          <t>['Up']</t>
+        </is>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" t="inlineStr">
+        <is>
+          <t>1088.55</t>
+        </is>
+      </c>
+      <c r="B202" t="n">
+        <v>1612</v>
+      </c>
+      <c r="C202" t="n">
+        <v>1112</v>
+      </c>
+      <c r="D202" t="n">
+        <v>-418</v>
+      </c>
+      <c r="E202" t="n">
+        <v>-406</v>
+      </c>
+      <c r="F202" t="inlineStr">
+        <is>
+          <t>['Up']</t>
+        </is>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" t="inlineStr">
+        <is>
+          <t>1089.70</t>
+        </is>
+      </c>
+      <c r="B203" t="n">
+        <v>1610</v>
+      </c>
+      <c r="C203" t="n">
+        <v>1112</v>
+      </c>
+      <c r="D203" t="n">
+        <v>-417</v>
+      </c>
+      <c r="E203" t="n">
+        <v>-408</v>
+      </c>
+      <c r="F203" t="inlineStr">
+        <is>
+          <t>['Up']</t>
+        </is>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" t="inlineStr">
+        <is>
+          <t>1091.06</t>
+        </is>
+      </c>
+      <c r="B204" t="n">
+        <v>1612</v>
+      </c>
+      <c r="C204" t="n">
+        <v>1106</v>
+      </c>
+      <c r="D204" t="n">
+        <v>-417</v>
+      </c>
+      <c r="E204" t="n">
+        <v>-411</v>
+      </c>
+      <c r="F204" t="inlineStr">
+        <is>
+          <t>['Down']</t>
+        </is>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" t="inlineStr">
+        <is>
+          <t>1092.28</t>
+        </is>
+      </c>
+      <c r="B205" t="n">
+        <v>1612</v>
+      </c>
+      <c r="C205" t="n">
+        <v>1108</v>
+      </c>
+      <c r="D205" t="n">
+        <v>-416</v>
+      </c>
+      <c r="E205" t="n">
+        <v>-413</v>
+      </c>
+      <c r="F205" t="inlineStr">
+        <is>
+          <t>['Down']</t>
+        </is>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" t="inlineStr">
+        <is>
+          <t>1093.64</t>
+        </is>
+      </c>
+      <c r="B206" t="n">
+        <v>1612</v>
+      </c>
+      <c r="C206" t="n">
+        <v>1104</v>
+      </c>
+      <c r="D206" t="n">
+        <v>-416</v>
+      </c>
+      <c r="E206" t="n">
+        <v>-414</v>
+      </c>
+      <c r="F206" t="inlineStr">
+        <is>
+          <t>['Down']</t>
+        </is>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" t="inlineStr">
+        <is>
+          <t>1094.80</t>
+        </is>
+      </c>
+      <c r="B207" t="n">
+        <v>1612</v>
+      </c>
+      <c r="C207" t="n">
+        <v>1106</v>
+      </c>
+      <c r="D207" t="n">
+        <v>-416</v>
+      </c>
+      <c r="E207" t="n">
+        <v>-415</v>
+      </c>
+      <c r="F207" t="inlineStr">
+        <is>
+          <t>['Down']</t>
+        </is>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" t="inlineStr">
+        <is>
+          <t>1096.14</t>
+        </is>
+      </c>
+      <c r="B208" t="n">
+        <v>1612</v>
+      </c>
+      <c r="C208" t="n">
+        <v>1104</v>
+      </c>
+      <c r="D208" t="n">
+        <v>-416</v>
+      </c>
+      <c r="E208" t="n">
+        <v>-415</v>
+      </c>
+      <c r="F208" t="inlineStr">
+        <is>
+          <t>['Down']</t>
+        </is>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" t="inlineStr">
+        <is>
+          <t>1097.30</t>
+        </is>
+      </c>
+      <c r="B209" t="n">
+        <v>1614</v>
+      </c>
+      <c r="C209" t="n">
+        <v>1104</v>
+      </c>
+      <c r="D209" t="n">
+        <v>-415</v>
+      </c>
+      <c r="E209" t="n">
+        <v>-416</v>
+      </c>
+      <c r="F209" t="inlineStr">
+        <is>
+          <t>['Down']</t>
+        </is>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" t="inlineStr">
+        <is>
+          <t>1098.64</t>
+        </is>
+      </c>
+      <c r="B210" t="n">
+        <v>1612</v>
+      </c>
+      <c r="C210" t="n">
+        <v>1104</v>
+      </c>
+      <c r="D210" t="n">
+        <v>-415</v>
+      </c>
+      <c r="E210" t="n">
+        <v>-416</v>
+      </c>
+      <c r="F210" t="inlineStr">
+        <is>
+          <t>['Down']</t>
+        </is>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" t="inlineStr">
+        <is>
+          <t>1099.91</t>
+        </is>
+      </c>
+      <c r="B211" t="n">
+        <v>1610</v>
+      </c>
+      <c r="C211" t="n">
+        <v>1104</v>
+      </c>
+      <c r="D211" t="n">
+        <v>-417</v>
+      </c>
+      <c r="E211" t="n">
+        <v>-416</v>
+      </c>
+      <c r="F211" t="inlineStr">
+        <is>
+          <t>['Down']</t>
+        </is>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" t="inlineStr">
+        <is>
+          <t>1101.16</t>
+        </is>
+      </c>
+      <c r="B212" t="n">
+        <v>1612</v>
+      </c>
+      <c r="C212" t="n">
+        <v>1104</v>
+      </c>
+      <c r="D212" t="n">
+        <v>-417</v>
+      </c>
+      <c r="E212" t="n">
+        <v>-416</v>
+      </c>
+      <c r="F212" t="inlineStr">
+        <is>
+          <t>['Down']</t>
+        </is>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" t="inlineStr">
+        <is>
+          <t>1102.30</t>
+        </is>
+      </c>
+      <c r="B213" t="n">
+        <v>1610</v>
+      </c>
+      <c r="C213" t="n">
+        <v>1102</v>
+      </c>
+      <c r="D213" t="n">
+        <v>-417</v>
+      </c>
+      <c r="E213" t="n">
+        <v>-417</v>
+      </c>
+      <c r="F213" t="inlineStr">
+        <is>
+          <t>['Down']</t>
+        </is>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" t="inlineStr">
+        <is>
+          <t>1103.64</t>
+        </is>
+      </c>
+      <c r="B214" t="n">
+        <v>1610</v>
+      </c>
+      <c r="C214" t="n">
+        <v>1102</v>
+      </c>
+      <c r="D214" t="n">
+        <v>-418</v>
+      </c>
+      <c r="E214" t="n">
+        <v>-418</v>
+      </c>
+      <c r="F214" t="inlineStr">
+        <is>
+          <t>['Down']</t>
+        </is>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" t="inlineStr">
+        <is>
+          <t>1104.79</t>
+        </is>
+      </c>
+      <c r="B215" t="n">
+        <v>1614</v>
+      </c>
+      <c r="C215" t="n">
+        <v>1098</v>
+      </c>
+      <c r="D215" t="n">
+        <v>-416</v>
+      </c>
+      <c r="E215" t="n">
+        <v>-420</v>
+      </c>
+      <c r="F215" t="inlineStr">
+        <is>
+          <t>['Down']</t>
+        </is>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" t="inlineStr">
+        <is>
+          <t>1106.14</t>
+        </is>
+      </c>
+      <c r="B216" t="n">
+        <v>1612</v>
+      </c>
+      <c r="C216" t="n">
+        <v>1098</v>
+      </c>
+      <c r="D216" t="n">
+        <v>-415</v>
+      </c>
+      <c r="E216" t="n">
+        <v>-422</v>
+      </c>
+      <c r="F216" t="inlineStr">
+        <is>
+          <t>['Down']</t>
+        </is>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" t="inlineStr">
+        <is>
+          <t>1107.30</t>
+        </is>
+      </c>
+      <c r="B217" t="n">
+        <v>1612</v>
+      </c>
+      <c r="C217" t="n">
+        <v>1100</v>
+      </c>
+      <c r="D217" t="n">
+        <v>-416</v>
+      </c>
+      <c r="E217" t="n">
+        <v>-421</v>
+      </c>
+      <c r="F217" t="inlineStr">
+        <is>
+          <t>['Down']</t>
+        </is>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" t="inlineStr">
+        <is>
+          <t>1108.64</t>
+        </is>
+      </c>
+      <c r="B218" t="n">
+        <v>1610</v>
+      </c>
+      <c r="C218" t="n">
+        <v>1098</v>
+      </c>
+      <c r="D218" t="n">
+        <v>-417</v>
+      </c>
+      <c r="E218" t="n">
+        <v>-421</v>
+      </c>
+      <c r="F218" t="inlineStr">
+        <is>
+          <t>['Down']</t>
+        </is>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" t="inlineStr">
+        <is>
+          <t>1109.80</t>
+        </is>
+      </c>
+      <c r="B219" t="n">
+        <v>1614</v>
+      </c>
+      <c r="C219" t="n">
+        <v>1096</v>
+      </c>
+      <c r="D219" t="n">
+        <v>-416</v>
+      </c>
+      <c r="E219" t="n">
+        <v>-423</v>
+      </c>
+      <c r="F219" t="inlineStr">
+        <is>
+          <t>['Down']</t>
+        </is>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" t="inlineStr">
+        <is>
+          <t>1111.13</t>
+        </is>
+      </c>
+      <c r="B220" t="n">
+        <v>1612</v>
+      </c>
+      <c r="C220" t="n">
+        <v>1098</v>
+      </c>
+      <c r="D220" t="n">
+        <v>-415</v>
+      </c>
+      <c r="E220" t="n">
+        <v>-423</v>
+      </c>
+      <c r="F220" t="inlineStr">
+        <is>
+          <t>['Down']</t>
+        </is>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" t="inlineStr">
+        <is>
+          <t>1112.30</t>
+        </is>
+      </c>
+      <c r="B221" t="n">
+        <v>1614</v>
+      </c>
+      <c r="C221" t="n">
+        <v>1096</v>
+      </c>
+      <c r="D221" t="n">
+        <v>-415</v>
+      </c>
+      <c r="E221" t="n">
+        <v>-423</v>
+      </c>
+      <c r="F221" t="inlineStr">
+        <is>
+          <t>['Down']</t>
+        </is>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" t="inlineStr">
+        <is>
+          <t>1113.63</t>
+        </is>
+      </c>
+      <c r="B222" t="n">
+        <v>1612</v>
+      </c>
+      <c r="C222" t="n">
+        <v>1096</v>
+      </c>
+      <c r="D222" t="n">
+        <v>-415</v>
+      </c>
+      <c r="E222" t="n">
+        <v>-424</v>
+      </c>
+      <c r="F222" t="inlineStr">
+        <is>
+          <t>['Down']</t>
+        </is>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" t="inlineStr">
+        <is>
+          <t>1114.80</t>
+        </is>
+      </c>
+      <c r="B223" t="n">
+        <v>1612</v>
+      </c>
+      <c r="C223" t="n">
+        <v>1094</v>
+      </c>
+      <c r="D223" t="n">
+        <v>-416</v>
+      </c>
+      <c r="E223" t="n">
+        <v>-425</v>
+      </c>
+      <c r="F223" t="inlineStr">
+        <is>
+          <t>['Down']</t>
+        </is>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" t="inlineStr">
+        <is>
+          <t>1116.14</t>
+        </is>
+      </c>
+      <c r="B224" t="n">
+        <v>1614</v>
+      </c>
+      <c r="C224" t="n">
+        <v>1094</v>
+      </c>
+      <c r="D224" t="n">
+        <v>-415</v>
+      </c>
+      <c r="E224" t="n">
+        <v>-426</v>
+      </c>
+      <c r="F224" t="inlineStr">
+        <is>
+          <t>['Down']</t>
+        </is>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" t="inlineStr">
+        <is>
+          <t>1117.29</t>
+        </is>
+      </c>
+      <c r="B225" t="n">
+        <v>1612</v>
+      </c>
+      <c r="C225" t="n">
+        <v>1094</v>
+      </c>
+      <c r="D225" t="n">
+        <v>-415</v>
+      </c>
+      <c r="E225" t="n">
+        <v>-426</v>
+      </c>
+      <c r="F225" t="inlineStr">
+        <is>
+          <t>['Down']</t>
+        </is>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" t="inlineStr">
+        <is>
+          <t>1118.65</t>
+        </is>
+      </c>
+      <c r="B226" t="n">
+        <v>1614</v>
+      </c>
+      <c r="C226" t="n">
+        <v>1090</v>
+      </c>
+      <c r="D226" t="n">
+        <v>-415</v>
+      </c>
+      <c r="E226" t="n">
+        <v>-428</v>
+      </c>
+      <c r="F226" t="inlineStr">
+        <is>
+          <t>['Down']</t>
+        </is>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" t="inlineStr">
+        <is>
+          <t>1119.81</t>
+        </is>
+      </c>
+      <c r="B227" t="n">
+        <v>1614</v>
+      </c>
+      <c r="C227" t="n">
+        <v>1092</v>
+      </c>
+      <c r="D227" t="n">
+        <v>-414</v>
+      </c>
+      <c r="E227" t="n">
+        <v>-429</v>
+      </c>
+      <c r="F227" t="inlineStr">
+        <is>
+          <t>['Down']</t>
+        </is>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" t="inlineStr">
+        <is>
+          <t>1121.14</t>
+        </is>
+      </c>
+      <c r="B228" t="n">
+        <v>1612</v>
+      </c>
+      <c r="C228" t="n">
+        <v>1090</v>
+      </c>
+      <c r="D228" t="n">
+        <v>-415</v>
+      </c>
+      <c r="E228" t="n">
+        <v>-429</v>
+      </c>
+      <c r="F228" t="inlineStr">
+        <is>
+          <t>['Down']</t>
+        </is>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" t="inlineStr">
+        <is>
+          <t>1122.29</t>
+        </is>
+      </c>
+      <c r="B229" t="n">
+        <v>1612</v>
+      </c>
+      <c r="C229" t="n">
+        <v>1090</v>
+      </c>
+      <c r="D229" t="n">
+        <v>-416</v>
+      </c>
+      <c r="E229" t="n">
+        <v>-430</v>
+      </c>
+      <c r="F229" t="inlineStr">
+        <is>
+          <t>['Down']</t>
+        </is>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" t="inlineStr">
+        <is>
+          <t>1123.65</t>
+        </is>
+      </c>
+      <c r="B230" t="n">
+        <v>1612</v>
+      </c>
+      <c r="C230" t="n">
+        <v>1090</v>
+      </c>
+      <c r="D230" t="n">
+        <v>-416</v>
+      </c>
+      <c r="E230" t="n">
+        <v>-430</v>
+      </c>
+      <c r="F230" t="inlineStr">
+        <is>
+          <t>['Down']</t>
+        </is>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" t="inlineStr">
+        <is>
+          <t>1124.82</t>
+        </is>
+      </c>
+      <c r="B231" t="n">
+        <v>1614</v>
+      </c>
+      <c r="C231" t="n">
+        <v>1086</v>
+      </c>
+      <c r="D231" t="n">
+        <v>-415</v>
+      </c>
+      <c r="E231" t="n">
+        <v>-432</v>
+      </c>
+      <c r="F231" t="inlineStr">
+        <is>
+          <t>['Down']</t>
+        </is>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" t="inlineStr">
+        <is>
+          <t>1126.14</t>
+        </is>
+      </c>
+      <c r="B232" t="n">
+        <v>1614</v>
+      </c>
+      <c r="C232" t="n">
+        <v>1086</v>
+      </c>
+      <c r="D232" t="n">
+        <v>-414</v>
+      </c>
+      <c r="E232" t="n">
+        <v>-434</v>
+      </c>
+      <c r="F232" t="inlineStr">
+        <is>
+          <t>['Down']</t>
+        </is>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" t="inlineStr">
+        <is>
+          <t>1127.39</t>
+        </is>
+      </c>
+      <c r="B233" t="n">
+        <v>1614</v>
+      </c>
+      <c r="C233" t="n">
+        <v>1082</v>
+      </c>
+      <c r="D233" t="n">
+        <v>-414</v>
+      </c>
+      <c r="E233" t="n">
+        <v>-436</v>
+      </c>
+      <c r="F233" t="inlineStr">
+        <is>
+          <t>['Down']</t>
+        </is>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" t="inlineStr">
+        <is>
+          <t>1128.74</t>
+        </is>
+      </c>
+      <c r="B234" t="n">
+        <v>1612</v>
+      </c>
+      <c r="C234" t="n">
+        <v>1086</v>
+      </c>
+      <c r="D234" t="n">
+        <v>-415</v>
+      </c>
+      <c r="E234" t="n">
+        <v>-436</v>
+      </c>
+      <c r="F234" t="inlineStr">
+        <is>
+          <t>['Down']</t>
+        </is>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" t="inlineStr">
+        <is>
+          <t>1129.90</t>
+        </is>
+      </c>
+      <c r="B235" t="n">
+        <v>1612</v>
+      </c>
+      <c r="C235" t="n">
+        <v>1084</v>
+      </c>
+      <c r="D235" t="n">
+        <v>-416</v>
+      </c>
+      <c r="E235" t="n">
+        <v>-435</v>
+      </c>
+      <c r="F235" t="inlineStr">
+        <is>
+          <t>['Down']</t>
+        </is>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" t="inlineStr">
+        <is>
+          <t>1131.25</t>
+        </is>
+      </c>
+      <c r="B236" t="n">
+        <v>1614</v>
+      </c>
+      <c r="C236" t="n">
+        <v>1082</v>
+      </c>
+      <c r="D236" t="n">
+        <v>-415</v>
+      </c>
+      <c r="E236" t="n">
+        <v>-437</v>
+      </c>
+      <c r="F236" t="inlineStr">
+        <is>
+          <t>['Down']</t>
+        </is>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" t="inlineStr">
+        <is>
+          <t>1132.40</t>
+        </is>
+      </c>
+      <c r="B237" t="n">
+        <v>1614</v>
+      </c>
+      <c r="C237" t="n">
+        <v>1082</v>
+      </c>
+      <c r="D237" t="n">
+        <v>-414</v>
+      </c>
+      <c r="E237" t="n">
         <v>-438</v>
       </c>
-      <c r="E102" t="n">
-        <v>-254</v>
-      </c>
-      <c r="F102" t="inlineStr">
+      <c r="F237" t="inlineStr">
+        <is>
+          <t>['Down']</t>
+        </is>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" t="inlineStr">
+        <is>
+          <t>1133.75</t>
+        </is>
+      </c>
+      <c r="B238" t="n">
+        <v>1612</v>
+      </c>
+      <c r="C238" t="n">
+        <v>1084</v>
+      </c>
+      <c r="D238" t="n">
+        <v>-415</v>
+      </c>
+      <c r="E238" t="n">
+        <v>-437</v>
+      </c>
+      <c r="F238" t="inlineStr">
+        <is>
+          <t>['Down']</t>
+        </is>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" t="inlineStr">
+        <is>
+          <t>1134.90</t>
+        </is>
+      </c>
+      <c r="B239" t="n">
+        <v>1614</v>
+      </c>
+      <c r="C239" t="n">
+        <v>1082</v>
+      </c>
+      <c r="D239" t="n">
+        <v>-415</v>
+      </c>
+      <c r="E239" t="n">
+        <v>-437</v>
+      </c>
+      <c r="F239" t="inlineStr">
+        <is>
+          <t>['Down']</t>
+        </is>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" t="inlineStr">
+        <is>
+          <t>1136.25</t>
+        </is>
+      </c>
+      <c r="B240" t="n">
+        <v>1616</v>
+      </c>
+      <c r="C240" t="n">
+        <v>1078</v>
+      </c>
+      <c r="D240" t="n">
+        <v>-413</v>
+      </c>
+      <c r="E240" t="n">
+        <v>-440</v>
+      </c>
+      <c r="F240" t="inlineStr">
+        <is>
+          <t>['Down']</t>
+        </is>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" t="inlineStr">
+        <is>
+          <t>1137.39</t>
+        </is>
+      </c>
+      <c r="B241" t="n">
+        <v>1616</v>
+      </c>
+      <c r="C241" t="n">
+        <v>1078</v>
+      </c>
+      <c r="D241" t="n">
+        <v>-412</v>
+      </c>
+      <c r="E241" t="n">
+        <v>-442</v>
+      </c>
+      <c r="F241" t="inlineStr">
+        <is>
+          <t>['Down']</t>
+        </is>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" t="inlineStr">
+        <is>
+          <t>1138.75</t>
+        </is>
+      </c>
+      <c r="B242" t="n">
+        <v>1616</v>
+      </c>
+      <c r="C242" t="n">
+        <v>1080</v>
+      </c>
+      <c r="D242" t="n">
+        <v>-412</v>
+      </c>
+      <c r="E242" t="n">
+        <v>-441</v>
+      </c>
+      <c r="F242" t="inlineStr">
+        <is>
+          <t>['Down']</t>
+        </is>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" t="inlineStr">
+        <is>
+          <t>1139.90</t>
+        </is>
+      </c>
+      <c r="B243" t="n">
+        <v>1616</v>
+      </c>
+      <c r="C243" t="n">
+        <v>1076</v>
+      </c>
+      <c r="D243" t="n">
+        <v>-412</v>
+      </c>
+      <c r="E243" t="n">
+        <v>-442</v>
+      </c>
+      <c r="F243" t="inlineStr">
+        <is>
+          <t>['Down']</t>
+        </is>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" t="inlineStr">
+        <is>
+          <t>1141.23</t>
+        </is>
+      </c>
+      <c r="B244" t="n">
+        <v>1614</v>
+      </c>
+      <c r="C244" t="n">
+        <v>1078</v>
+      </c>
+      <c r="D244" t="n">
+        <v>-413</v>
+      </c>
+      <c r="E244" t="n">
+        <v>-443</v>
+      </c>
+      <c r="F244" t="inlineStr">
+        <is>
+          <t>['Down']</t>
+        </is>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" t="inlineStr">
+        <is>
+          <t>1142.59</t>
+        </is>
+      </c>
+      <c r="B245" t="n">
+        <v>1614</v>
+      </c>
+      <c r="C245" t="n">
+        <v>1078</v>
+      </c>
+      <c r="D245" t="n">
+        <v>-414</v>
+      </c>
+      <c r="E245" t="n">
+        <v>-442</v>
+      </c>
+      <c r="F245" t="inlineStr">
+        <is>
+          <t>['Down']</t>
+        </is>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" t="inlineStr">
+        <is>
+          <t>1143.96</t>
+        </is>
+      </c>
+      <c r="B246" t="n">
+        <v>1614</v>
+      </c>
+      <c r="C246" t="n">
+        <v>1076</v>
+      </c>
+      <c r="D246" t="n">
+        <v>-414</v>
+      </c>
+      <c r="E246" t="n">
+        <v>-443</v>
+      </c>
+      <c r="F246" t="inlineStr">
+        <is>
+          <t>['Down']</t>
+        </is>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" t="inlineStr">
+        <is>
+          <t>1145.19</t>
+        </is>
+      </c>
+      <c r="B247" t="n">
+        <v>1614</v>
+      </c>
+      <c r="C247" t="n">
+        <v>1074</v>
+      </c>
+      <c r="D247" t="n">
+        <v>-414</v>
+      </c>
+      <c r="E247" t="n">
+        <v>-445</v>
+      </c>
+      <c r="F247" t="inlineStr">
+        <is>
+          <t>['Down']</t>
+        </is>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" t="inlineStr">
+        <is>
+          <t>1146.54</t>
+        </is>
+      </c>
+      <c r="B248" t="n">
+        <v>1614</v>
+      </c>
+      <c r="C248" t="n">
+        <v>1076</v>
+      </c>
+      <c r="D248" t="n">
+        <v>-414</v>
+      </c>
+      <c r="E248" t="n">
+        <v>-445</v>
+      </c>
+      <c r="F248" t="inlineStr">
+        <is>
+          <t>['Down']</t>
+        </is>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" t="inlineStr">
+        <is>
+          <t>1147.69</t>
+        </is>
+      </c>
+      <c r="B249" t="n">
+        <v>1616</v>
+      </c>
+      <c r="C249" t="n">
+        <v>1072</v>
+      </c>
+      <c r="D249" t="n">
+        <v>-413</v>
+      </c>
+      <c r="E249" t="n">
+        <v>-446</v>
+      </c>
+      <c r="F249" t="inlineStr">
+        <is>
+          <t>['Down']</t>
+        </is>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" t="inlineStr">
+        <is>
+          <t>1149.04</t>
+        </is>
+      </c>
+      <c r="B250" t="n">
+        <v>1614</v>
+      </c>
+      <c r="C250" t="n">
+        <v>1074</v>
+      </c>
+      <c r="D250" t="n">
+        <v>-413</v>
+      </c>
+      <c r="E250" t="n">
+        <v>-447</v>
+      </c>
+      <c r="F250" t="inlineStr">
+        <is>
+          <t>['Down']</t>
+        </is>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" t="inlineStr">
+        <is>
+          <t>1150.19</t>
+        </is>
+      </c>
+      <c r="B251" t="n">
+        <v>1616</v>
+      </c>
+      <c r="C251" t="n">
+        <v>1072</v>
+      </c>
+      <c r="D251" t="n">
+        <v>-413</v>
+      </c>
+      <c r="E251" t="n">
+        <v>-447</v>
+      </c>
+      <c r="F251" t="inlineStr">
+        <is>
+          <t>['Down']</t>
+        </is>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" t="inlineStr">
+        <is>
+          <t>1151.53</t>
+        </is>
+      </c>
+      <c r="B252" t="n">
+        <v>1618</v>
+      </c>
+      <c r="C252" t="n">
+        <v>1068</v>
+      </c>
+      <c r="D252" t="n">
+        <v>-411</v>
+      </c>
+      <c r="E252" t="n">
+        <v>-450</v>
+      </c>
+      <c r="F252" t="inlineStr">
         <is>
           <t>['Down']</t>
         </is>

--- a/Logs/Log.xlsx
+++ b/Logs/Log.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F22"/>
+  <dimension ref="A1:F20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,20 +456,20 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>1792.26</t>
+          <t>1999.80</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1622</v>
+        <v>1624</v>
       </c>
       <c r="C2" t="n">
-        <v>1000</v>
+        <v>984</v>
       </c>
       <c r="D2" t="n">
-        <v>-406</v>
+        <v>-404</v>
       </c>
       <c r="E2" t="n">
-        <v>-520</v>
+        <v>-536</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
@@ -480,20 +480,20 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>1793.81</t>
+          <t>2001.46</t>
         </is>
       </c>
       <c r="B3" t="n">
         <v>1624</v>
       </c>
       <c r="C3" t="n">
-        <v>998</v>
+        <v>988</v>
       </c>
       <c r="D3" t="n">
-        <v>-405</v>
+        <v>-404</v>
       </c>
       <c r="E3" t="n">
-        <v>-521</v>
+        <v>-534</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
@@ -504,44 +504,44 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>1795.12</t>
+          <t>2002.82</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1622</v>
+        <v>1624</v>
       </c>
       <c r="C4" t="n">
-        <v>1000</v>
+        <v>986</v>
       </c>
       <c r="D4" t="n">
-        <v>-405</v>
+        <v>-404</v>
       </c>
       <c r="E4" t="n">
-        <v>-521</v>
+        <v>-533</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['Right']</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>1796.30</t>
+          <t>2003.97</t>
         </is>
       </c>
       <c r="B5" t="n">
         <v>1624</v>
       </c>
       <c r="C5" t="n">
-        <v>998</v>
+        <v>988</v>
       </c>
       <c r="D5" t="n">
-        <v>-405</v>
+        <v>-404</v>
       </c>
       <c r="E5" t="n">
-        <v>-521</v>
+        <v>-533</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
@@ -552,44 +552,44 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>1797.54</t>
+          <t>2005.31</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1622</v>
+        <v>1624</v>
       </c>
       <c r="C6" t="n">
-        <v>998</v>
+        <v>988</v>
       </c>
       <c r="D6" t="n">
-        <v>-405</v>
+        <v>-404</v>
       </c>
       <c r="E6" t="n">
-        <v>-522</v>
+        <v>-532</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>['Right']</t>
+          <t>['Left']</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>1798.83</t>
+          <t>2006.46</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1620</v>
+        <v>1624</v>
       </c>
       <c r="C7" t="n">
-        <v>1002</v>
+        <v>986</v>
       </c>
       <c r="D7" t="n">
-        <v>-407</v>
+        <v>-404</v>
       </c>
       <c r="E7" t="n">
-        <v>-520</v>
+        <v>-533</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
@@ -600,44 +600,44 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>1800.12</t>
+          <t>2007.82</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1620</v>
+        <v>1622</v>
       </c>
       <c r="C8" t="n">
-        <v>1002</v>
+        <v>990</v>
       </c>
       <c r="D8" t="n">
-        <v>-408</v>
+        <v>-405</v>
       </c>
       <c r="E8" t="n">
-        <v>-518</v>
+        <v>-532</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>['Left']</t>
+          <t>['Up']</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>1801.42</t>
+          <t>2008.97</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>1620</v>
+        <v>1624</v>
       </c>
       <c r="C9" t="n">
-        <v>1002</v>
+        <v>984</v>
       </c>
       <c r="D9" t="n">
-        <v>-408</v>
+        <v>-405</v>
       </c>
       <c r="E9" t="n">
-        <v>-518</v>
+        <v>-533</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
@@ -648,310 +648,262 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>1802.83</t>
+          <t>2010.33</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1622</v>
+        <v>1626</v>
       </c>
       <c r="C10" t="n">
-        <v>1000</v>
+        <v>982</v>
       </c>
       <c r="D10" t="n">
-        <v>-407</v>
+        <v>-403</v>
       </c>
       <c r="E10" t="n">
-        <v>-519</v>
+        <v>-537</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>['Up']</t>
+          <t>['Down']</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>1804.00</t>
+          <t>2011.50</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1622</v>
+        <v>1624</v>
       </c>
       <c r="C11" t="n">
-        <v>998</v>
+        <v>982</v>
       </c>
       <c r="D11" t="n">
-        <v>-406</v>
+        <v>-403</v>
       </c>
       <c r="E11" t="n">
-        <v>-521</v>
+        <v>-538</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>['Down']</t>
+          <t>[]</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>1805.42</t>
+          <t>2012.83</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1620</v>
+        <v>1624</v>
       </c>
       <c r="C12" t="n">
-        <v>998</v>
+        <v>982</v>
       </c>
       <c r="D12" t="n">
-        <v>-407</v>
+        <v>-404</v>
       </c>
       <c r="E12" t="n">
-        <v>-522</v>
+        <v>-538</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>['Down']</t>
+          <t>[]</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>1806.82</t>
+          <t>2014.00</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1624</v>
+        <v>1622</v>
       </c>
       <c r="C13" t="n">
-        <v>992</v>
+        <v>982</v>
       </c>
       <c r="D13" t="n">
-        <v>-406</v>
+        <v>-405</v>
       </c>
       <c r="E13" t="n">
-        <v>-525</v>
+        <v>-538</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>['Down']</t>
+          <t>[]</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>1808.13</t>
+          <t>2015.31</t>
         </is>
       </c>
       <c r="B14" t="n">
         <v>1624</v>
       </c>
       <c r="C14" t="n">
-        <v>994</v>
+        <v>982</v>
       </c>
       <c r="D14" t="n">
-        <v>-404</v>
+        <v>-405</v>
       </c>
       <c r="E14" t="n">
-        <v>-527</v>
+        <v>-538</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>['Down']</t>
+          <t>['Right']</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>1809.29</t>
+          <t>2016.46</t>
         </is>
       </c>
       <c r="B15" t="n">
         <v>1622</v>
       </c>
       <c r="C15" t="n">
-        <v>994</v>
+        <v>982</v>
       </c>
       <c r="D15" t="n">
         <v>-405</v>
       </c>
       <c r="E15" t="n">
-        <v>-526</v>
+        <v>-538</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>['Down']</t>
+          <t>['Right']</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>1810.62</t>
+          <t>2017.81</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1622</v>
+        <v>1624</v>
       </c>
       <c r="C16" t="n">
-        <v>994</v>
+        <v>982</v>
       </c>
       <c r="D16" t="n">
-        <v>-406</v>
+        <v>-405</v>
       </c>
       <c r="E16" t="n">
-        <v>-526</v>
+        <v>-538</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>['Right']</t>
+          <t>['Left']</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>1811.78</t>
+          <t>2018.97</t>
         </is>
       </c>
       <c r="B17" t="n">
         <v>1622</v>
       </c>
       <c r="C17" t="n">
-        <v>988</v>
+        <v>982</v>
       </c>
       <c r="D17" t="n">
-        <v>-406</v>
+        <v>-405</v>
       </c>
       <c r="E17" t="n">
-        <v>-529</v>
+        <v>-538</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>['Right']</t>
+          <t>['Left']</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>1813.14</t>
+          <t>2020.31</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>1622</v>
+        <v>1624</v>
       </c>
       <c r="C18" t="n">
-        <v>994</v>
+        <v>980</v>
       </c>
       <c r="D18" t="n">
-        <v>-406</v>
+        <v>-405</v>
       </c>
       <c r="E18" t="n">
-        <v>-529</v>
+        <v>-539</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>['Left']</t>
+          <t>['Up']</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>1814.29</t>
+          <t>2021.47</t>
         </is>
       </c>
       <c r="B19" t="n">
         <v>1624</v>
       </c>
       <c r="C19" t="n">
-        <v>988</v>
+        <v>980</v>
       </c>
       <c r="D19" t="n">
-        <v>-405</v>
+        <v>-404</v>
       </c>
       <c r="E19" t="n">
-        <v>-529</v>
+        <v>-540</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>['Left']</t>
+          <t>['Up']</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>1815.66</t>
+          <t>2022.81</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1622</v>
+        <v>1626</v>
       </c>
       <c r="C20" t="n">
-        <v>994</v>
+        <v>976</v>
       </c>
       <c r="D20" t="n">
-        <v>-405</v>
+        <v>-403</v>
       </c>
       <c r="E20" t="n">
-        <v>-529</v>
+        <v>-542</v>
       </c>
       <c r="F20" t="inlineStr">
-        <is>
-          <t>['Up']</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>1816.91</t>
-        </is>
-      </c>
-      <c r="B21" t="n">
-        <v>1624</v>
-      </c>
-      <c r="C21" t="n">
-        <v>990</v>
-      </c>
-      <c r="D21" t="n">
-        <v>-405</v>
-      </c>
-      <c r="E21" t="n">
-        <v>-528</v>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>['Up']</t>
-        </is>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>1818.25</t>
-        </is>
-      </c>
-      <c r="B22" t="n">
-        <v>1622</v>
-      </c>
-      <c r="C22" t="n">
-        <v>988</v>
-      </c>
-      <c r="D22" t="n">
-        <v>-405</v>
-      </c>
-      <c r="E22" t="n">
-        <v>-531</v>
-      </c>
-      <c r="F22" t="inlineStr">
         <is>
           <t>['Down']</t>
         </is>

--- a/Logs/Log.xlsx
+++ b/Logs/Log.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F20"/>
+  <dimension ref="A1:F21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,20 +456,20 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>1999.80</t>
+          <t>2155.46</t>
         </is>
       </c>
       <c r="B2" t="n">
         <v>1624</v>
       </c>
       <c r="C2" t="n">
-        <v>984</v>
+        <v>976</v>
       </c>
       <c r="D2" t="n">
         <v>-404</v>
       </c>
       <c r="E2" t="n">
-        <v>-536</v>
+        <v>-544</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
@@ -480,20 +480,20 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>2001.46</t>
+          <t>2157.25</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1624</v>
+        <v>1626</v>
       </c>
       <c r="C3" t="n">
-        <v>988</v>
+        <v>976</v>
       </c>
       <c r="D3" t="n">
-        <v>-404</v>
+        <v>-403</v>
       </c>
       <c r="E3" t="n">
-        <v>-534</v>
+        <v>-544</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
@@ -504,20 +504,20 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>2002.82</t>
+          <t>2158.44</t>
         </is>
       </c>
       <c r="B4" t="n">
         <v>1624</v>
       </c>
       <c r="C4" t="n">
-        <v>986</v>
+        <v>978</v>
       </c>
       <c r="D4" t="n">
-        <v>-404</v>
+        <v>-403</v>
       </c>
       <c r="E4" t="n">
-        <v>-533</v>
+        <v>-543</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
@@ -528,20 +528,20 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>2003.97</t>
+          <t>2159.58</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1624</v>
+        <v>1626</v>
       </c>
       <c r="C5" t="n">
-        <v>988</v>
+        <v>976</v>
       </c>
       <c r="D5" t="n">
-        <v>-404</v>
+        <v>-403</v>
       </c>
       <c r="E5" t="n">
-        <v>-533</v>
+        <v>-543</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
@@ -552,20 +552,20 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>2005.31</t>
+          <t>2160.95</t>
         </is>
       </c>
       <c r="B6" t="n">
         <v>1624</v>
       </c>
       <c r="C6" t="n">
-        <v>988</v>
+        <v>978</v>
       </c>
       <c r="D6" t="n">
-        <v>-404</v>
+        <v>-403</v>
       </c>
       <c r="E6" t="n">
-        <v>-532</v>
+        <v>-543</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
@@ -576,20 +576,20 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>2006.46</t>
+          <t>2162.17</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1624</v>
+        <v>1626</v>
       </c>
       <c r="C7" t="n">
-        <v>986</v>
+        <v>974</v>
       </c>
       <c r="D7" t="n">
-        <v>-404</v>
+        <v>-403</v>
       </c>
       <c r="E7" t="n">
-        <v>-533</v>
+        <v>-544</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
@@ -600,20 +600,20 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>2007.82</t>
+          <t>2163.53</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1622</v>
+        <v>1624</v>
       </c>
       <c r="C8" t="n">
-        <v>990</v>
+        <v>978</v>
       </c>
       <c r="D8" t="n">
-        <v>-405</v>
+        <v>-403</v>
       </c>
       <c r="E8" t="n">
-        <v>-532</v>
+        <v>-544</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
@@ -624,20 +624,20 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>2008.97</t>
+          <t>2164.68</t>
         </is>
       </c>
       <c r="B9" t="n">
         <v>1624</v>
       </c>
       <c r="C9" t="n">
-        <v>984</v>
+        <v>974</v>
       </c>
       <c r="D9" t="n">
-        <v>-405</v>
+        <v>-404</v>
       </c>
       <c r="E9" t="n">
-        <v>-533</v>
+        <v>-544</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
@@ -648,20 +648,20 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>2010.33</t>
+          <t>2166.03</t>
         </is>
       </c>
       <c r="B10" t="n">
         <v>1626</v>
       </c>
       <c r="C10" t="n">
-        <v>982</v>
+        <v>970</v>
       </c>
       <c r="D10" t="n">
         <v>-403</v>
       </c>
       <c r="E10" t="n">
-        <v>-537</v>
+        <v>-548</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
@@ -672,44 +672,44 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>2011.50</t>
+          <t>2167.28</t>
         </is>
       </c>
       <c r="B11" t="n">
         <v>1624</v>
       </c>
       <c r="C11" t="n">
-        <v>982</v>
+        <v>972</v>
       </c>
       <c r="D11" t="n">
         <v>-403</v>
       </c>
       <c r="E11" t="n">
-        <v>-538</v>
+        <v>-549</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['Down']</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>2012.83</t>
+          <t>2168.63</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1624</v>
+        <v>1628</v>
       </c>
       <c r="C12" t="n">
-        <v>982</v>
+        <v>968</v>
       </c>
       <c r="D12" t="n">
-        <v>-404</v>
+        <v>-402</v>
       </c>
       <c r="E12" t="n">
-        <v>-538</v>
+        <v>-550</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
@@ -720,20 +720,20 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>2014.00</t>
+          <t>2169.87</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1622</v>
+        <v>1624</v>
       </c>
       <c r="C13" t="n">
-        <v>982</v>
+        <v>972</v>
       </c>
       <c r="D13" t="n">
-        <v>-405</v>
+        <v>-402</v>
       </c>
       <c r="E13" t="n">
-        <v>-538</v>
+        <v>-550</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
@@ -744,20 +744,20 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>2015.31</t>
+          <t>2171.24</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1624</v>
+        <v>1628</v>
       </c>
       <c r="C14" t="n">
-        <v>982</v>
+        <v>966</v>
       </c>
       <c r="D14" t="n">
-        <v>-405</v>
+        <v>-402</v>
       </c>
       <c r="E14" t="n">
-        <v>-538</v>
+        <v>-551</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
@@ -768,20 +768,20 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>2016.46</t>
+          <t>2172.49</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>1622</v>
+        <v>1626</v>
       </c>
       <c r="C15" t="n">
-        <v>982</v>
+        <v>970</v>
       </c>
       <c r="D15" t="n">
-        <v>-405</v>
+        <v>-401</v>
       </c>
       <c r="E15" t="n">
-        <v>-538</v>
+        <v>-552</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
@@ -792,20 +792,20 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>2017.81</t>
+          <t>2173.73</t>
         </is>
       </c>
       <c r="B16" t="n">
         <v>1624</v>
       </c>
       <c r="C16" t="n">
-        <v>982</v>
+        <v>972</v>
       </c>
       <c r="D16" t="n">
-        <v>-405</v>
+        <v>-403</v>
       </c>
       <c r="E16" t="n">
-        <v>-538</v>
+        <v>-549</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
@@ -816,20 +816,20 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>2018.97</t>
+          <t>2174.88</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1622</v>
+        <v>1626</v>
       </c>
       <c r="C17" t="n">
-        <v>982</v>
+        <v>968</v>
       </c>
       <c r="D17" t="n">
-        <v>-405</v>
+        <v>-403</v>
       </c>
       <c r="E17" t="n">
-        <v>-538</v>
+        <v>-550</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
@@ -840,20 +840,20 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>2020.31</t>
+          <t>2176.24</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>1624</v>
+        <v>1628</v>
       </c>
       <c r="C18" t="n">
-        <v>980</v>
+        <v>970</v>
       </c>
       <c r="D18" t="n">
-        <v>-405</v>
+        <v>-401</v>
       </c>
       <c r="E18" t="n">
-        <v>-539</v>
+        <v>-551</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
@@ -864,20 +864,20 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>2021.47</t>
+          <t>2177.52</t>
         </is>
       </c>
       <c r="B19" t="n">
         <v>1624</v>
       </c>
       <c r="C19" t="n">
-        <v>980</v>
+        <v>970</v>
       </c>
       <c r="D19" t="n">
-        <v>-404</v>
+        <v>-402</v>
       </c>
       <c r="E19" t="n">
-        <v>-540</v>
+        <v>-550</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
@@ -888,22 +888,46 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>2022.81</t>
+          <t>2178.83</t>
         </is>
       </c>
       <c r="B20" t="n">
         <v>1626</v>
       </c>
       <c r="C20" t="n">
-        <v>976</v>
+        <v>964</v>
       </c>
       <c r="D20" t="n">
         <v>-403</v>
       </c>
       <c r="E20" t="n">
-        <v>-542</v>
+        <v>-553</v>
       </c>
       <c r="F20" t="inlineStr">
+        <is>
+          <t>['Down']</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>2179.98</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>1628</v>
+      </c>
+      <c r="C21" t="n">
+        <v>964</v>
+      </c>
+      <c r="D21" t="n">
+        <v>-401</v>
+      </c>
+      <c r="E21" t="n">
+        <v>-556</v>
+      </c>
+      <c r="F21" t="inlineStr">
         <is>
           <t>['Down']</t>
         </is>

--- a/Logs/Log.xlsx
+++ b/Logs/Log.xlsx
@@ -414,7 +414,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G45"/>
+  <dimension ref="A1:G23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -462,7 +462,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>4485.65</t>
+          <t>5079.99</t>
         </is>
       </c>
       <c r="B2" t="inlineStr"/>
@@ -479,7 +479,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>4486.03</t>
+          <t>5080.42</t>
         </is>
       </c>
       <c r="B3" t="inlineStr"/>
@@ -496,7 +496,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>4486.31</t>
+          <t>5080.66</t>
         </is>
       </c>
       <c r="B4" t="inlineStr"/>
@@ -513,7 +513,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>4486.52</t>
+          <t>5080.87</t>
         </is>
       </c>
       <c r="B5" t="inlineStr"/>
@@ -530,7 +530,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>4486.74</t>
+          <t>5081.08</t>
         </is>
       </c>
       <c r="B6" t="inlineStr"/>
@@ -547,7 +547,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>4486.95</t>
+          <t>5081.29</t>
         </is>
       </c>
       <c r="B7" t="inlineStr"/>
@@ -564,7 +564,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>4487.16</t>
+          <t>5081.50</t>
         </is>
       </c>
       <c r="B8" t="inlineStr"/>
@@ -581,7 +581,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>4487.36</t>
+          <t>5081.71</t>
         </is>
       </c>
       <c r="B9" t="inlineStr"/>
@@ -598,7 +598,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>4487.60</t>
+          <t>5081.92</t>
         </is>
       </c>
       <c r="B10" t="inlineStr"/>
@@ -615,7 +615,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>4487.83</t>
+          <t>5082.13</t>
         </is>
       </c>
       <c r="B11" t="inlineStr"/>
@@ -632,7 +632,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>4488.07</t>
+          <t>5082.34</t>
         </is>
       </c>
       <c r="B12" t="inlineStr"/>
@@ -649,7 +649,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>4488.29</t>
+          <t>5082.55</t>
         </is>
       </c>
       <c r="B13" t="inlineStr"/>
@@ -666,7 +666,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>4488.51</t>
+          <t>5082.76</t>
         </is>
       </c>
       <c r="B14" t="inlineStr"/>
@@ -683,7 +683,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>4488.73</t>
+          <t>5082.97</t>
         </is>
       </c>
       <c r="B15" t="inlineStr"/>
@@ -700,7 +700,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>4488.96</t>
+          <t>5083.18</t>
         </is>
       </c>
       <c r="B16" t="inlineStr"/>
@@ -717,7 +717,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>4489.18</t>
+          <t>5083.39</t>
         </is>
       </c>
       <c r="B17" t="inlineStr"/>
@@ -734,7 +734,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>4489.42</t>
+          <t>5083.60</t>
         </is>
       </c>
       <c r="B18" t="inlineStr"/>
@@ -751,7 +751,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>4489.64</t>
+          <t>5083.80</t>
         </is>
       </c>
       <c r="B19" t="inlineStr"/>
@@ -768,7 +768,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>4489.88</t>
+          <t>5084.01</t>
         </is>
       </c>
       <c r="B20" t="inlineStr"/>
@@ -785,7 +785,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>4490.11</t>
+          <t>5084.22</t>
         </is>
       </c>
       <c r="B21" t="inlineStr"/>
@@ -802,7 +802,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>4490.34</t>
+          <t>5084.43</t>
         </is>
       </c>
       <c r="B22" t="inlineStr"/>
@@ -819,7 +819,7 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>4490.58</t>
+          <t>5084.64</t>
         </is>
       </c>
       <c r="B23" t="inlineStr"/>
@@ -828,380 +828,6 @@
       <c r="E23" t="inlineStr"/>
       <c r="F23" t="inlineStr"/>
       <c r="G23" t="inlineStr">
-        <is>
-          <t>['Guiding paused']</t>
-        </is>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>4490.82</t>
-        </is>
-      </c>
-      <c r="B24" t="inlineStr"/>
-      <c r="C24" t="inlineStr"/>
-      <c r="D24" t="inlineStr"/>
-      <c r="E24" t="inlineStr"/>
-      <c r="F24" t="inlineStr"/>
-      <c r="G24" t="inlineStr">
-        <is>
-          <t>['Guiding paused']</t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>4491.07</t>
-        </is>
-      </c>
-      <c r="B25" t="inlineStr"/>
-      <c r="C25" t="inlineStr"/>
-      <c r="D25" t="inlineStr"/>
-      <c r="E25" t="inlineStr"/>
-      <c r="F25" t="inlineStr"/>
-      <c r="G25" t="inlineStr">
-        <is>
-          <t>['Guiding paused']</t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
-        <is>
-          <t>4491.32</t>
-        </is>
-      </c>
-      <c r="B26" t="inlineStr"/>
-      <c r="C26" t="inlineStr"/>
-      <c r="D26" t="inlineStr"/>
-      <c r="E26" t="inlineStr"/>
-      <c r="F26" t="inlineStr"/>
-      <c r="G26" t="inlineStr">
-        <is>
-          <t>['Guiding paused']</t>
-        </is>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="inlineStr">
-        <is>
-          <t>4491.59</t>
-        </is>
-      </c>
-      <c r="B27" t="inlineStr"/>
-      <c r="C27" t="inlineStr"/>
-      <c r="D27" t="inlineStr"/>
-      <c r="E27" t="inlineStr"/>
-      <c r="F27" t="inlineStr"/>
-      <c r="G27" t="inlineStr">
-        <is>
-          <t>['Guiding paused']</t>
-        </is>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
-        <is>
-          <t>4491.82</t>
-        </is>
-      </c>
-      <c r="B28" t="inlineStr"/>
-      <c r="C28" t="inlineStr"/>
-      <c r="D28" t="inlineStr"/>
-      <c r="E28" t="inlineStr"/>
-      <c r="F28" t="inlineStr"/>
-      <c r="G28" t="inlineStr">
-        <is>
-          <t>['Guiding paused']</t>
-        </is>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="inlineStr">
-        <is>
-          <t>4492.06</t>
-        </is>
-      </c>
-      <c r="B29" t="inlineStr"/>
-      <c r="C29" t="inlineStr"/>
-      <c r="D29" t="inlineStr"/>
-      <c r="E29" t="inlineStr"/>
-      <c r="F29" t="inlineStr"/>
-      <c r="G29" t="inlineStr">
-        <is>
-          <t>['Guiding paused']</t>
-        </is>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="inlineStr">
-        <is>
-          <t>4492.30</t>
-        </is>
-      </c>
-      <c r="B30" t="inlineStr"/>
-      <c r="C30" t="inlineStr"/>
-      <c r="D30" t="inlineStr"/>
-      <c r="E30" t="inlineStr"/>
-      <c r="F30" t="inlineStr"/>
-      <c r="G30" t="inlineStr">
-        <is>
-          <t>['Guiding paused']</t>
-        </is>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="inlineStr">
-        <is>
-          <t>4492.54</t>
-        </is>
-      </c>
-      <c r="B31" t="inlineStr"/>
-      <c r="C31" t="inlineStr"/>
-      <c r="D31" t="inlineStr"/>
-      <c r="E31" t="inlineStr"/>
-      <c r="F31" t="inlineStr"/>
-      <c r="G31" t="inlineStr">
-        <is>
-          <t>['Guiding paused']</t>
-        </is>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="inlineStr">
-        <is>
-          <t>4492.80</t>
-        </is>
-      </c>
-      <c r="B32" t="inlineStr"/>
-      <c r="C32" t="inlineStr"/>
-      <c r="D32" t="inlineStr"/>
-      <c r="E32" t="inlineStr"/>
-      <c r="F32" t="inlineStr"/>
-      <c r="G32" t="inlineStr">
-        <is>
-          <t>['Guiding paused']</t>
-        </is>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="inlineStr">
-        <is>
-          <t>4493.05</t>
-        </is>
-      </c>
-      <c r="B33" t="inlineStr"/>
-      <c r="C33" t="inlineStr"/>
-      <c r="D33" t="inlineStr"/>
-      <c r="E33" t="inlineStr"/>
-      <c r="F33" t="inlineStr"/>
-      <c r="G33" t="inlineStr">
-        <is>
-          <t>['Guiding paused']</t>
-        </is>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="inlineStr">
-        <is>
-          <t>4493.29</t>
-        </is>
-      </c>
-      <c r="B34" t="inlineStr"/>
-      <c r="C34" t="inlineStr"/>
-      <c r="D34" t="inlineStr"/>
-      <c r="E34" t="inlineStr"/>
-      <c r="F34" t="inlineStr"/>
-      <c r="G34" t="inlineStr">
-        <is>
-          <t>['Guiding paused']</t>
-        </is>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="inlineStr">
-        <is>
-          <t>4493.52</t>
-        </is>
-      </c>
-      <c r="B35" t="inlineStr"/>
-      <c r="C35" t="inlineStr"/>
-      <c r="D35" t="inlineStr"/>
-      <c r="E35" t="inlineStr"/>
-      <c r="F35" t="inlineStr"/>
-      <c r="G35" t="inlineStr">
-        <is>
-          <t>['Guiding paused']</t>
-        </is>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="inlineStr">
-        <is>
-          <t>4493.75</t>
-        </is>
-      </c>
-      <c r="B36" t="inlineStr"/>
-      <c r="C36" t="inlineStr"/>
-      <c r="D36" t="inlineStr"/>
-      <c r="E36" t="inlineStr"/>
-      <c r="F36" t="inlineStr"/>
-      <c r="G36" t="inlineStr">
-        <is>
-          <t>['Guiding paused']</t>
-        </is>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="inlineStr">
-        <is>
-          <t>4493.99</t>
-        </is>
-      </c>
-      <c r="B37" t="inlineStr"/>
-      <c r="C37" t="inlineStr"/>
-      <c r="D37" t="inlineStr"/>
-      <c r="E37" t="inlineStr"/>
-      <c r="F37" t="inlineStr"/>
-      <c r="G37" t="inlineStr">
-        <is>
-          <t>['Guiding paused']</t>
-        </is>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="inlineStr">
-        <is>
-          <t>4494.22</t>
-        </is>
-      </c>
-      <c r="B38" t="inlineStr"/>
-      <c r="C38" t="inlineStr"/>
-      <c r="D38" t="inlineStr"/>
-      <c r="E38" t="inlineStr"/>
-      <c r="F38" t="inlineStr"/>
-      <c r="G38" t="inlineStr">
-        <is>
-          <t>['Guiding paused']</t>
-        </is>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="inlineStr">
-        <is>
-          <t>4494.45</t>
-        </is>
-      </c>
-      <c r="B39" t="inlineStr"/>
-      <c r="C39" t="inlineStr"/>
-      <c r="D39" t="inlineStr"/>
-      <c r="E39" t="inlineStr"/>
-      <c r="F39" t="inlineStr"/>
-      <c r="G39" t="inlineStr">
-        <is>
-          <t>['Guiding paused']</t>
-        </is>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" t="inlineStr">
-        <is>
-          <t>4494.68</t>
-        </is>
-      </c>
-      <c r="B40" t="inlineStr"/>
-      <c r="C40" t="inlineStr"/>
-      <c r="D40" t="inlineStr"/>
-      <c r="E40" t="inlineStr"/>
-      <c r="F40" t="inlineStr"/>
-      <c r="G40" t="inlineStr">
-        <is>
-          <t>['Guiding paused']</t>
-        </is>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" t="inlineStr">
-        <is>
-          <t>4494.91</t>
-        </is>
-      </c>
-      <c r="B41" t="inlineStr"/>
-      <c r="C41" t="inlineStr"/>
-      <c r="D41" t="inlineStr"/>
-      <c r="E41" t="inlineStr"/>
-      <c r="F41" t="inlineStr"/>
-      <c r="G41" t="inlineStr">
-        <is>
-          <t>['Guiding paused']</t>
-        </is>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" t="inlineStr">
-        <is>
-          <t>4495.16</t>
-        </is>
-      </c>
-      <c r="B42" t="inlineStr"/>
-      <c r="C42" t="inlineStr"/>
-      <c r="D42" t="inlineStr"/>
-      <c r="E42" t="inlineStr"/>
-      <c r="F42" t="inlineStr"/>
-      <c r="G42" t="inlineStr">
-        <is>
-          <t>['Guiding paused']</t>
-        </is>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" t="inlineStr">
-        <is>
-          <t>4495.38</t>
-        </is>
-      </c>
-      <c r="B43" t="inlineStr"/>
-      <c r="C43" t="inlineStr"/>
-      <c r="D43" t="inlineStr"/>
-      <c r="E43" t="inlineStr"/>
-      <c r="F43" t="inlineStr"/>
-      <c r="G43" t="inlineStr">
-        <is>
-          <t>['Guiding paused']</t>
-        </is>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" t="inlineStr">
-        <is>
-          <t>4495.63</t>
-        </is>
-      </c>
-      <c r="B44" t="inlineStr"/>
-      <c r="C44" t="inlineStr"/>
-      <c r="D44" t="inlineStr"/>
-      <c r="E44" t="inlineStr"/>
-      <c r="F44" t="inlineStr"/>
-      <c r="G44" t="inlineStr">
-        <is>
-          <t>['Guiding paused']</t>
-        </is>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" t="inlineStr">
-        <is>
-          <t>4495.85</t>
-        </is>
-      </c>
-      <c r="B45" t="inlineStr"/>
-      <c r="C45" t="inlineStr"/>
-      <c r="D45" t="inlineStr"/>
-      <c r="E45" t="inlineStr"/>
-      <c r="F45" t="inlineStr"/>
-      <c r="G45" t="inlineStr">
         <is>
           <t>['Guiding paused']</t>
         </is>
@@ -1218,7 +844,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A27"/>
+  <dimension ref="A1:B27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1229,185 +855,316 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>pin_right = 19</t>
+          <t>pin_right</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>19</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>pin_left = 13</t>
+          <t>pin_left</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>13</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>pin_down = 6</t>
+          <t>pin_down</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>6</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>pin_up = 26</t>
+          <t>pin_up</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>26</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>button_pin = 16</t>
+          <t>button_pin</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>16</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>margin = 0</t>
+          <t>margin</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>sticky_buffer = 10</t>
+          <t>sticky_buffer</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>10</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>cloud_mode = None</t>
+          <t>cloud_mode</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>None</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>record_buffer = 20</t>
+          <t>record_buffer</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>20</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>rotate = 90</t>
+          <t>rotate</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>90</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>image_width = 4056</t>
+          <t>image_width</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>4056</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>image_height = 3040</t>
+          <t>image_height</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>3040</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>image_scale = 0.6</t>
+          <t>image_scale</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>0.6</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>image_buffer = 7</t>
+          <t>image_buffer</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>7</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>threshold = 0</t>
+          <t>threshold</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>grey = True</t>
+          <t>grey</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>True</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>blur = 5</t>
+          <t>blur</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>5</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>param1 = 200</t>
+          <t>param1</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>200</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>param2 = 50</t>
+          <t>param2</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>50</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>buffer_length = 10</t>
+          <t>buffer_length</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>10</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>overlay = True</t>
+          <t>overlay</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>True</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>scale = 0.5</t>
+          <t>scale</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>0.5</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>show_cam_feed = False</t>
+          <t>show_cam_feed</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>False</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>do_relay_test = False</t>
+          <t>do_relay_test</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>False</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>export_to_excel = True</t>
+          <t>export_to_excel</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>True</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr"/>
+      <c r="B26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>NOTE: hier teste ich</t>
+          <t>NOTE</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>testshit jhjhjh jhjhjh</t>
         </is>
       </c>
     </row>
